--- a/SUMR25_River_Rockfish_Proj/Raw_Data/River's_Rockfish_Metadata_Parturition_V7.xlsx
+++ b/SUMR25_River_Rockfish_Proj/Raw_Data/River's_Rockfish_Metadata_Parturition_V7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmcke\OneDrive\Documents\Summer_2025_Rockfish_Research_Project\Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA09865C-D740-4513-9C96-8A59500AC400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C9A894-28A5-4158-8594-0422031810AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{1F309CE8-D94F-4E95-9E51-ED88FCC75EAC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="506">
   <si>
     <t>FISH_ID</t>
   </si>
@@ -6066,7 +6066,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6229,6 +6229,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6242,7 +6248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6429,6 +6435,7 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6830,11 +6837,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98266282-F063-447E-BEE6-F317894BF3C6}">
-  <dimension ref="A1:AZ68"/>
+  <dimension ref="A1:BA68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ64" sqref="AJ64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6871,26 +6878,27 @@
     <col min="33" max="34" width="27.26953125" style="30" customWidth="1"/>
     <col min="35" max="35" width="24.453125" customWidth="1"/>
     <col min="36" max="36" width="22.7265625" style="23" customWidth="1"/>
-    <col min="37" max="37" width="15.453125" style="26" customWidth="1"/>
-    <col min="38" max="38" width="12.54296875" style="24" customWidth="1"/>
-    <col min="39" max="39" width="13.26953125" style="25" customWidth="1"/>
-    <col min="40" max="40" width="14.1796875" style="27" customWidth="1"/>
-    <col min="41" max="41" width="22.54296875" style="87" customWidth="1"/>
-    <col min="42" max="42" width="24.26953125" customWidth="1"/>
-    <col min="43" max="43" width="29.6328125" style="28" customWidth="1"/>
-    <col min="44" max="44" width="40.7265625" style="44" customWidth="1"/>
-    <col min="45" max="45" width="40.7265625" style="57" customWidth="1"/>
-    <col min="46" max="46" width="18.453125" style="29" customWidth="1"/>
-    <col min="47" max="47" width="16.7265625" style="30" customWidth="1"/>
-    <col min="48" max="48" width="47" customWidth="1"/>
-    <col min="49" max="49" width="21" customWidth="1"/>
-    <col min="50" max="50" width="43.81640625" style="42" customWidth="1"/>
-    <col min="51" max="51" width="41.26953125" style="43" customWidth="1"/>
-    <col min="52" max="52" width="40.26953125" style="44" customWidth="1"/>
-    <col min="53" max="53" width="21.08984375" customWidth="1"/>
+    <col min="37" max="37" width="22.7265625" style="88" customWidth="1"/>
+    <col min="38" max="38" width="15.453125" style="26" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" style="24" customWidth="1"/>
+    <col min="40" max="40" width="13.26953125" style="25" customWidth="1"/>
+    <col min="41" max="41" width="14.1796875" style="27" customWidth="1"/>
+    <col min="42" max="42" width="22.54296875" style="87" customWidth="1"/>
+    <col min="43" max="43" width="24.26953125" customWidth="1"/>
+    <col min="44" max="44" width="29.6328125" style="28" customWidth="1"/>
+    <col min="45" max="45" width="40.7265625" style="44" customWidth="1"/>
+    <col min="46" max="46" width="40.7265625" style="57" customWidth="1"/>
+    <col min="47" max="47" width="18.453125" style="29" customWidth="1"/>
+    <col min="48" max="48" width="16.7265625" style="30" customWidth="1"/>
+    <col min="49" max="49" width="47" customWidth="1"/>
+    <col min="50" max="50" width="21" customWidth="1"/>
+    <col min="51" max="51" width="43.81640625" style="42" customWidth="1"/>
+    <col min="52" max="52" width="41.26953125" style="43" customWidth="1"/>
+    <col min="53" max="53" width="40.26953125" style="44" customWidth="1"/>
+    <col min="54" max="54" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -6999,56 +7007,59 @@
       <c r="AJ1" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AK1" s="88" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AM1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="AM1" s="25" t="s">
+      <c r="AN1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="AO1" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="AO1" s="87" t="s">
+      <c r="AP1" s="87" t="s">
         <v>504</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>127</v>
       </c>
-      <c r="AQ1" s="28" t="s">
+      <c r="AR1" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="AR1" s="44" t="s">
+      <c r="AS1" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="AS1" s="57" t="s">
+      <c r="AT1" s="57" t="s">
         <v>421</v>
       </c>
-      <c r="AT1" s="29" t="s">
+      <c r="AU1" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AV1" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>428</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>429</v>
       </c>
-      <c r="AX1" s="42" t="s">
+      <c r="AY1" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="AY1" s="43" t="s">
+      <c r="AZ1" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="AZ1" s="44" t="s">
+      <c r="BA1" s="44" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:53">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -7151,45 +7162,48 @@
       <c r="AJ2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK2" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL2" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM2" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN2" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO2" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AK2" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL2" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP2" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>184</v>
       </c>
-      <c r="AQ2" s="28" t="s">
+      <c r="AR2" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="AR2" s="26" t="s">
+      <c r="AS2" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="AS2" s="26" t="s">
+      <c r="AT2" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="AT2" s="29">
+      <c r="AU2" s="29">
         <v>307</v>
       </c>
-      <c r="AU2" s="30">
+      <c r="AV2" s="30">
         <v>628.20000000000005</v>
       </c>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="42" t="s">
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:53">
       <c r="A3" s="2">
         <v>97828</v>
       </c>
@@ -7289,47 +7303,50 @@
       <c r="AJ3" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK3" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL3" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM3" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN3" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO3" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="AK3" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL3" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN3" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO3" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP3" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>141</v>
       </c>
-      <c r="AQ3" s="28" t="s">
+      <c r="AR3" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="AR3" s="44" t="s">
+      <c r="AS3" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS3" s="57" t="s">
+      <c r="AT3" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AT3" s="29">
+      <c r="AU3" s="29">
         <v>279</v>
       </c>
-      <c r="AU3" s="30">
+      <c r="AV3" s="30">
         <v>450.4</v>
       </c>
-      <c r="AW3" s="72">
+      <c r="AX3" s="72">
         <v>45334</v>
       </c>
-      <c r="AX3" s="42" t="s">
+      <c r="AY3" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:53">
       <c r="A4" s="2">
         <v>97811</v>
       </c>
@@ -7423,47 +7440,50 @@
       <c r="AJ4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK4" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL4" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM4" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN4" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO4" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP4" t="s">
+      <c r="AK4" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL4" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM4" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN4" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO4" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP4" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>141</v>
       </c>
-      <c r="AQ4" s="28" t="s">
+      <c r="AR4" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="AR4" s="44" t="s">
+      <c r="AS4" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="AS4" s="57" t="s">
+      <c r="AT4" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="AT4" s="29">
+      <c r="AU4" s="29">
         <v>291</v>
       </c>
-      <c r="AU4" s="30">
+      <c r="AV4" s="30">
         <v>564.9</v>
       </c>
-      <c r="AW4" s="73" t="s">
+      <c r="AX4" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="AX4" s="42" t="s">
+      <c r="AY4" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:53">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -7563,48 +7583,51 @@
       <c r="AJ5" s="23">
         <v>58969.973250000003</v>
       </c>
-      <c r="AK5" s="26">
+      <c r="AK5" s="88">
+        <v>58969.973250000003</v>
+      </c>
+      <c r="AL5" s="26">
         <v>285</v>
       </c>
-      <c r="AL5" s="24">
+      <c r="AM5" s="24">
         <v>518</v>
       </c>
-      <c r="AM5" s="25">
+      <c r="AN5" s="25">
         <v>3.52</v>
       </c>
-      <c r="AN5" s="27">
+      <c r="AO5" s="27">
         <v>5.77</v>
       </c>
-      <c r="AO5" s="87" t="s">
+      <c r="AP5" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>90</v>
       </c>
-      <c r="AQ5" s="28" t="s">
+      <c r="AR5" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="AR5" s="44" t="s">
+      <c r="AS5" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS5" s="57" t="s">
+      <c r="AT5" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AT5" s="29">
+      <c r="AU5" s="29">
         <v>280</v>
       </c>
-      <c r="AU5" s="30">
+      <c r="AV5" s="30">
         <v>533.79999999999995</v>
       </c>
-      <c r="AW5" s="72">
+      <c r="AX5" s="72">
         <v>45329</v>
       </c>
-      <c r="AX5" s="42">
-        <f t="shared" ref="AX5:AX35" si="0">AJ5/AL5</f>
+      <c r="AY5" s="42">
+        <f t="shared" ref="AY5:AY35" si="0">AJ5/AM5</f>
         <v>113.8416472007722</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:53">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -7707,47 +7730,50 @@
       <c r="AJ6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL6" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM6" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN6" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO6" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP6" t="s">
+      <c r="AK6" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN6" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP6" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>184</v>
       </c>
-      <c r="AQ6" s="28" t="s">
+      <c r="AR6" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="AR6" s="44" t="s">
+      <c r="AS6" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS6" s="57" t="s">
+      <c r="AT6" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AT6" s="29">
+      <c r="AU6" s="29">
         <v>291</v>
       </c>
-      <c r="AU6" s="30">
+      <c r="AV6" s="30">
         <v>488.7</v>
       </c>
-      <c r="AW6" s="73" t="s">
+      <c r="AX6" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="AX6" s="42" t="s">
+      <c r="AY6" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:53">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -7847,45 +7873,48 @@
       <c r="AJ7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK7" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL7" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM7" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN7" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO7" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP7" t="s">
+      <c r="AK7" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM7" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO7" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP7" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>141</v>
       </c>
-      <c r="AQ7" s="28" t="s">
+      <c r="AR7" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AR7" s="44" t="s">
+      <c r="AS7" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="AS7" s="57" t="s">
+      <c r="AT7" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="AT7" s="29">
+      <c r="AU7" s="29">
         <v>321</v>
       </c>
-      <c r="AU7" s="30">
+      <c r="AV7" s="30">
         <v>743</v>
       </c>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="42" t="s">
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:53">
       <c r="A8" s="2">
         <v>97838</v>
       </c>
@@ -7991,47 +8020,50 @@
       <c r="AJ8" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK8" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL8" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM8" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN8" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO8" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP8" t="s">
+      <c r="AK8" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL8" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN8" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP8" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>91</v>
       </c>
-      <c r="AQ8" s="28" t="s">
+      <c r="AR8" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="AR8" s="44" t="s">
+      <c r="AS8" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="AS8" s="57" t="s">
+      <c r="AT8" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="AT8" s="29">
+      <c r="AU8" s="29">
         <v>288</v>
       </c>
-      <c r="AU8" s="30">
+      <c r="AV8" s="30">
         <v>452.6</v>
       </c>
-      <c r="AW8" s="73" t="s">
+      <c r="AX8" s="73" t="s">
         <v>441</v>
       </c>
-      <c r="AX8" s="42" t="s">
+      <c r="AY8" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:53">
       <c r="A9" s="2">
         <v>97812</v>
       </c>
@@ -8128,48 +8160,51 @@
       <c r="AJ9" s="23">
         <v>39293.485220000002</v>
       </c>
-      <c r="AK9" s="26">
+      <c r="AK9" s="88">
+        <v>39293.485220000002</v>
+      </c>
+      <c r="AL9" s="26">
         <v>305</v>
       </c>
-      <c r="AL9" s="24">
+      <c r="AM9" s="24">
         <v>571.20000000000005</v>
       </c>
-      <c r="AM9" s="25">
+      <c r="AN9" s="25">
         <v>6.88</v>
       </c>
-      <c r="AN9" s="27">
+      <c r="AO9" s="27">
         <v>6.26</v>
       </c>
-      <c r="AO9" s="87" t="s">
+      <c r="AP9" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>90</v>
       </c>
-      <c r="AQ9" s="28" t="s">
+      <c r="AR9" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR9" s="44" t="s">
+      <c r="AS9" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS9" s="57" t="s">
+      <c r="AT9" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AT9" s="29">
+      <c r="AU9" s="29">
         <v>297</v>
       </c>
-      <c r="AU9" s="30">
+      <c r="AV9" s="30">
         <v>599.1</v>
       </c>
-      <c r="AW9" s="72">
+      <c r="AX9" s="72">
         <v>45324</v>
       </c>
-      <c r="AX9" s="42">
+      <c r="AY9" s="42">
         <f t="shared" si="0"/>
         <v>68.791115581232489</v>
       </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:53">
       <c r="A10" s="2">
         <v>97843</v>
       </c>
@@ -8269,51 +8304,54 @@
       <c r="AJ10" s="23">
         <v>136811</v>
       </c>
-      <c r="AK10" s="26">
+      <c r="AK10" s="88">
+        <v>136811</v>
+      </c>
+      <c r="AL10" s="26">
         <v>291</v>
       </c>
-      <c r="AL10" s="24">
+      <c r="AM10" s="24">
         <v>503.8</v>
       </c>
-      <c r="AM10" s="25">
+      <c r="AN10" s="25">
         <v>3.14</v>
       </c>
-      <c r="AN10" s="27">
+      <c r="AO10" s="27">
         <v>7.58</v>
       </c>
-      <c r="AO10" s="87" t="s">
+      <c r="AP10" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>90</v>
       </c>
-      <c r="AQ10" s="28" t="s">
+      <c r="AR10" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="AR10" s="44" t="s">
+      <c r="AS10" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS10" s="57" t="s">
+      <c r="AT10" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AT10" s="29">
+      <c r="AU10" s="29">
         <v>286</v>
       </c>
-      <c r="AU10" s="30">
+      <c r="AV10" s="30">
         <v>489.4</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>430</v>
       </c>
-      <c r="AW10" s="73" t="s">
+      <c r="AX10" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="AX10" s="42">
+      <c r="AY10" s="42">
         <f t="shared" si="0"/>
         <v>271.558157999206</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:53">
       <c r="A11" s="2">
         <v>97833</v>
       </c>
@@ -8419,51 +8457,54 @@
       <c r="AJ11" s="23">
         <v>95769</v>
       </c>
-      <c r="AK11" s="26">
+      <c r="AK11" s="88">
+        <v>95769</v>
+      </c>
+      <c r="AL11" s="26">
         <v>297</v>
       </c>
-      <c r="AL11" s="24">
+      <c r="AM11" s="24">
         <v>460.1</v>
       </c>
-      <c r="AM11" s="25">
+      <c r="AN11" s="25">
         <v>3.64</v>
       </c>
-      <c r="AN11" s="27">
+      <c r="AO11" s="27">
         <v>5.84</v>
       </c>
-      <c r="AO11" s="87" t="s">
+      <c r="AP11" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>90</v>
       </c>
-      <c r="AQ11" s="28" t="s">
+      <c r="AR11" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AR11" s="44" t="s">
+      <c r="AS11" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="AS11" s="57" t="s">
+      <c r="AT11" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AT11" s="29">
+      <c r="AU11" s="29">
         <v>295</v>
       </c>
-      <c r="AU11" s="30">
+      <c r="AV11" s="30">
         <v>515.4</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>431</v>
       </c>
-      <c r="AW11" s="73" t="s">
+      <c r="AX11" s="73" t="s">
         <v>442</v>
       </c>
-      <c r="AX11" s="42">
+      <c r="AY11" s="42">
         <f t="shared" si="0"/>
         <v>208.14822864594652</v>
       </c>
     </row>
-    <row r="12" spans="1:52" s="61" customFormat="1">
+    <row r="12" spans="1:53" s="61" customFormat="1">
       <c r="A12" s="60" t="s">
         <v>51</v>
       </c>
@@ -8566,7 +8607,7 @@
       <c r="AJ12" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="AK12" s="61" t="s">
+      <c r="AK12" s="88" t="s">
         <v>104</v>
       </c>
       <c r="AL12" s="61" t="s">
@@ -8578,38 +8619,41 @@
       <c r="AN12" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="AO12" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP12" s="61" t="s">
+      <c r="AO12" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP12" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ12" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AQ12" s="61" t="s">
+      <c r="AR12" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="AR12" s="61" t="s">
+      <c r="AS12" s="61" t="s">
         <v>425</v>
       </c>
-      <c r="AS12" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT12" s="61">
+      <c r="AT12" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU12" s="61">
         <v>310</v>
       </c>
-      <c r="AU12" s="61">
+      <c r="AV12" s="61">
         <v>576.70000000000005</v>
       </c>
-      <c r="AV12" s="61" t="s">
+      <c r="AW12" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="AW12" s="83" t="s">
+      <c r="AX12" s="83" t="s">
         <v>443</v>
       </c>
-      <c r="AX12" s="61" t="s">
+      <c r="AY12" s="61" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:53">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -8715,50 +8759,53 @@
       <c r="AJ13" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK13" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL13" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM13" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN13" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO13" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP13" t="s">
+      <c r="AK13" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN13" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO13" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP13" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>141</v>
       </c>
-      <c r="AQ13" s="28" t="s">
+      <c r="AR13" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR13" s="81" t="s">
+      <c r="AS13" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AS13" s="81" t="s">
+      <c r="AT13" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AT13" s="29">
+      <c r="AU13" s="29">
         <v>279</v>
       </c>
-      <c r="AU13" s="30">
+      <c r="AV13" s="30">
         <v>475.8</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AW13" t="s">
         <v>433</v>
       </c>
-      <c r="AW13" s="76">
+      <c r="AX13" s="76">
         <v>45390</v>
       </c>
-      <c r="AX13" s="42" t="s">
+      <c r="AY13" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:53">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -8864,45 +8911,48 @@
       <c r="AJ14" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK14" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL14" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM14" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN14" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO14" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP14" t="s">
+      <c r="AK14" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM14" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN14" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP14" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>141</v>
       </c>
-      <c r="AQ14" s="28" t="s">
+      <c r="AR14" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="AR14" s="81" t="s">
+      <c r="AS14" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AS14" s="81" t="s">
+      <c r="AT14" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AT14" s="29">
+      <c r="AU14" s="29">
         <v>288</v>
       </c>
-      <c r="AU14" s="30">
+      <c r="AV14" s="30">
         <v>545</v>
       </c>
-      <c r="AW14" s="77"/>
-      <c r="AX14" s="42" t="s">
+      <c r="AX14" s="77"/>
+      <c r="AY14" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:52" s="61" customFormat="1">
+    <row r="15" spans="1:53" s="61" customFormat="1">
       <c r="A15" s="60" t="s">
         <v>54</v>
       </c>
@@ -9005,51 +9055,54 @@
       <c r="AJ15" s="61">
         <v>97253.290540000002</v>
       </c>
-      <c r="AK15" s="61">
+      <c r="AK15" s="88">
+        <v>97253.290540000002</v>
+      </c>
+      <c r="AL15" s="61">
         <v>265</v>
       </c>
-      <c r="AL15" s="61">
+      <c r="AM15" s="61">
         <v>378.4</v>
       </c>
-      <c r="AM15" s="61">
+      <c r="AN15" s="61">
         <v>6.12</v>
       </c>
-      <c r="AN15" s="61">
+      <c r="AO15" s="61">
         <v>4.04</v>
       </c>
-      <c r="AO15" s="87" t="s">
+      <c r="AP15" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP15" s="61" t="s">
+      <c r="AQ15" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AQ15" s="61" t="s">
+      <c r="AR15" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="AR15" s="61" t="s">
+      <c r="AS15" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="AS15" s="61" t="s">
+      <c r="AT15" s="61" t="s">
         <v>498</v>
       </c>
-      <c r="AT15" s="61">
+      <c r="AU15" s="61">
         <v>264</v>
       </c>
-      <c r="AU15" s="61">
+      <c r="AV15" s="61">
         <v>393.6</v>
       </c>
-      <c r="AV15" s="61" t="s">
+      <c r="AW15" s="61" t="s">
         <v>434</v>
       </c>
-      <c r="AW15" s="84" t="s">
+      <c r="AX15" s="84" t="s">
         <v>444</v>
       </c>
-      <c r="AX15" s="61">
+      <c r="AY15" s="61">
         <f t="shared" si="0"/>
         <v>257.01186717758986</v>
       </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:53">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -9149,51 +9202,54 @@
       <c r="AJ16" s="23">
         <v>48264</v>
       </c>
-      <c r="AK16" s="26">
+      <c r="AK16" s="88">
+        <v>48264</v>
+      </c>
+      <c r="AL16" s="26">
         <v>278</v>
       </c>
-      <c r="AL16" s="24">
+      <c r="AM16" s="24">
         <v>422.6</v>
       </c>
-      <c r="AM16" s="25">
+      <c r="AN16" s="25">
         <v>4.3</v>
       </c>
-      <c r="AN16" s="27">
+      <c r="AO16" s="27">
         <v>7.06</v>
       </c>
-      <c r="AO16" s="87" t="s">
+      <c r="AP16" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
         <v>90</v>
       </c>
-      <c r="AQ16" s="28" t="s">
+      <c r="AR16" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR16" s="44" t="s">
+      <c r="AS16" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS16" s="57" t="s">
+      <c r="AT16" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AT16" s="29">
+      <c r="AU16" s="29">
         <v>279</v>
       </c>
-      <c r="AU16" s="30">
+      <c r="AV16" s="30">
         <v>466.6</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
         <v>435</v>
       </c>
-      <c r="AW16" s="76">
+      <c r="AX16" s="76">
         <v>45397</v>
       </c>
-      <c r="AX16" s="42">
+      <c r="AY16" s="42">
         <f t="shared" si="0"/>
         <v>114.2072882158069</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:51">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -9287,51 +9343,54 @@
       <c r="AJ17" s="23">
         <v>63586.473570000002</v>
       </c>
-      <c r="AK17" s="26">
+      <c r="AK17" s="88">
+        <v>63586.473570000002</v>
+      </c>
+      <c r="AL17" s="26">
         <v>225</v>
       </c>
-      <c r="AL17" s="24">
+      <c r="AM17" s="24">
         <v>311.89999999999998</v>
       </c>
-      <c r="AM17" s="25">
+      <c r="AN17" s="25">
         <v>1.38</v>
       </c>
-      <c r="AN17" s="27">
+      <c r="AO17" s="27">
         <v>5.56</v>
       </c>
-      <c r="AO17" s="87" t="s">
+      <c r="AP17" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>90</v>
       </c>
-      <c r="AQ17" s="28" t="s">
+      <c r="AR17" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR17" s="44" t="s">
+      <c r="AS17" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS17" s="57" t="s">
+      <c r="AT17" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AT17" s="29">
+      <c r="AU17" s="29">
         <v>245</v>
       </c>
-      <c r="AU17" s="30">
+      <c r="AV17" s="30">
         <v>340.6</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>434</v>
       </c>
-      <c r="AW17" s="76">
+      <c r="AX17" s="76">
         <v>45390</v>
       </c>
-      <c r="AX17" s="42">
+      <c r="AY17" s="42">
         <f t="shared" si="0"/>
         <v>203.86814225713371</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:51">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -9437,50 +9496,53 @@
       <c r="AJ18" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK18" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL18" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM18" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN18" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO18" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP18" t="s">
+      <c r="AK18" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL18" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM18" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN18" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO18" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP18" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>141</v>
       </c>
-      <c r="AQ18" s="28" t="s">
+      <c r="AR18" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR18" s="81" t="s">
+      <c r="AS18" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AS18" s="81" t="s">
+      <c r="AT18" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AT18" s="29">
+      <c r="AU18" s="29">
         <v>260</v>
       </c>
-      <c r="AU18" s="30">
+      <c r="AV18" s="30">
         <v>289</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
         <v>435</v>
       </c>
-      <c r="AW18" s="78" t="s">
+      <c r="AX18" s="78" t="s">
         <v>444</v>
       </c>
-      <c r="AX18" s="42" t="s">
+      <c r="AY18" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:51">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -9583,50 +9645,53 @@
       <c r="AJ19" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK19" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL19" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM19" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN19" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO19" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP19" t="s">
+      <c r="AK19" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL19" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN19" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO19" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP19" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>141</v>
       </c>
-      <c r="AQ19" s="28" t="s">
+      <c r="AR19" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR19" s="81" t="s">
+      <c r="AS19" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AS19" s="81" t="s">
+      <c r="AT19" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AT19" s="29">
+      <c r="AU19" s="29">
         <v>261</v>
       </c>
-      <c r="AU19" s="30">
+      <c r="AV19" s="30">
         <v>375.9</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AW19" t="s">
         <v>435</v>
       </c>
-      <c r="AW19" s="76">
+      <c r="AX19" s="76">
         <v>45397</v>
       </c>
-      <c r="AX19" s="42" t="s">
+      <c r="AY19" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:51">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -9732,50 +9797,53 @@
       <c r="AJ20" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK20" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL20" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM20" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN20" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO20" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP20" t="s">
+      <c r="AK20" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL20" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM20" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN20" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO20" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP20" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>141</v>
       </c>
-      <c r="AQ20" s="28" t="s">
+      <c r="AR20" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR20" s="81" t="s">
+      <c r="AS20" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AS20" s="81" t="s">
+      <c r="AT20" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AT20" s="29">
+      <c r="AU20" s="29">
         <v>270</v>
       </c>
-      <c r="AU20" s="30">
+      <c r="AV20" s="30">
         <v>446.9</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AW20" t="s">
         <v>435</v>
       </c>
-      <c r="AW20" s="76">
+      <c r="AX20" s="76">
         <v>45397</v>
       </c>
-      <c r="AX20" s="42" t="s">
+      <c r="AY20" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:51">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -9872,45 +9940,48 @@
       <c r="AJ21" s="23">
         <v>51746</v>
       </c>
-      <c r="AK21" s="26">
+      <c r="AK21" s="88">
+        <v>51746</v>
+      </c>
+      <c r="AL21" s="26">
         <v>248</v>
       </c>
-      <c r="AL21" s="24">
+      <c r="AM21" s="24">
         <v>321.3</v>
       </c>
-      <c r="AM21" s="25">
+      <c r="AN21" s="25">
         <v>3.46</v>
       </c>
-      <c r="AN21" s="27">
+      <c r="AO21" s="27">
         <v>4.43</v>
       </c>
-      <c r="AO21" s="87" t="s">
+      <c r="AP21" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
         <v>90</v>
       </c>
-      <c r="AQ21" s="28" t="s">
+      <c r="AR21" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR21" s="44" t="s">
+      <c r="AS21" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS21" s="57" t="s">
+      <c r="AT21" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AT21" s="29">
+      <c r="AU21" s="29">
         <v>240</v>
       </c>
-      <c r="AU21" s="30">
+      <c r="AV21" s="30">
         <v>314.39999999999998</v>
       </c>
-      <c r="AX21" s="42">
+      <c r="AY21" s="42">
         <f t="shared" si="0"/>
         <v>161.05197634609399</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:51">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -10004,51 +10075,54 @@
       <c r="AJ22" s="23">
         <v>106572.7294</v>
       </c>
-      <c r="AK22" s="26">
+      <c r="AK22" s="88">
+        <v>106572.7294</v>
+      </c>
+      <c r="AL22" s="26">
         <v>255</v>
       </c>
-      <c r="AL22" s="24">
+      <c r="AM22" s="24">
         <v>299.60000000000002</v>
       </c>
-      <c r="AM22" s="25">
+      <c r="AN22" s="25">
         <v>4.43</v>
       </c>
-      <c r="AN22" s="27">
+      <c r="AO22" s="27">
         <v>3.18</v>
       </c>
-      <c r="AO22" s="87" t="s">
+      <c r="AP22" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>136</v>
       </c>
-      <c r="AQ22" s="28" t="s">
+      <c r="AR22" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR22" s="44" t="s">
+      <c r="AS22" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS22" s="57" t="s">
+      <c r="AT22" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AT22" s="29">
+      <c r="AU22" s="29">
         <v>254</v>
       </c>
-      <c r="AU22" s="30">
+      <c r="AV22" s="30">
         <v>338</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AW22" t="s">
         <v>434</v>
       </c>
-      <c r="AW22" s="76">
+      <c r="AX22" s="76">
         <v>45397</v>
       </c>
-      <c r="AX22" s="42">
+      <c r="AY22" s="42">
         <f t="shared" si="0"/>
         <v>355.7167202937249</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="61" customFormat="1">
+    <row r="23" spans="1:51" s="61" customFormat="1">
       <c r="A23" s="60" t="s">
         <v>62</v>
       </c>
@@ -10154,51 +10228,54 @@
       <c r="AJ23" s="61">
         <v>81896.277610000005</v>
       </c>
-      <c r="AK23" s="61">
+      <c r="AK23" s="88">
+        <v>81896.277610000005</v>
+      </c>
+      <c r="AL23" s="61">
         <v>290</v>
       </c>
-      <c r="AL23" s="61">
+      <c r="AM23" s="61">
         <v>494.7</v>
       </c>
-      <c r="AM23" s="61">
+      <c r="AN23" s="61">
         <v>18.510000000000002</v>
       </c>
-      <c r="AN23" s="61">
+      <c r="AO23" s="61">
         <v>11.18</v>
       </c>
-      <c r="AO23" s="87" t="s">
+      <c r="AP23" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP23" s="61" t="s">
+      <c r="AQ23" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AQ23" s="61" t="s">
+      <c r="AR23" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="AR23" s="61" t="s">
+      <c r="AS23" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="AS23" s="61" t="s">
+      <c r="AT23" s="61" t="s">
         <v>498</v>
       </c>
-      <c r="AT23" s="61">
+      <c r="AU23" s="61">
         <v>284</v>
       </c>
-      <c r="AU23" s="61">
+      <c r="AV23" s="61">
         <v>510.9</v>
       </c>
-      <c r="AV23" s="61" t="s">
+      <c r="AW23" s="61" t="s">
         <v>433</v>
       </c>
-      <c r="AW23" s="84" t="s">
+      <c r="AX23" s="84" t="s">
         <v>444</v>
       </c>
-      <c r="AX23" s="61">
+      <c r="AY23" s="61">
         <f t="shared" si="0"/>
         <v>165.54735720638772</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:51">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -10289,51 +10366,54 @@
       <c r="AJ24" s="23">
         <v>2206</v>
       </c>
-      <c r="AK24" s="26">
+      <c r="AK24" s="88">
+        <v>2206</v>
+      </c>
+      <c r="AL24" s="26">
         <v>266</v>
       </c>
-      <c r="AL24" s="24">
+      <c r="AM24" s="24">
         <v>354.9</v>
       </c>
-      <c r="AM24" s="25">
+      <c r="AN24" s="25">
         <v>6.22</v>
       </c>
-      <c r="AN24" s="27">
+      <c r="AO24" s="27">
         <v>6.22</v>
       </c>
-      <c r="AO24" s="87" t="s">
+      <c r="AP24" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>136</v>
       </c>
-      <c r="AQ24" s="28" t="s">
+      <c r="AR24" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR24" s="44" t="s">
+      <c r="AS24" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS24" s="57" t="s">
+      <c r="AT24" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AT24" s="29">
+      <c r="AU24" s="29">
         <v>258</v>
       </c>
-      <c r="AU24" s="30">
+      <c r="AV24" s="30">
         <v>387.4</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AW24" t="s">
         <v>434</v>
       </c>
-      <c r="AW24" s="76">
+      <c r="AX24" s="76">
         <v>45390</v>
       </c>
-      <c r="AX24" s="42">
+      <c r="AY24" s="42">
         <f t="shared" si="0"/>
         <v>6.2158354466046779</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:51">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -10436,50 +10516,53 @@
       <c r="AJ25" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK25" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL25" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM25" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN25" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO25" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP25" t="s">
+      <c r="AK25" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL25" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM25" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN25" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO25" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP25" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>141</v>
       </c>
-      <c r="AQ25" s="28" t="s">
+      <c r="AR25" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR25" s="81" t="s">
+      <c r="AS25" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AS25" s="81" t="s">
+      <c r="AT25" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AT25" s="29">
+      <c r="AU25" s="29">
         <v>259</v>
       </c>
-      <c r="AU25" s="30">
+      <c r="AV25" s="30">
         <v>362.4</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AW25" t="s">
         <v>434</v>
       </c>
-      <c r="AW25" s="78" t="s">
+      <c r="AX25" s="78" t="s">
         <v>445</v>
       </c>
-      <c r="AX25" s="42" t="s">
+      <c r="AY25" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:51">
       <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
@@ -10570,51 +10653,54 @@
       <c r="AJ26" s="23">
         <v>46895</v>
       </c>
-      <c r="AK26" s="26">
+      <c r="AK26" s="88">
+        <v>46895</v>
+      </c>
+      <c r="AL26" s="26">
         <v>258</v>
       </c>
-      <c r="AL26" s="24">
+      <c r="AM26" s="24">
         <v>317.8</v>
       </c>
-      <c r="AM26" s="25">
+      <c r="AN26" s="25">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AN26" s="27">
+      <c r="AO26" s="27">
         <v>4.3</v>
       </c>
-      <c r="AO26" s="87" t="s">
+      <c r="AP26" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>136</v>
       </c>
-      <c r="AQ26" s="28" t="s">
+      <c r="AR26" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR26" s="44" t="s">
+      <c r="AS26" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS26" s="57" t="s">
+      <c r="AT26" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AT26" s="29">
+      <c r="AU26" s="29">
         <v>250</v>
       </c>
-      <c r="AU26" s="30">
+      <c r="AV26" s="30">
         <v>348.3</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>436</v>
       </c>
-      <c r="AW26" s="78" t="s">
+      <c r="AX26" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AX26" s="42">
+      <c r="AY26" s="42">
         <f t="shared" si="0"/>
         <v>147.56135934550031</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:51">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -10717,50 +10803,53 @@
       <c r="AJ27" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK27" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL27" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM27" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN27" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO27" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP27" t="s">
+      <c r="AK27" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL27" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM27" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN27" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO27" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP27" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ27" t="s">
         <v>141</v>
       </c>
-      <c r="AQ27" s="28" t="s">
+      <c r="AR27" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR27" s="81" t="s">
+      <c r="AS27" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AS27" s="81" t="s">
+      <c r="AT27" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AT27" s="29">
+      <c r="AU27" s="29">
         <v>231</v>
       </c>
-      <c r="AU27" s="30">
+      <c r="AV27" s="30">
         <v>269.89999999999998</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AW27" t="s">
         <v>437</v>
       </c>
-      <c r="AW27" s="78" t="s">
+      <c r="AX27" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AX27" s="42" t="s">
+      <c r="AY27" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:51">
       <c r="A28" s="2">
         <v>77795</v>
       </c>
@@ -10854,51 +10943,54 @@
       <c r="AJ28" s="23">
         <v>56472</v>
       </c>
-      <c r="AK28" s="26">
+      <c r="AK28" s="88">
+        <v>56472</v>
+      </c>
+      <c r="AL28" s="26">
         <v>260</v>
       </c>
-      <c r="AL28" s="24">
+      <c r="AM28" s="24">
         <v>312.5</v>
       </c>
-      <c r="AM28" s="25">
+      <c r="AN28" s="25">
         <v>1.89</v>
       </c>
-      <c r="AN28" s="27">
+      <c r="AO28" s="27">
         <v>3.38</v>
       </c>
-      <c r="AO28" s="87" t="s">
+      <c r="AP28" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AQ28" t="s">
         <v>136</v>
       </c>
-      <c r="AQ28" s="28" t="s">
+      <c r="AR28" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR28" s="44" t="s">
+      <c r="AS28" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS28" s="57" t="s">
+      <c r="AT28" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AT28" s="29">
+      <c r="AU28" s="29">
         <v>247</v>
       </c>
-      <c r="AU28" s="30">
+      <c r="AV28" s="30">
         <v>395.5</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AW28" t="s">
         <v>436</v>
       </c>
-      <c r="AW28" s="78" t="s">
+      <c r="AX28" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AX28" s="42">
+      <c r="AY28" s="42">
         <f t="shared" si="0"/>
         <v>180.71039999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:51">
       <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
@@ -10989,51 +11081,54 @@
       <c r="AJ29" s="23">
         <v>70995</v>
       </c>
-      <c r="AK29" s="26">
+      <c r="AK29" s="88">
+        <v>70995</v>
+      </c>
+      <c r="AL29" s="26">
         <v>254</v>
       </c>
-      <c r="AL29" s="24">
+      <c r="AM29" s="24">
         <v>293.5</v>
       </c>
-      <c r="AM29" s="25">
+      <c r="AN29" s="25">
         <v>2.74</v>
       </c>
-      <c r="AN29" s="27">
+      <c r="AO29" s="27">
         <v>2.9</v>
       </c>
-      <c r="AO29" s="87" t="s">
+      <c r="AP29" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AQ29" t="s">
         <v>136</v>
       </c>
-      <c r="AQ29" s="28" t="s">
+      <c r="AR29" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR29" s="44" t="s">
+      <c r="AS29" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS29" s="57" t="s">
+      <c r="AT29" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AT29" s="29">
+      <c r="AU29" s="29">
         <v>247</v>
       </c>
-      <c r="AU29" s="30">
+      <c r="AV29" s="30">
         <v>318.60000000000002</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AW29" t="s">
         <v>434</v>
       </c>
-      <c r="AW29" s="78" t="s">
+      <c r="AX29" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="AX29" s="42">
+      <c r="AY29" s="42">
         <f t="shared" si="0"/>
         <v>241.89097103918229</v>
       </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:51">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -11124,51 +11219,54 @@
       <c r="AJ30" s="23">
         <v>64214.405989999999</v>
       </c>
-      <c r="AK30" s="26">
+      <c r="AK30" s="88">
+        <v>64214.405989999999</v>
+      </c>
+      <c r="AL30" s="26">
         <v>248</v>
       </c>
-      <c r="AL30" s="24">
+      <c r="AM30" s="24">
         <v>288.7</v>
       </c>
-      <c r="AM30" s="25">
+      <c r="AN30" s="25">
         <v>1.71</v>
       </c>
-      <c r="AN30" s="27">
+      <c r="AO30" s="27">
         <v>3.96</v>
       </c>
-      <c r="AO30" s="87" t="s">
+      <c r="AP30" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AQ30" t="s">
         <v>136</v>
       </c>
-      <c r="AQ30" s="28" t="s">
+      <c r="AR30" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR30" s="44" t="s">
+      <c r="AS30" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS30" s="57" t="s">
+      <c r="AT30" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AT30" s="29">
+      <c r="AU30" s="29">
         <v>239</v>
       </c>
-      <c r="AU30" s="30">
+      <c r="AV30" s="30">
         <v>321.39999999999998</v>
       </c>
-      <c r="AV30" t="s">
+      <c r="AW30" t="s">
         <v>434</v>
       </c>
-      <c r="AW30" s="78" t="s">
+      <c r="AX30" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AX30" s="42">
+      <c r="AY30" s="42">
         <f t="shared" si="0"/>
         <v>222.42606854866645</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="61" customFormat="1">
+    <row r="31" spans="1:51" s="61" customFormat="1">
       <c r="A31" s="60" t="s">
         <v>69</v>
       </c>
@@ -11271,51 +11369,54 @@
       <c r="AJ31" s="61">
         <v>478</v>
       </c>
-      <c r="AK31" s="61">
+      <c r="AK31" s="88">
+        <v>478</v>
+      </c>
+      <c r="AL31" s="61">
         <v>262</v>
       </c>
-      <c r="AL31" s="61">
+      <c r="AM31" s="61">
         <v>336.2</v>
       </c>
-      <c r="AM31" s="61">
+      <c r="AN31" s="61">
         <v>1.95</v>
       </c>
-      <c r="AN31" s="61">
+      <c r="AO31" s="61">
         <v>4.74</v>
       </c>
-      <c r="AO31" s="87" t="s">
+      <c r="AP31" s="87" t="s">
         <v>499</v>
       </c>
-      <c r="AP31" s="61" t="s">
+      <c r="AQ31" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AQ31" s="61" t="s">
+      <c r="AR31" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="AR31" s="61" t="s">
+      <c r="AS31" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="AS31" s="61" t="s">
+      <c r="AT31" s="61" t="s">
         <v>499</v>
       </c>
-      <c r="AT31" s="61">
+      <c r="AU31" s="61">
         <v>258</v>
       </c>
-      <c r="AU31" s="61">
+      <c r="AV31" s="61">
         <v>367.5</v>
       </c>
-      <c r="AV31" s="61" t="s">
+      <c r="AW31" s="61" t="s">
         <v>435</v>
       </c>
-      <c r="AW31" s="84" t="s">
+      <c r="AX31" s="84" t="s">
         <v>448</v>
       </c>
-      <c r="AX31" s="61">
+      <c r="AY31" s="61">
         <f t="shared" si="0"/>
         <v>1.4217727543129091</v>
       </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:51">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -11409,51 +11510,54 @@
       <c r="AJ32" s="23">
         <v>22343</v>
       </c>
-      <c r="AK32" s="26">
+      <c r="AK32" s="88">
+        <v>22343</v>
+      </c>
+      <c r="AL32" s="26">
         <v>253</v>
       </c>
-      <c r="AL32" s="24">
+      <c r="AM32" s="24">
         <v>287.7</v>
       </c>
-      <c r="AM32" s="25">
+      <c r="AN32" s="25">
         <v>1.3</v>
       </c>
-      <c r="AN32" s="27">
+      <c r="AO32" s="27">
         <v>3.24</v>
       </c>
-      <c r="AO32" s="87" t="s">
+      <c r="AP32" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="AQ32" t="s">
         <v>136</v>
       </c>
-      <c r="AQ32" s="28" t="s">
+      <c r="AR32" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR32" s="44" t="s">
+      <c r="AS32" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS32" s="57" t="s">
+      <c r="AT32" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AT32" s="29">
+      <c r="AU32" s="29">
         <v>240</v>
       </c>
-      <c r="AU32" s="30">
+      <c r="AV32" s="30">
         <v>277.60000000000002</v>
       </c>
-      <c r="AV32" t="s">
+      <c r="AW32" t="s">
         <v>438</v>
       </c>
-      <c r="AW32" s="78" t="s">
+      <c r="AX32" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="AX32" s="42">
+      <c r="AY32" s="42">
         <f t="shared" si="0"/>
         <v>77.660757733750444</v>
       </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:51">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -11547,51 +11651,54 @@
       <c r="AJ33" s="23">
         <v>121990.71369999999</v>
       </c>
-      <c r="AK33" s="26">
+      <c r="AK33" s="88">
+        <v>121990.71369999999</v>
+      </c>
+      <c r="AL33" s="26">
         <v>274</v>
       </c>
-      <c r="AL33" s="24">
+      <c r="AM33" s="24">
         <v>361.3</v>
       </c>
-      <c r="AM33" s="25">
+      <c r="AN33" s="25">
         <v>7.68</v>
       </c>
-      <c r="AN33" s="27">
+      <c r="AO33" s="27">
         <v>4.2</v>
       </c>
-      <c r="AO33" s="87" t="s">
+      <c r="AP33" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AP33" t="s">
+      <c r="AQ33" t="s">
         <v>136</v>
       </c>
-      <c r="AQ33" s="28" t="s">
+      <c r="AR33" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR33" s="44" t="s">
+      <c r="AS33" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS33" s="57" t="s">
+      <c r="AT33" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AT33" s="29">
+      <c r="AU33" s="29">
         <v>271</v>
       </c>
-      <c r="AU33" s="30">
+      <c r="AV33" s="30">
         <v>429.9</v>
       </c>
-      <c r="AV33" t="s">
+      <c r="AW33" t="s">
         <v>435</v>
       </c>
-      <c r="AW33" s="78" t="s">
+      <c r="AX33" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AX33" s="42">
+      <c r="AY33" s="42">
         <f t="shared" si="0"/>
         <v>337.64382424577911</v>
       </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:51">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -11685,51 +11792,54 @@
       <c r="AJ34" s="23">
         <v>6249</v>
       </c>
-      <c r="AK34" s="26">
+      <c r="AK34" s="88">
+        <v>6249</v>
+      </c>
+      <c r="AL34" s="26">
         <v>240</v>
       </c>
-      <c r="AL34" s="24">
+      <c r="AM34" s="24">
         <v>242.4</v>
       </c>
-      <c r="AM34" s="25">
+      <c r="AN34" s="25">
         <v>2.96</v>
       </c>
-      <c r="AN34" s="27">
+      <c r="AO34" s="27">
         <v>1.92</v>
       </c>
-      <c r="AO34" s="87" t="s">
+      <c r="AP34" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AQ34" t="s">
         <v>136</v>
       </c>
-      <c r="AQ34" s="28" t="s">
+      <c r="AR34" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR34" s="44" t="s">
+      <c r="AS34" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS34" s="57" t="s">
+      <c r="AT34" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AT34" s="29">
+      <c r="AU34" s="29">
         <v>236</v>
       </c>
-      <c r="AU34" s="30">
+      <c r="AV34" s="30">
         <v>275.2</v>
       </c>
-      <c r="AV34" t="s">
+      <c r="AW34" t="s">
         <v>30</v>
       </c>
-      <c r="AW34" s="78" t="s">
+      <c r="AX34" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AX34" s="42">
+      <c r="AY34" s="42">
         <f t="shared" si="0"/>
         <v>25.779702970297031</v>
       </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:51">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -11823,51 +11933,54 @@
       <c r="AJ35" s="23">
         <v>25649</v>
       </c>
-      <c r="AK35" s="26">
+      <c r="AK35" s="88">
+        <v>25649</v>
+      </c>
+      <c r="AL35" s="26">
         <v>242</v>
       </c>
-      <c r="AL35" s="24">
+      <c r="AM35" s="24">
         <v>274.10000000000002</v>
       </c>
-      <c r="AM35" s="25">
+      <c r="AN35" s="25">
         <v>1</v>
       </c>
-      <c r="AN35" s="27">
+      <c r="AO35" s="27">
         <v>3.07</v>
       </c>
-      <c r="AO35" s="87" t="s">
+      <c r="AP35" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AQ35" t="s">
         <v>136</v>
       </c>
-      <c r="AQ35" s="28" t="s">
+      <c r="AR35" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AR35" s="44" t="s">
+      <c r="AS35" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AS35" s="57" t="s">
+      <c r="AT35" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AT35" s="29">
+      <c r="AU35" s="29">
         <v>229</v>
       </c>
-      <c r="AU35" s="30">
+      <c r="AV35" s="30">
         <v>265.2</v>
       </c>
-      <c r="AV35" t="s">
+      <c r="AW35" t="s">
         <v>434</v>
       </c>
-      <c r="AW35" s="78" t="s">
+      <c r="AX35" s="78" t="s">
         <v>449</v>
       </c>
-      <c r="AX35" s="42">
+      <c r="AY35" s="42">
         <f t="shared" si="0"/>
         <v>93.575337468077336</v>
       </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:51">
       <c r="A36" s="2">
         <v>97824</v>
       </c>
@@ -11973,50 +12086,53 @@
       <c r="AJ36" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK36" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL36" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM36" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN36" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO36" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP36" t="s">
+      <c r="AK36" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM36" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN36" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO36" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP36" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ36" t="s">
         <v>136</v>
       </c>
-      <c r="AQ36" s="28" t="s">
+      <c r="AR36" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="AR36" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS36" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT36" s="29">
+      <c r="AS36" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT36" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU36" s="29">
         <v>280</v>
       </c>
-      <c r="AU36" s="30">
+      <c r="AV36" s="30">
         <v>485.2</v>
       </c>
-      <c r="AV36" t="s">
+      <c r="AW36" t="s">
         <v>450</v>
       </c>
-      <c r="AW36" s="73" t="s">
+      <c r="AX36" s="73" t="s">
         <v>451</v>
       </c>
-      <c r="AX36" s="42" t="s">
+      <c r="AY36" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:51">
       <c r="A37" s="2">
         <v>97827</v>
       </c>
@@ -12122,50 +12238,53 @@
       <c r="AJ37" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK37" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL37" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM37" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN37" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO37" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP37" t="s">
+      <c r="AK37" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM37" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN37" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO37" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP37" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ37" t="s">
         <v>136</v>
       </c>
-      <c r="AQ37" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR37" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS37" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT37" s="29">
+      <c r="AR37" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS37" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT37" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU37" s="29">
         <v>283</v>
       </c>
-      <c r="AU37" s="30">
+      <c r="AV37" s="30">
         <v>528.5</v>
       </c>
-      <c r="AV37" t="s">
+      <c r="AW37" t="s">
         <v>450</v>
       </c>
-      <c r="AW37" s="73" t="s">
+      <c r="AX37" s="73" t="s">
         <v>451</v>
       </c>
-      <c r="AX37" s="42" t="s">
+      <c r="AY37" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:51">
       <c r="A38" s="1" t="s">
         <v>252</v>
       </c>
@@ -12271,47 +12390,50 @@
       <c r="AJ38" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK38" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL38" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM38" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN38" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO38" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP38" t="s">
+      <c r="AK38" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM38" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN38" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO38" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP38" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ38" t="s">
         <v>136</v>
       </c>
-      <c r="AQ38" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR38" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS38" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT38" s="29">
+      <c r="AR38" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS38" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT38" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU38" s="29">
         <v>276</v>
       </c>
-      <c r="AU38" s="30">
+      <c r="AV38" s="30">
         <v>438</v>
       </c>
-      <c r="AW38" s="78" t="s">
+      <c r="AX38" s="78" t="s">
         <v>452</v>
       </c>
-      <c r="AX38" s="42" t="s">
+      <c r="AY38" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:51">
       <c r="A39" s="2" t="s">
         <v>254</v>
       </c>
@@ -12414,50 +12536,53 @@
       <c r="AJ39" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK39" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL39" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM39" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN39" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO39" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP39" t="s">
+      <c r="AK39" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM39" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN39" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO39" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP39" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ39" t="s">
         <v>136</v>
       </c>
-      <c r="AQ39" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR39" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS39" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT39" s="29">
+      <c r="AR39" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS39" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT39" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU39" s="29">
         <v>271</v>
       </c>
-      <c r="AU39" s="30">
+      <c r="AV39" s="30">
         <v>475.4</v>
       </c>
-      <c r="AV39" t="s">
+      <c r="AW39" t="s">
         <v>453</v>
       </c>
-      <c r="AW39" s="78" t="s">
+      <c r="AX39" s="78" t="s">
         <v>454</v>
       </c>
-      <c r="AX39" s="42" t="s">
+      <c r="AY39" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:51">
       <c r="A40" s="2">
         <v>97830</v>
       </c>
@@ -12563,50 +12688,53 @@
       <c r="AJ40" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK40" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL40" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM40" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN40" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO40" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP40" t="s">
+      <c r="AK40" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM40" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN40" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO40" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP40" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ40" t="s">
         <v>136</v>
       </c>
-      <c r="AQ40" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR40" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS40" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT40" s="29">
+      <c r="AR40" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS40" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT40" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU40" s="29">
         <v>270</v>
       </c>
-      <c r="AU40" s="30">
+      <c r="AV40" s="30">
         <v>463.4</v>
       </c>
-      <c r="AV40" t="s">
+      <c r="AW40" t="s">
         <v>453</v>
       </c>
-      <c r="AW40" s="78" t="s">
+      <c r="AX40" s="78" t="s">
         <v>454</v>
       </c>
-      <c r="AX40" s="42" t="s">
+      <c r="AY40" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:51">
       <c r="A41" s="2">
         <v>97823</v>
       </c>
@@ -12709,50 +12837,53 @@
       <c r="AJ41" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK41" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL41" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM41" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN41" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO41" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP41" t="s">
+      <c r="AK41" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM41" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN41" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO41" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP41" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ41" t="s">
         <v>136</v>
       </c>
-      <c r="AQ41" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR41" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS41" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT41" s="29">
+      <c r="AR41" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS41" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT41" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU41" s="29">
         <v>280</v>
       </c>
-      <c r="AU41" s="30">
+      <c r="AV41" s="30">
         <v>489</v>
       </c>
-      <c r="AV41" t="s">
+      <c r="AW41" t="s">
         <v>30</v>
       </c>
-      <c r="AW41" s="78" t="s">
+      <c r="AX41" s="78" t="s">
         <v>455</v>
       </c>
-      <c r="AX41" s="42" t="s">
+      <c r="AY41" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:51">
       <c r="A42" s="2">
         <v>97836</v>
       </c>
@@ -12858,50 +12989,53 @@
       <c r="AJ42" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK42" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL42" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM42" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN42" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO42" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP42" t="s">
+      <c r="AK42" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM42" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN42" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO42" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP42" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ42" t="s">
         <v>136</v>
       </c>
-      <c r="AQ42" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR42" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS42" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT42" s="29">
+      <c r="AR42" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS42" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT42" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU42" s="29">
         <v>279</v>
       </c>
-      <c r="AU42" s="30">
+      <c r="AV42" s="30">
         <v>447.7</v>
       </c>
-      <c r="AV42" t="s">
+      <c r="AW42" t="s">
         <v>30</v>
       </c>
-      <c r="AW42" s="73" t="s">
+      <c r="AX42" s="73" t="s">
         <v>456</v>
       </c>
-      <c r="AX42" s="42" t="s">
+      <c r="AY42" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:51">
       <c r="A43" s="1" t="s">
         <v>259</v>
       </c>
@@ -13007,50 +13141,53 @@
       <c r="AJ43" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK43" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL43" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM43" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN43" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO43" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP43" t="s">
+      <c r="AK43" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM43" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN43" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO43" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP43" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ43" t="s">
         <v>136</v>
       </c>
-      <c r="AQ43" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR43" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS43" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT43" s="29">
+      <c r="AR43" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS43" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT43" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU43" s="29">
         <v>301</v>
       </c>
-      <c r="AU43" s="30">
+      <c r="AV43" s="30">
         <v>547.70000000000005</v>
       </c>
-      <c r="AV43" t="s">
+      <c r="AW43" t="s">
         <v>30</v>
       </c>
-      <c r="AW43" s="73" t="s">
+      <c r="AX43" s="73" t="s">
         <v>457</v>
       </c>
-      <c r="AX43" s="42" t="s">
+      <c r="AY43" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:51">
       <c r="A44" s="2">
         <v>97822</v>
       </c>
@@ -13156,50 +13293,53 @@
       <c r="AJ44" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK44" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL44" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM44" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN44" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO44" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP44" t="s">
+      <c r="AK44" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM44" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN44" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO44" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP44" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ44" t="s">
         <v>136</v>
       </c>
-      <c r="AQ44" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR44" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS44" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT44" s="29">
+      <c r="AR44" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS44" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT44" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU44" s="29">
         <v>290</v>
       </c>
-      <c r="AU44" s="30">
+      <c r="AV44" s="30">
         <v>514.5</v>
       </c>
-      <c r="AV44" t="s">
+      <c r="AW44" t="s">
         <v>437</v>
       </c>
-      <c r="AW44" s="78" t="s">
+      <c r="AX44" s="78" t="s">
         <v>458</v>
       </c>
-      <c r="AX44" s="42" t="s">
+      <c r="AY44" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:51">
       <c r="A45" s="1" t="s">
         <v>264</v>
       </c>
@@ -13302,50 +13442,53 @@
       <c r="AJ45" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK45" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL45" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM45" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN45" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO45" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP45" t="s">
+      <c r="AK45" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM45" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN45" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO45" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP45" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ45" t="s">
         <v>136</v>
       </c>
-      <c r="AQ45" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR45" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS45" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT45" s="29">
+      <c r="AR45" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS45" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT45" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU45" s="29">
         <v>275</v>
       </c>
-      <c r="AU45" s="30">
+      <c r="AV45" s="30">
         <v>437.3</v>
       </c>
-      <c r="AV45" t="s">
+      <c r="AW45" t="s">
         <v>453</v>
       </c>
-      <c r="AW45" s="75" t="s">
+      <c r="AX45" s="75" t="s">
         <v>459</v>
       </c>
-      <c r="AX45" s="42" t="s">
+      <c r="AY45" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:51">
       <c r="A46" s="1" t="s">
         <v>267</v>
       </c>
@@ -13451,50 +13594,53 @@
       <c r="AJ46" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK46" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL46" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM46" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN46" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO46" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP46" t="s">
+      <c r="AK46" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM46" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN46" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO46" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP46" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ46" t="s">
         <v>136</v>
       </c>
-      <c r="AQ46" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR46" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS46" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT46" s="29">
+      <c r="AR46" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS46" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT46" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU46" s="29">
         <v>293</v>
       </c>
-      <c r="AU46" s="30">
+      <c r="AV46" s="30">
         <v>517.20000000000005</v>
       </c>
-      <c r="AV46" t="s">
+      <c r="AW46" t="s">
         <v>437</v>
       </c>
-      <c r="AW46" s="79" t="s">
+      <c r="AX46" s="79" t="s">
         <v>460</v>
       </c>
-      <c r="AX46" s="42" t="s">
+      <c r="AY46" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:51">
       <c r="A47" s="2">
         <v>97805</v>
       </c>
@@ -13603,50 +13749,53 @@
       <c r="AJ47" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK47" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL47" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM47" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN47" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO47" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP47" t="s">
+      <c r="AK47" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM47" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN47" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO47" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP47" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ47" t="s">
         <v>136</v>
       </c>
-      <c r="AQ47" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR47" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS47" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT47" s="29">
+      <c r="AR47" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS47" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT47" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU47" s="29">
         <v>303</v>
       </c>
-      <c r="AU47" s="30">
+      <c r="AV47" s="30">
         <v>559</v>
       </c>
-      <c r="AV47" t="s">
+      <c r="AW47" t="s">
         <v>30</v>
       </c>
-      <c r="AW47" s="73" t="s">
+      <c r="AX47" s="73" t="s">
         <v>461</v>
       </c>
-      <c r="AX47" s="42" t="s">
+      <c r="AY47" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:51">
       <c r="A48" s="1" t="s">
         <v>273</v>
       </c>
@@ -13749,50 +13898,53 @@
       <c r="AJ48" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK48" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL48" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM48" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN48" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO48" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP48" t="s">
+      <c r="AK48" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM48" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN48" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO48" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP48" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ48" t="s">
         <v>136</v>
       </c>
-      <c r="AQ48" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR48" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS48" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT48" s="29">
+      <c r="AR48" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS48" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT48" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU48" s="29">
         <v>289</v>
       </c>
-      <c r="AU48" s="30">
+      <c r="AV48" s="30">
         <v>557.5</v>
       </c>
-      <c r="AV48" t="s">
+      <c r="AW48" t="s">
         <v>462</v>
       </c>
-      <c r="AW48" s="73" t="s">
+      <c r="AX48" s="73" t="s">
         <v>463</v>
       </c>
-      <c r="AX48" s="42" t="s">
+      <c r="AY48" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:51">
       <c r="A49" s="2">
         <v>97841</v>
       </c>
@@ -13895,50 +14047,53 @@
       <c r="AJ49" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK49" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL49" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM49" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN49" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO49" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP49" t="s">
+      <c r="AK49" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM49" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN49" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO49" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP49" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ49" t="s">
         <v>136</v>
       </c>
-      <c r="AQ49" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR49" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS49" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT49" s="29">
+      <c r="AR49" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS49" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT49" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU49" s="29">
         <v>279</v>
       </c>
-      <c r="AU49" s="30">
+      <c r="AV49" s="30">
         <v>487.6</v>
       </c>
-      <c r="AV49" t="s">
+      <c r="AW49" t="s">
         <v>453</v>
       </c>
-      <c r="AW49" s="75" t="s">
+      <c r="AX49" s="75" t="s">
         <v>464</v>
       </c>
-      <c r="AX49" s="42" t="s">
+      <c r="AY49" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:51">
       <c r="A50" s="2">
         <v>97825</v>
       </c>
@@ -14044,50 +14199,53 @@
       <c r="AJ50" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK50" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL50" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM50" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN50" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO50" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP50" t="s">
+      <c r="AK50" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM50" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN50" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO50" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP50" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ50" t="s">
         <v>136</v>
       </c>
-      <c r="AQ50" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR50" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS50" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT50" s="29">
+      <c r="AR50" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS50" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT50" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU50" s="29">
         <v>290</v>
       </c>
-      <c r="AU50" s="30">
+      <c r="AV50" s="30">
         <v>456</v>
       </c>
-      <c r="AV50" t="s">
+      <c r="AW50" t="s">
         <v>30</v>
       </c>
-      <c r="AW50" s="73" t="s">
+      <c r="AX50" s="73" t="s">
         <v>465</v>
       </c>
-      <c r="AX50" s="42" t="s">
+      <c r="AY50" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:50">
+    <row r="51" spans="1:51">
       <c r="A51" s="1" t="s">
         <v>281</v>
       </c>
@@ -14190,50 +14348,53 @@
       <c r="AJ51" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK51" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL51" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM51" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN51" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO51" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP51" t="s">
+      <c r="AK51" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM51" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN51" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO51" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP51" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ51" t="s">
         <v>136</v>
       </c>
-      <c r="AQ51" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR51" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS51" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT51" s="29">
+      <c r="AR51" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS51" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT51" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU51" s="29">
         <v>289</v>
       </c>
-      <c r="AU51" s="30">
+      <c r="AV51" s="30">
         <v>555.29999999999995</v>
       </c>
-      <c r="AV51" t="s">
+      <c r="AW51" t="s">
         <v>438</v>
       </c>
-      <c r="AW51" s="75" t="s">
+      <c r="AX51" s="75" t="s">
         <v>466</v>
       </c>
-      <c r="AX51" s="42" t="s">
+      <c r="AY51" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:50">
+    <row r="52" spans="1:51">
       <c r="A52" s="1" t="s">
         <v>283</v>
       </c>
@@ -14336,50 +14497,53 @@
       <c r="AJ52" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK52" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL52" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM52" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN52" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO52" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP52" t="s">
+      <c r="AK52" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM52" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN52" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO52" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP52" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ52" t="s">
         <v>136</v>
       </c>
-      <c r="AQ52" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR52" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS52" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT52" s="29">
+      <c r="AR52" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS52" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT52" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU52" s="29">
         <v>281</v>
       </c>
-      <c r="AU52" s="30">
+      <c r="AV52" s="30">
         <v>508.4</v>
       </c>
-      <c r="AV52" t="s">
+      <c r="AW52" t="s">
         <v>30</v>
       </c>
-      <c r="AW52" s="75" t="s">
+      <c r="AX52" s="75" t="s">
         <v>464</v>
       </c>
-      <c r="AX52" s="42" t="s">
+      <c r="AY52" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:50">
+    <row r="53" spans="1:51">
       <c r="A53" s="2">
         <v>97801</v>
       </c>
@@ -14485,50 +14649,53 @@
       <c r="AJ53" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK53" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL53" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM53" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN53" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO53" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP53" t="s">
+      <c r="AK53" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM53" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN53" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO53" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP53" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ53" t="s">
         <v>136</v>
       </c>
-      <c r="AQ53" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR53" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS53" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT53" s="29">
+      <c r="AR53" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS53" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT53" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU53" s="29">
         <v>300</v>
       </c>
-      <c r="AU53" s="30">
+      <c r="AV53" s="30">
         <v>583.79999999999995</v>
       </c>
-      <c r="AV53" t="s">
+      <c r="AW53" t="s">
         <v>453</v>
       </c>
-      <c r="AW53" s="73" t="s">
+      <c r="AX53" s="73" t="s">
         <v>467</v>
       </c>
-      <c r="AX53" s="42" t="s">
+      <c r="AY53" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:50">
+    <row r="54" spans="1:51">
       <c r="A54" s="1" t="s">
         <v>288</v>
       </c>
@@ -14634,50 +14801,53 @@
       <c r="AJ54" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK54" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL54" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM54" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN54" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO54" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP54" t="s">
+      <c r="AK54" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM54" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN54" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO54" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP54" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ54" t="s">
         <v>136</v>
       </c>
-      <c r="AQ54" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR54" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS54" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT54" s="29">
+      <c r="AR54" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS54" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT54" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU54" s="29">
         <v>311</v>
       </c>
-      <c r="AU54" s="30">
+      <c r="AV54" s="30">
         <v>617.70000000000005</v>
       </c>
-      <c r="AV54" t="s">
+      <c r="AW54" t="s">
         <v>453</v>
       </c>
-      <c r="AW54" s="73" t="s">
+      <c r="AX54" s="73" t="s">
         <v>467</v>
       </c>
-      <c r="AX54" s="42" t="s">
+      <c r="AY54" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:50">
+    <row r="55" spans="1:51">
       <c r="A55" s="2">
         <v>97816</v>
       </c>
@@ -14786,50 +14956,53 @@
       <c r="AJ55" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK55" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL55" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM55" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN55" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO55" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP55" t="s">
+      <c r="AK55" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM55" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN55" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO55" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP55" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ55" t="s">
         <v>136</v>
       </c>
-      <c r="AQ55" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR55" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS55" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT55" s="29">
+      <c r="AR55" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS55" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT55" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU55" s="29">
         <v>285</v>
       </c>
-      <c r="AU55" s="30">
+      <c r="AV55" s="30">
         <v>488.6</v>
       </c>
-      <c r="AV55" t="s">
+      <c r="AW55" t="s">
         <v>30</v>
       </c>
-      <c r="AW55" s="73" t="s">
+      <c r="AX55" s="73" t="s">
         <v>457</v>
       </c>
-      <c r="AX55" s="42" t="s">
+      <c r="AY55" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:50">
+    <row r="56" spans="1:51">
       <c r="A56" s="1" t="s">
         <v>293</v>
       </c>
@@ -14935,50 +15108,53 @@
       <c r="AJ56" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK56" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL56" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM56" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN56" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO56" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP56" t="s">
+      <c r="AK56" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM56" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN56" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO56" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP56" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ56" t="s">
         <v>136</v>
       </c>
-      <c r="AQ56" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR56" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS56" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT56" s="29">
+      <c r="AR56" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS56" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT56" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU56" s="29">
         <v>305</v>
       </c>
-      <c r="AU56" s="30">
+      <c r="AV56" s="30">
         <v>626.29999999999995</v>
       </c>
-      <c r="AV56" t="s">
+      <c r="AW56" t="s">
         <v>453</v>
       </c>
-      <c r="AW56" s="75" t="s">
+      <c r="AX56" s="75" t="s">
         <v>464</v>
       </c>
-      <c r="AX56" s="42" t="s">
+      <c r="AY56" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:50">
+    <row r="57" spans="1:51">
       <c r="A57" s="2">
         <v>97808</v>
       </c>
@@ -15084,50 +15260,53 @@
       <c r="AJ57" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK57" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL57" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM57" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN57" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO57" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP57" t="s">
+      <c r="AK57" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM57" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN57" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO57" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP57" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ57" t="s">
         <v>136</v>
       </c>
-      <c r="AQ57" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR57" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS57" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT57" s="29">
+      <c r="AR57" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS57" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT57" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU57" s="29">
         <v>286</v>
       </c>
-      <c r="AU57" s="30">
+      <c r="AV57" s="30">
         <v>458.1</v>
       </c>
-      <c r="AV57" t="s">
+      <c r="AW57" t="s">
         <v>30</v>
       </c>
-      <c r="AW57" s="79" t="s">
+      <c r="AX57" s="79" t="s">
         <v>468</v>
       </c>
-      <c r="AX57" s="42" t="s">
+      <c r="AY57" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:50">
+    <row r="58" spans="1:51">
       <c r="A58" s="1" t="s">
         <v>300</v>
       </c>
@@ -15233,50 +15412,53 @@
       <c r="AJ58" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK58" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL58" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM58" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN58" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO58" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP58" t="s">
+      <c r="AK58" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM58" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN58" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO58" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP58" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ58" t="s">
         <v>136</v>
       </c>
-      <c r="AQ58" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR58" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS58" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT58" s="29">
+      <c r="AR58" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS58" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT58" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU58" s="29">
         <v>272</v>
       </c>
-      <c r="AU58" s="30">
+      <c r="AV58" s="30">
         <v>422</v>
       </c>
-      <c r="AV58" t="s">
+      <c r="AW58" t="s">
         <v>30</v>
       </c>
-      <c r="AW58" s="73" t="s">
+      <c r="AX58" s="73" t="s">
         <v>469</v>
       </c>
-      <c r="AX58" s="42" t="s">
+      <c r="AY58" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:50">
+    <row r="59" spans="1:51">
       <c r="A59" s="1" t="s">
         <v>302</v>
       </c>
@@ -15382,50 +15564,53 @@
       <c r="AJ59" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK59" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL59" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM59" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN59" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO59" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP59" t="s">
+      <c r="AK59" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM59" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN59" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO59" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP59" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ59" t="s">
         <v>136</v>
       </c>
-      <c r="AQ59" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR59" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS59" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT59" s="29">
+      <c r="AR59" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS59" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT59" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU59" s="29">
         <v>275</v>
       </c>
-      <c r="AU59" s="30">
+      <c r="AV59" s="30">
         <v>478.8</v>
       </c>
-      <c r="AV59" t="s">
+      <c r="AW59" t="s">
         <v>438</v>
       </c>
-      <c r="AW59" s="78" t="s">
+      <c r="AX59" s="78" t="s">
         <v>455</v>
       </c>
-      <c r="AX59" s="42" t="s">
+      <c r="AY59" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:50">
+    <row r="60" spans="1:51">
       <c r="A60" s="40">
         <v>97821</v>
       </c>
@@ -15531,47 +15716,50 @@
       <c r="AJ60" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK60" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL60" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM60" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN60" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO60" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP60" t="s">
+      <c r="AK60" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM60" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN60" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO60" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP60" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ60" t="s">
         <v>136</v>
       </c>
-      <c r="AQ60" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR60" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS60" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT60" s="29">
+      <c r="AR60" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS60" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT60" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU60" s="29">
         <v>303</v>
       </c>
-      <c r="AU60" s="30">
+      <c r="AV60" s="30">
         <v>527.70000000000005</v>
       </c>
-      <c r="AW60" s="73" t="s">
+      <c r="AX60" s="73" t="s">
         <v>470</v>
       </c>
-      <c r="AX60" s="42" t="s">
+      <c r="AY60" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:50">
+    <row r="61" spans="1:51">
       <c r="A61" s="2">
         <v>97807</v>
       </c>
@@ -15677,50 +15865,53 @@
       <c r="AJ61" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK61" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL61" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM61" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN61" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO61" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP61" t="s">
+      <c r="AK61" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM61" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN61" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO61" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP61" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ61" t="s">
         <v>136</v>
       </c>
-      <c r="AQ61" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR61" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS61" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT61" s="29">
+      <c r="AR61" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS61" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT61" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU61" s="29">
         <v>280</v>
       </c>
-      <c r="AU61" s="30">
+      <c r="AV61" s="30">
         <v>486.6</v>
       </c>
-      <c r="AV61" t="s">
+      <c r="AW61" t="s">
         <v>438</v>
       </c>
-      <c r="AW61" s="73" t="s">
+      <c r="AX61" s="73" t="s">
         <v>471</v>
       </c>
-      <c r="AX61" s="42" t="s">
+      <c r="AY61" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:50">
+    <row r="62" spans="1:51">
       <c r="A62" s="2">
         <v>97706</v>
       </c>
@@ -15763,20 +15954,23 @@
       <c r="Z62" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="AO62" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR62" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS62" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX62" s="42" t="s">
+      <c r="AK62" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP62" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS62" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT62" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY62" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:50">
+    <row r="63" spans="1:51">
       <c r="A63" s="1" t="s">
         <v>309</v>
       </c>
@@ -15882,50 +16076,53 @@
       <c r="AJ63" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK63" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL63" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM63" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN63" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO63" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP63" t="s">
+      <c r="AK63" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM63" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN63" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO63" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP63" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ63" t="s">
         <v>136</v>
       </c>
-      <c r="AQ63" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR63" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS63" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT63" s="29">
+      <c r="AR63" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS63" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT63" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU63" s="29">
         <v>289</v>
       </c>
-      <c r="AU63" s="30">
+      <c r="AV63" s="30">
         <v>485.9</v>
       </c>
-      <c r="AV63" t="s">
+      <c r="AW63" t="s">
         <v>438</v>
       </c>
-      <c r="AW63" s="73" t="s">
+      <c r="AX63" s="73" t="s">
         <v>472</v>
       </c>
-      <c r="AX63" s="42" t="s">
+      <c r="AY63" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:50">
+    <row r="64" spans="1:51">
       <c r="A64" s="2">
         <v>97844</v>
       </c>
@@ -16031,50 +16228,53 @@
       <c r="AJ64" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK64" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL64" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM64" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN64" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO64" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP64" t="s">
+      <c r="AK64" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM64" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN64" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO64" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP64" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ64" t="s">
         <v>136</v>
       </c>
-      <c r="AQ64" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR64" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS64" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT64" s="29">
+      <c r="AR64" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS64" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT64" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU64" s="29">
         <v>303</v>
       </c>
-      <c r="AU64" s="30">
+      <c r="AV64" s="30">
         <v>503.4</v>
       </c>
-      <c r="AV64" t="s">
+      <c r="AW64" t="s">
         <v>438</v>
       </c>
-      <c r="AW64" s="73" t="s">
+      <c r="AX64" s="73" t="s">
         <v>473</v>
       </c>
-      <c r="AX64" s="42" t="s">
+      <c r="AY64" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:50">
+    <row r="65" spans="1:51">
       <c r="A65" s="2">
         <v>97820</v>
       </c>
@@ -16177,50 +16377,53 @@
       <c r="AJ65" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK65" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL65" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM65" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN65" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO65" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP65" t="s">
+      <c r="AK65" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM65" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN65" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO65" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP65" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ65" t="s">
         <v>136</v>
       </c>
-      <c r="AQ65" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR65" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS65" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT65" s="29">
+      <c r="AR65" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS65" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT65" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU65" s="29">
         <v>277</v>
       </c>
-      <c r="AU65" s="30">
+      <c r="AV65" s="30">
         <v>464.6</v>
       </c>
-      <c r="AV65" t="s">
+      <c r="AW65" t="s">
         <v>438</v>
       </c>
-      <c r="AW65" s="79" t="s">
+      <c r="AX65" s="79" t="s">
         <v>460</v>
       </c>
-      <c r="AX65" s="42" t="s">
+      <c r="AY65" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:50">
+    <row r="66" spans="1:51">
       <c r="A66" s="1" t="s">
         <v>317</v>
       </c>
@@ -16326,50 +16529,53 @@
       <c r="AJ66" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK66" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL66" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM66" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN66" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO66" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP66" t="s">
+      <c r="AK66" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM66" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN66" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO66" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP66" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ66" t="s">
         <v>136</v>
       </c>
-      <c r="AQ66" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR66" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS66" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT66" s="29">
+      <c r="AR66" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS66" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT66" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU66" s="29">
         <v>273</v>
       </c>
-      <c r="AU66" s="30">
+      <c r="AV66" s="30">
         <v>409.9</v>
       </c>
-      <c r="AV66" t="s">
+      <c r="AW66" t="s">
         <v>453</v>
       </c>
-      <c r="AW66" s="78" t="s">
+      <c r="AX66" s="78" t="s">
         <v>455</v>
       </c>
-      <c r="AX66" s="42" t="s">
+      <c r="AY66" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:50">
+    <row r="67" spans="1:51">
       <c r="A67" s="2">
         <v>97803</v>
       </c>
@@ -16472,50 +16678,53 @@
       <c r="AJ67" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK67" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL67" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM67" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN67" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO67" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP67" t="s">
+      <c r="AK67" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM67" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN67" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO67" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP67" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ67" t="s">
         <v>136</v>
       </c>
-      <c r="AQ67" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR67" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS67" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT67" s="29">
+      <c r="AR67" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS67" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT67" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU67" s="29">
         <v>280</v>
       </c>
-      <c r="AU67" s="30">
+      <c r="AV67" s="30">
         <v>516.9</v>
       </c>
-      <c r="AV67" t="s">
+      <c r="AW67" t="s">
         <v>30</v>
       </c>
-      <c r="AW67" s="73" t="s">
+      <c r="AX67" s="73" t="s">
         <v>474</v>
       </c>
-      <c r="AX67" s="42" t="s">
+      <c r="AY67" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:50">
+    <row r="68" spans="1:51">
       <c r="A68" s="2">
         <v>97831</v>
       </c>
@@ -16621,46 +16830,49 @@
       <c r="AJ68" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK68" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL68" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM68" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN68" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO68" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP68" t="s">
+      <c r="AK68" s="88">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM68" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN68" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO68" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP68" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ68" t="s">
         <v>136</v>
       </c>
-      <c r="AQ68" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR68" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS68" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT68" s="29">
+      <c r="AR68" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS68" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT68" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU68" s="29">
         <v>278</v>
       </c>
-      <c r="AU68" s="30">
+      <c r="AV68" s="30">
         <v>424.4</v>
       </c>
-      <c r="AV68" t="s">
+      <c r="AW68" t="s">
         <v>438</v>
       </c>
-      <c r="AW68" s="80" t="s">
+      <c r="AX68" s="80" t="s">
         <v>475</v>
       </c>
-      <c r="AX68" s="42" t="s">
+      <c r="AY68" s="42" t="s">
         <v>104</v>
       </c>
     </row>
@@ -16731,68 +16943,68 @@
     <hyperlink ref="AH66" r:id="rId63" xr:uid="{40FA5C84-D700-493F-906D-F0F758333ECC}"/>
     <hyperlink ref="AH67" r:id="rId64" xr:uid="{BBFCF99F-A55E-46E7-8A05-D15C945263D4}"/>
     <hyperlink ref="AH68" r:id="rId65" xr:uid="{CE504963-5EFA-46D7-AC91-FB94AC67B5B7}"/>
-    <hyperlink ref="AW3" r:id="rId66" display="https://drive.google.com/file/d/1vWk-hBzE0cYDfeJ-UvARigi5s1UDNCVA/view?usp=sharing" xr:uid="{A4879858-C00C-4CB6-BC92-E14DC588F672}"/>
-    <hyperlink ref="AW4" r:id="rId67" xr:uid="{0336C02F-5C72-45A2-9E28-F68BBE85C5AC}"/>
-    <hyperlink ref="AW5" r:id="rId68" display="https://drive.google.com/file/d/1z5Y4lj6K_KoSJCc-hOjumBJhQ0wafooI/view?usp=sharing" xr:uid="{6A673DA9-FEC9-414D-904B-FA58FF39F82C}"/>
-    <hyperlink ref="AW6" r:id="rId69" xr:uid="{8C7BDC07-D870-4893-829F-EB7901DA788E}"/>
-    <hyperlink ref="AW8" r:id="rId70" xr:uid="{E6303442-AE74-4053-B5AE-BCF343938018}"/>
-    <hyperlink ref="AW9" r:id="rId71" display="https://drive.google.com/file/d/1TaKgNMOsg1hnK1oU5octMQOMXa4CdPa-/view?usp=sharing" xr:uid="{C0B9EF9C-4AFB-432B-9477-87EA2D5A29AE}"/>
-    <hyperlink ref="AW10" r:id="rId72" xr:uid="{145268B7-BE09-4803-9EC5-AFD1FB935164}"/>
-    <hyperlink ref="AW11" r:id="rId73" xr:uid="{A503DB39-43C2-469E-9E4F-2CBC246011CE}"/>
-    <hyperlink ref="AW12" r:id="rId74" xr:uid="{5DC017C1-E759-4225-BE05-9B6D07DBC347}"/>
-    <hyperlink ref="AW13" r:id="rId75" display="https://drive.google.com/file/d/1D-PZdIjRU9aJbu1Vbxt2G0RFRq6E-rTh/view?usp=sharing" xr:uid="{F6239184-4C03-4C2C-81D9-86E6DC1E6536}"/>
-    <hyperlink ref="AW15" r:id="rId76" xr:uid="{5DD869C4-DD5A-4334-80D2-6871A3B021D4}"/>
-    <hyperlink ref="AW16" r:id="rId77" display="https://drive.google.com/file/d/1fZqrBD6irlITDebyUGUMaPHgt37PP9GQ/view?usp=sharing" xr:uid="{4E282E98-1F24-403F-A8EE-D9C0016C87B5}"/>
-    <hyperlink ref="AW17" r:id="rId78" display="https://drive.google.com/file/d/1TTIl7-0WojhZIH5xYsdl-sOgCQYK-PUb/view?usp=sharing" xr:uid="{5F8B6C0A-6EB0-4895-9E39-F848AF179AF5}"/>
-    <hyperlink ref="AW18" r:id="rId79" xr:uid="{AA4052B5-9A38-4918-842C-0FE103F8B60E}"/>
-    <hyperlink ref="AW19" r:id="rId80" display="https://drive.google.com/file/d/1ZsgaXTvErap_HiaDBmYsBV31KKWimWly/view?usp=sharing" xr:uid="{E8CCC80D-5E16-495C-A2D7-AC1DE0A18DF9}"/>
-    <hyperlink ref="AW20" r:id="rId81" display="https://drive.google.com/file/d/13lcxJIAZTsyZijjikpvvikUN9Y7_qVD4/view?usp=sharing" xr:uid="{54CEE095-29C0-452C-8AB9-3CF82A9986EB}"/>
-    <hyperlink ref="AW22" r:id="rId82" display="https://drive.google.com/file/d/1VNwW5ywJ9Iw3viijwk99q3UVxiaevx8Q/view?usp=sharing" xr:uid="{9A02DA0D-134F-4155-8A13-674D3CA9B759}"/>
-    <hyperlink ref="AW23" r:id="rId83" xr:uid="{53450B56-2A72-4E76-A1FE-A5032C6E809F}"/>
-    <hyperlink ref="AW24" r:id="rId84" display="https://drive.google.com/file/d/1mVoj3rWLPRQmslLGv_77bnS_ekbPnHaa/view?usp=sharing" xr:uid="{A41C90CA-1B66-4265-8CD5-EA5EA44B1E14}"/>
-    <hyperlink ref="AW25" r:id="rId85" xr:uid="{9952BD5E-C632-4D96-9A6D-90D7F56F05A8}"/>
-    <hyperlink ref="AW26" r:id="rId86" xr:uid="{CD28968A-2FB5-4EDF-8002-B809F10028EA}"/>
-    <hyperlink ref="AW27" r:id="rId87" xr:uid="{313C1234-7D02-4045-9E8B-B6A25603F5D4}"/>
-    <hyperlink ref="AW28" r:id="rId88" xr:uid="{E1AA85BF-AF29-4BAA-BA80-956E5EF57E9C}"/>
-    <hyperlink ref="AW29" r:id="rId89" xr:uid="{DF8A9460-AF92-410E-90CC-716ED4A80A7A}"/>
-    <hyperlink ref="AW30" r:id="rId90" xr:uid="{D87D4A81-6ED1-4E1C-93B8-AE6345EFC5B4}"/>
-    <hyperlink ref="AW31" r:id="rId91" xr:uid="{5472EDDB-5B87-4392-BEB3-AC39E50D6640}"/>
-    <hyperlink ref="AW32" r:id="rId92" xr:uid="{4EDDA706-7544-4ACB-8DB5-00CA7FC04894}"/>
-    <hyperlink ref="AW33" r:id="rId93" xr:uid="{6C9846D4-AE4F-42E6-8826-06E13280AB5E}"/>
-    <hyperlink ref="AW34" r:id="rId94" xr:uid="{2F968B1B-F260-49F9-B1BB-7434DB6C084C}"/>
-    <hyperlink ref="AW35" r:id="rId95" xr:uid="{9D24D5E9-150F-4C53-BFF5-4DBF04F8BBF7}"/>
-    <hyperlink ref="AW36" r:id="rId96" xr:uid="{062C3DE6-AFE7-4957-AC14-C01641ABE244}"/>
-    <hyperlink ref="AW37" r:id="rId97" xr:uid="{82B94B40-A379-45E1-8F70-7888486255BB}"/>
-    <hyperlink ref="AW38" r:id="rId98" xr:uid="{53DBDC89-C2FE-45F1-BAA4-8C5FD6CC9749}"/>
-    <hyperlink ref="AW39" r:id="rId99" xr:uid="{26376FC0-B318-44A7-BFB6-2CBCEB68E641}"/>
-    <hyperlink ref="AW40" r:id="rId100" xr:uid="{55F0D45A-7337-4166-AF51-1974EE9CA572}"/>
-    <hyperlink ref="AW41" r:id="rId101" xr:uid="{5F6DC72C-74BD-4F38-B868-DADDF71B3C4D}"/>
-    <hyperlink ref="AW42" r:id="rId102" xr:uid="{8F92F665-9C3F-4648-B7E9-7C5FFC150BE8}"/>
-    <hyperlink ref="AW43" r:id="rId103" xr:uid="{FCFAB0C8-4FE7-4930-BB3E-24477E34DC86}"/>
-    <hyperlink ref="AW44" r:id="rId104" xr:uid="{F9B6C6DE-8C23-4021-8BCA-D54B53F83187}"/>
-    <hyperlink ref="AW45" r:id="rId105" xr:uid="{70CC64E9-981B-46F5-9ECF-6D450C022283}"/>
-    <hyperlink ref="AW46" r:id="rId106" xr:uid="{5DAC7ACF-B4C4-41B9-8D9F-4E10E211D72D}"/>
-    <hyperlink ref="AW47" r:id="rId107" xr:uid="{ED83EB98-BFAA-4390-A79A-7225AF1247A6}"/>
-    <hyperlink ref="AW48" r:id="rId108" xr:uid="{9EEBAB24-A1D7-4F91-A446-6658E33745B8}"/>
-    <hyperlink ref="AW49" r:id="rId109" xr:uid="{FF209E16-4AA1-4839-B9B5-D10A76DECCF5}"/>
-    <hyperlink ref="AW50" r:id="rId110" xr:uid="{A7AA098A-FE6A-4E98-8EDD-58D351D53EBC}"/>
-    <hyperlink ref="AW51" r:id="rId111" xr:uid="{353AB7DA-AF68-46D5-AF7E-DA7C5F7B3AA0}"/>
-    <hyperlink ref="AW52" r:id="rId112" xr:uid="{6D744A6D-507B-4C6D-81F0-2C0FD8D89A73}"/>
-    <hyperlink ref="AW53" r:id="rId113" xr:uid="{088088CD-2660-4CC7-A11E-9C9F91EB1DB3}"/>
-    <hyperlink ref="AW54" r:id="rId114" xr:uid="{7F796E48-AE53-4C49-AEF2-0B51BCAE5FCA}"/>
-    <hyperlink ref="AW55" r:id="rId115" xr:uid="{E9DDB5D6-059A-4E62-A88C-B79655352BC9}"/>
-    <hyperlink ref="AW56" r:id="rId116" xr:uid="{CF012B17-D098-415E-880B-2CAF8D1330B6}"/>
-    <hyperlink ref="AW57" r:id="rId117" xr:uid="{6FAA70C5-7FCD-43D5-8641-CBA0000E4B24}"/>
-    <hyperlink ref="AW58" r:id="rId118" xr:uid="{E9CFA8A4-DC77-45DE-A407-76A0A7C4A95C}"/>
-    <hyperlink ref="AW59" r:id="rId119" xr:uid="{91233AFD-3942-44DF-88EC-1E11BA6A9F1D}"/>
-    <hyperlink ref="AW60" r:id="rId120" xr:uid="{C7F7C9CA-2B9A-4EBE-B9C8-3ED86ACF73D6}"/>
-    <hyperlink ref="AW61" r:id="rId121" xr:uid="{3F7F54E8-83F7-451A-8887-572813070939}"/>
-    <hyperlink ref="AW63" r:id="rId122" xr:uid="{863A775D-9395-428F-9B4D-DCF26D635FFA}"/>
-    <hyperlink ref="AW64" r:id="rId123" xr:uid="{AFCF7D62-AB40-4CB8-B85B-4A09018B3C1D}"/>
-    <hyperlink ref="AW65" r:id="rId124" xr:uid="{61378AB5-918D-48F0-82DA-F41126E9D15C}"/>
-    <hyperlink ref="AW66" r:id="rId125" xr:uid="{8B227A06-754D-40BE-A189-D26DDAEE7328}"/>
-    <hyperlink ref="AW67" r:id="rId126" xr:uid="{966D383D-A685-4304-817C-ED071A33783E}"/>
-    <hyperlink ref="AW68" r:id="rId127" xr:uid="{126F68F2-9B38-4AC9-B25F-67956492B5CC}"/>
+    <hyperlink ref="AX3" r:id="rId66" display="https://drive.google.com/file/d/1vWk-hBzE0cYDfeJ-UvARigi5s1UDNCVA/view?usp=sharing" xr:uid="{A4879858-C00C-4CB6-BC92-E14DC588F672}"/>
+    <hyperlink ref="AX4" r:id="rId67" xr:uid="{0336C02F-5C72-45A2-9E28-F68BBE85C5AC}"/>
+    <hyperlink ref="AX5" r:id="rId68" display="https://drive.google.com/file/d/1z5Y4lj6K_KoSJCc-hOjumBJhQ0wafooI/view?usp=sharing" xr:uid="{6A673DA9-FEC9-414D-904B-FA58FF39F82C}"/>
+    <hyperlink ref="AX6" r:id="rId69" xr:uid="{8C7BDC07-D870-4893-829F-EB7901DA788E}"/>
+    <hyperlink ref="AX8" r:id="rId70" xr:uid="{E6303442-AE74-4053-B5AE-BCF343938018}"/>
+    <hyperlink ref="AX9" r:id="rId71" display="https://drive.google.com/file/d/1TaKgNMOsg1hnK1oU5octMQOMXa4CdPa-/view?usp=sharing" xr:uid="{C0B9EF9C-4AFB-432B-9477-87EA2D5A29AE}"/>
+    <hyperlink ref="AX10" r:id="rId72" xr:uid="{145268B7-BE09-4803-9EC5-AFD1FB935164}"/>
+    <hyperlink ref="AX11" r:id="rId73" xr:uid="{A503DB39-43C2-469E-9E4F-2CBC246011CE}"/>
+    <hyperlink ref="AX12" r:id="rId74" xr:uid="{5DC017C1-E759-4225-BE05-9B6D07DBC347}"/>
+    <hyperlink ref="AX13" r:id="rId75" display="https://drive.google.com/file/d/1D-PZdIjRU9aJbu1Vbxt2G0RFRq6E-rTh/view?usp=sharing" xr:uid="{F6239184-4C03-4C2C-81D9-86E6DC1E6536}"/>
+    <hyperlink ref="AX15" r:id="rId76" xr:uid="{5DD869C4-DD5A-4334-80D2-6871A3B021D4}"/>
+    <hyperlink ref="AX16" r:id="rId77" display="https://drive.google.com/file/d/1fZqrBD6irlITDebyUGUMaPHgt37PP9GQ/view?usp=sharing" xr:uid="{4E282E98-1F24-403F-A8EE-D9C0016C87B5}"/>
+    <hyperlink ref="AX17" r:id="rId78" display="https://drive.google.com/file/d/1TTIl7-0WojhZIH5xYsdl-sOgCQYK-PUb/view?usp=sharing" xr:uid="{5F8B6C0A-6EB0-4895-9E39-F848AF179AF5}"/>
+    <hyperlink ref="AX18" r:id="rId79" xr:uid="{AA4052B5-9A38-4918-842C-0FE103F8B60E}"/>
+    <hyperlink ref="AX19" r:id="rId80" display="https://drive.google.com/file/d/1ZsgaXTvErap_HiaDBmYsBV31KKWimWly/view?usp=sharing" xr:uid="{E8CCC80D-5E16-495C-A2D7-AC1DE0A18DF9}"/>
+    <hyperlink ref="AX20" r:id="rId81" display="https://drive.google.com/file/d/13lcxJIAZTsyZijjikpvvikUN9Y7_qVD4/view?usp=sharing" xr:uid="{54CEE095-29C0-452C-8AB9-3CF82A9986EB}"/>
+    <hyperlink ref="AX22" r:id="rId82" display="https://drive.google.com/file/d/1VNwW5ywJ9Iw3viijwk99q3UVxiaevx8Q/view?usp=sharing" xr:uid="{9A02DA0D-134F-4155-8A13-674D3CA9B759}"/>
+    <hyperlink ref="AX23" r:id="rId83" xr:uid="{53450B56-2A72-4E76-A1FE-A5032C6E809F}"/>
+    <hyperlink ref="AX24" r:id="rId84" display="https://drive.google.com/file/d/1mVoj3rWLPRQmslLGv_77bnS_ekbPnHaa/view?usp=sharing" xr:uid="{A41C90CA-1B66-4265-8CD5-EA5EA44B1E14}"/>
+    <hyperlink ref="AX25" r:id="rId85" xr:uid="{9952BD5E-C632-4D96-9A6D-90D7F56F05A8}"/>
+    <hyperlink ref="AX26" r:id="rId86" xr:uid="{CD28968A-2FB5-4EDF-8002-B809F10028EA}"/>
+    <hyperlink ref="AX27" r:id="rId87" xr:uid="{313C1234-7D02-4045-9E8B-B6A25603F5D4}"/>
+    <hyperlink ref="AX28" r:id="rId88" xr:uid="{E1AA85BF-AF29-4BAA-BA80-956E5EF57E9C}"/>
+    <hyperlink ref="AX29" r:id="rId89" xr:uid="{DF8A9460-AF92-410E-90CC-716ED4A80A7A}"/>
+    <hyperlink ref="AX30" r:id="rId90" xr:uid="{D87D4A81-6ED1-4E1C-93B8-AE6345EFC5B4}"/>
+    <hyperlink ref="AX31" r:id="rId91" xr:uid="{5472EDDB-5B87-4392-BEB3-AC39E50D6640}"/>
+    <hyperlink ref="AX32" r:id="rId92" xr:uid="{4EDDA706-7544-4ACB-8DB5-00CA7FC04894}"/>
+    <hyperlink ref="AX33" r:id="rId93" xr:uid="{6C9846D4-AE4F-42E6-8826-06E13280AB5E}"/>
+    <hyperlink ref="AX34" r:id="rId94" xr:uid="{2F968B1B-F260-49F9-B1BB-7434DB6C084C}"/>
+    <hyperlink ref="AX35" r:id="rId95" xr:uid="{9D24D5E9-150F-4C53-BFF5-4DBF04F8BBF7}"/>
+    <hyperlink ref="AX36" r:id="rId96" xr:uid="{062C3DE6-AFE7-4957-AC14-C01641ABE244}"/>
+    <hyperlink ref="AX37" r:id="rId97" xr:uid="{82B94B40-A379-45E1-8F70-7888486255BB}"/>
+    <hyperlink ref="AX38" r:id="rId98" xr:uid="{53DBDC89-C2FE-45F1-BAA4-8C5FD6CC9749}"/>
+    <hyperlink ref="AX39" r:id="rId99" xr:uid="{26376FC0-B318-44A7-BFB6-2CBCEB68E641}"/>
+    <hyperlink ref="AX40" r:id="rId100" xr:uid="{55F0D45A-7337-4166-AF51-1974EE9CA572}"/>
+    <hyperlink ref="AX41" r:id="rId101" xr:uid="{5F6DC72C-74BD-4F38-B868-DADDF71B3C4D}"/>
+    <hyperlink ref="AX42" r:id="rId102" xr:uid="{8F92F665-9C3F-4648-B7E9-7C5FFC150BE8}"/>
+    <hyperlink ref="AX43" r:id="rId103" xr:uid="{FCFAB0C8-4FE7-4930-BB3E-24477E34DC86}"/>
+    <hyperlink ref="AX44" r:id="rId104" xr:uid="{F9B6C6DE-8C23-4021-8BCA-D54B53F83187}"/>
+    <hyperlink ref="AX45" r:id="rId105" xr:uid="{70CC64E9-981B-46F5-9ECF-6D450C022283}"/>
+    <hyperlink ref="AX46" r:id="rId106" xr:uid="{5DAC7ACF-B4C4-41B9-8D9F-4E10E211D72D}"/>
+    <hyperlink ref="AX47" r:id="rId107" xr:uid="{ED83EB98-BFAA-4390-A79A-7225AF1247A6}"/>
+    <hyperlink ref="AX48" r:id="rId108" xr:uid="{9EEBAB24-A1D7-4F91-A446-6658E33745B8}"/>
+    <hyperlink ref="AX49" r:id="rId109" xr:uid="{FF209E16-4AA1-4839-B9B5-D10A76DECCF5}"/>
+    <hyperlink ref="AX50" r:id="rId110" xr:uid="{A7AA098A-FE6A-4E98-8EDD-58D351D53EBC}"/>
+    <hyperlink ref="AX51" r:id="rId111" xr:uid="{353AB7DA-AF68-46D5-AF7E-DA7C5F7B3AA0}"/>
+    <hyperlink ref="AX52" r:id="rId112" xr:uid="{6D744A6D-507B-4C6D-81F0-2C0FD8D89A73}"/>
+    <hyperlink ref="AX53" r:id="rId113" xr:uid="{088088CD-2660-4CC7-A11E-9C9F91EB1DB3}"/>
+    <hyperlink ref="AX54" r:id="rId114" xr:uid="{7F796E48-AE53-4C49-AEF2-0B51BCAE5FCA}"/>
+    <hyperlink ref="AX55" r:id="rId115" xr:uid="{E9DDB5D6-059A-4E62-A88C-B79655352BC9}"/>
+    <hyperlink ref="AX56" r:id="rId116" xr:uid="{CF012B17-D098-415E-880B-2CAF8D1330B6}"/>
+    <hyperlink ref="AX57" r:id="rId117" xr:uid="{6FAA70C5-7FCD-43D5-8641-CBA0000E4B24}"/>
+    <hyperlink ref="AX58" r:id="rId118" xr:uid="{E9CFA8A4-DC77-45DE-A407-76A0A7C4A95C}"/>
+    <hyperlink ref="AX59" r:id="rId119" xr:uid="{91233AFD-3942-44DF-88EC-1E11BA6A9F1D}"/>
+    <hyperlink ref="AX60" r:id="rId120" xr:uid="{C7F7C9CA-2B9A-4EBE-B9C8-3ED86ACF73D6}"/>
+    <hyperlink ref="AX61" r:id="rId121" xr:uid="{3F7F54E8-83F7-451A-8887-572813070939}"/>
+    <hyperlink ref="AX63" r:id="rId122" xr:uid="{863A775D-9395-428F-9B4D-DCF26D635FFA}"/>
+    <hyperlink ref="AX64" r:id="rId123" xr:uid="{AFCF7D62-AB40-4CB8-B85B-4A09018B3C1D}"/>
+    <hyperlink ref="AX65" r:id="rId124" xr:uid="{61378AB5-918D-48F0-82DA-F41126E9D15C}"/>
+    <hyperlink ref="AX66" r:id="rId125" xr:uid="{8B227A06-754D-40BE-A189-D26DDAEE7328}"/>
+    <hyperlink ref="AX67" r:id="rId126" xr:uid="{966D383D-A685-4304-817C-ED071A33783E}"/>
+    <hyperlink ref="AX68" r:id="rId127" xr:uid="{126F68F2-9B38-4AC9-B25F-67956492B5CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SUMR25_River_Rockfish_Proj/Raw_Data/River's_Rockfish_Metadata_Parturition_V7.xlsx
+++ b/SUMR25_River_Rockfish_Proj/Raw_Data/River's_Rockfish_Metadata_Parturition_V7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmcke\OneDrive\Documents\Summer_2025_Rockfish_Research_Project\Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C9A894-28A5-4158-8594-0422031810AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D524A6B-1E96-4562-A347-CAC68C934330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{1F309CE8-D94F-4E95-9E51-ED88FCC75EAC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="508">
   <si>
     <t>FISH_ID</t>
   </si>
@@ -5827,6 +5827,12 @@
   </si>
   <si>
     <t>Death_Date</t>
+  </si>
+  <si>
+    <t>Fecundity_No_Atresia</t>
+  </si>
+  <si>
+    <t>All_Fecundity</t>
   </si>
 </sst>
 </file>
@@ -6066,7 +6072,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6235,6 +6241,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6248,7 +6260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6436,6 +6448,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6837,11 +6850,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98266282-F063-447E-BEE6-F317894BF3C6}">
-  <dimension ref="A1:BA68"/>
+  <dimension ref="A1:BB68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ64" sqref="AJ64"/>
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6878,27 +6891,28 @@
     <col min="33" max="34" width="27.26953125" style="30" customWidth="1"/>
     <col min="35" max="35" width="24.453125" customWidth="1"/>
     <col min="36" max="36" width="22.7265625" style="23" customWidth="1"/>
-    <col min="37" max="37" width="22.7265625" style="88" customWidth="1"/>
-    <col min="38" max="38" width="15.453125" style="26" customWidth="1"/>
-    <col min="39" max="39" width="12.54296875" style="24" customWidth="1"/>
-    <col min="40" max="40" width="13.26953125" style="25" customWidth="1"/>
-    <col min="41" max="41" width="14.1796875" style="27" customWidth="1"/>
-    <col min="42" max="42" width="22.54296875" style="87" customWidth="1"/>
-    <col min="43" max="43" width="24.26953125" customWidth="1"/>
-    <col min="44" max="44" width="29.6328125" style="28" customWidth="1"/>
-    <col min="45" max="45" width="40.7265625" style="44" customWidth="1"/>
-    <col min="46" max="46" width="40.7265625" style="57" customWidth="1"/>
-    <col min="47" max="47" width="18.453125" style="29" customWidth="1"/>
-    <col min="48" max="48" width="16.7265625" style="30" customWidth="1"/>
-    <col min="49" max="49" width="47" customWidth="1"/>
-    <col min="50" max="50" width="21" customWidth="1"/>
-    <col min="51" max="51" width="43.81640625" style="42" customWidth="1"/>
-    <col min="52" max="52" width="41.26953125" style="43" customWidth="1"/>
-    <col min="53" max="53" width="40.26953125" style="44" customWidth="1"/>
-    <col min="54" max="54" width="21.08984375" customWidth="1"/>
+    <col min="37" max="37" width="22.7265625" style="89" customWidth="1"/>
+    <col min="38" max="38" width="22.7265625" style="88" customWidth="1"/>
+    <col min="39" max="39" width="15.453125" style="26" customWidth="1"/>
+    <col min="40" max="40" width="12.54296875" style="24" customWidth="1"/>
+    <col min="41" max="41" width="13.26953125" style="25" customWidth="1"/>
+    <col min="42" max="42" width="14.1796875" style="27" customWidth="1"/>
+    <col min="43" max="43" width="22.54296875" style="87" customWidth="1"/>
+    <col min="44" max="44" width="24.26953125" customWidth="1"/>
+    <col min="45" max="45" width="29.6328125" style="28" customWidth="1"/>
+    <col min="46" max="46" width="40.7265625" style="44" customWidth="1"/>
+    <col min="47" max="47" width="40.7265625" style="57" customWidth="1"/>
+    <col min="48" max="48" width="18.453125" style="29" customWidth="1"/>
+    <col min="49" max="49" width="16.7265625" style="30" customWidth="1"/>
+    <col min="50" max="50" width="47" customWidth="1"/>
+    <col min="51" max="51" width="21" customWidth="1"/>
+    <col min="52" max="52" width="43.81640625" style="42" customWidth="1"/>
+    <col min="53" max="53" width="41.26953125" style="43" customWidth="1"/>
+    <col min="54" max="54" width="40.26953125" style="44" customWidth="1"/>
+    <col min="55" max="55" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -7007,59 +7021,62 @@
       <c r="AJ1" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" s="88" t="s">
+      <c r="AK1" s="89" t="s">
+        <v>506</v>
+      </c>
+      <c r="AL1" s="88" t="s">
+        <v>507</v>
+      </c>
+      <c r="AM1" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN1" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO1" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ1" s="87" t="s">
+        <v>504</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS1" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT1" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU1" s="57" t="s">
         <v>421</v>
       </c>
-      <c r="AL1" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM1" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN1" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO1" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP1" s="87" t="s">
-        <v>504</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR1" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS1" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="AT1" s="57" t="s">
-        <v>421</v>
-      </c>
-      <c r="AU1" s="29" t="s">
+      <c r="AV1" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="AV1" s="30" t="s">
+      <c r="AW1" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>428</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>429</v>
       </c>
-      <c r="AY1" s="42" t="s">
+      <c r="AZ1" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="AZ1" s="43" t="s">
+      <c r="BA1" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="BA1" s="44" t="s">
+      <c r="BB1" s="44" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -7162,48 +7179,51 @@
       <c r="AJ2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK2" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL2" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM2" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN2" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO2" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP2" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AK2" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL2" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM2" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ2" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR2" t="s">
         <v>184</v>
       </c>
-      <c r="AR2" s="28" t="s">
+      <c r="AS2" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="AS2" s="26" t="s">
+      <c r="AT2" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="AT2" s="26" t="s">
+      <c r="AU2" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="AU2" s="29">
+      <c r="AV2" s="29">
         <v>307</v>
       </c>
-      <c r="AV2" s="30">
+      <c r="AW2" s="30">
         <v>628.20000000000005</v>
       </c>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="42" t="s">
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="2">
         <v>97828</v>
       </c>
@@ -7303,50 +7323,53 @@
       <c r="AJ3" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK3" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL3" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM3" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN3" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO3" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP3" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ3" t="s">
+      <c r="AK3" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL3" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM3" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO3" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP3" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ3" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR3" t="s">
         <v>141</v>
       </c>
-      <c r="AR3" s="28" t="s">
+      <c r="AS3" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="AS3" s="44" t="s">
+      <c r="AT3" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT3" s="57" t="s">
+      <c r="AU3" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AU3" s="29">
+      <c r="AV3" s="29">
         <v>279</v>
       </c>
-      <c r="AV3" s="30">
+      <c r="AW3" s="30">
         <v>450.4</v>
       </c>
-      <c r="AX3" s="72">
+      <c r="AY3" s="72">
         <v>45334</v>
       </c>
-      <c r="AY3" s="42" t="s">
+      <c r="AZ3" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="2">
         <v>97811</v>
       </c>
@@ -7440,50 +7463,53 @@
       <c r="AJ4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK4" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL4" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM4" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN4" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO4" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP4" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ4" t="s">
+      <c r="AK4" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL4" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM4" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN4" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO4" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP4" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ4" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR4" t="s">
         <v>141</v>
       </c>
-      <c r="AR4" s="28" t="s">
+      <c r="AS4" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="AS4" s="44" t="s">
+      <c r="AT4" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="AT4" s="57" t="s">
+      <c r="AU4" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="AU4" s="29">
+      <c r="AV4" s="29">
         <v>291</v>
       </c>
-      <c r="AV4" s="30">
+      <c r="AW4" s="30">
         <v>564.9</v>
       </c>
-      <c r="AX4" s="73" t="s">
+      <c r="AY4" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="AY4" s="42" t="s">
+      <c r="AZ4" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -7583,51 +7609,54 @@
       <c r="AJ5" s="23">
         <v>58969.973250000003</v>
       </c>
-      <c r="AK5" s="88">
+      <c r="AK5" s="89">
         <v>58969.973250000003</v>
       </c>
-      <c r="AL5" s="26">
+      <c r="AL5" s="88">
+        <v>58969.973250000003</v>
+      </c>
+      <c r="AM5" s="26">
         <v>285</v>
       </c>
-      <c r="AM5" s="24">
+      <c r="AN5" s="24">
         <v>518</v>
       </c>
-      <c r="AN5" s="25">
+      <c r="AO5" s="25">
         <v>3.52</v>
       </c>
-      <c r="AO5" s="27">
+      <c r="AP5" s="27">
         <v>5.77</v>
       </c>
-      <c r="AP5" s="87" t="s">
+      <c r="AQ5" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>90</v>
       </c>
-      <c r="AR5" s="28" t="s">
+      <c r="AS5" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="AS5" s="44" t="s">
+      <c r="AT5" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT5" s="57" t="s">
+      <c r="AU5" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AU5" s="29">
+      <c r="AV5" s="29">
         <v>280</v>
       </c>
-      <c r="AV5" s="30">
+      <c r="AW5" s="30">
         <v>533.79999999999995</v>
       </c>
-      <c r="AX5" s="72">
+      <c r="AY5" s="72">
         <v>45329</v>
       </c>
-      <c r="AY5" s="42">
-        <f t="shared" ref="AY5:AY35" si="0">AJ5/AM5</f>
+      <c r="AZ5" s="42">
+        <f t="shared" ref="AZ5:AZ35" si="0">AJ5/AN5</f>
         <v>113.8416472007722</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -7730,50 +7759,53 @@
       <c r="AJ6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK6" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM6" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN6" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO6" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP6" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ6" t="s">
+      <c r="AK6" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL6" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO6" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ6" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR6" t="s">
         <v>184</v>
       </c>
-      <c r="AR6" s="28" t="s">
+      <c r="AS6" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="AS6" s="44" t="s">
+      <c r="AT6" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT6" s="57" t="s">
+      <c r="AU6" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AU6" s="29">
+      <c r="AV6" s="29">
         <v>291</v>
       </c>
-      <c r="AV6" s="30">
+      <c r="AW6" s="30">
         <v>488.7</v>
       </c>
-      <c r="AX6" s="73" t="s">
+      <c r="AY6" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="AY6" s="42" t="s">
+      <c r="AZ6" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -7873,48 +7905,51 @@
       <c r="AJ7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK7" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL7" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM7" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN7" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO7" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP7" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ7" t="s">
+      <c r="AK7" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL7" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN7" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP7" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ7" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR7" t="s">
         <v>141</v>
       </c>
-      <c r="AR7" s="28" t="s">
+      <c r="AS7" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AS7" s="44" t="s">
+      <c r="AT7" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="AT7" s="57" t="s">
+      <c r="AU7" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="AU7" s="29">
+      <c r="AV7" s="29">
         <v>321</v>
       </c>
-      <c r="AV7" s="30">
+      <c r="AW7" s="30">
         <v>743</v>
       </c>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="42" t="s">
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="2">
         <v>97838</v>
       </c>
@@ -8020,50 +8055,53 @@
       <c r="AJ8" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK8" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL8" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM8" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN8" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO8" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP8" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ8" t="s">
+      <c r="AK8" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL8" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM8" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO8" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ8" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR8" t="s">
         <v>91</v>
       </c>
-      <c r="AR8" s="28" t="s">
+      <c r="AS8" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="AS8" s="44" t="s">
+      <c r="AT8" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="AT8" s="57" t="s">
+      <c r="AU8" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="AU8" s="29">
+      <c r="AV8" s="29">
         <v>288</v>
       </c>
-      <c r="AV8" s="30">
+      <c r="AW8" s="30">
         <v>452.6</v>
       </c>
-      <c r="AX8" s="73" t="s">
+      <c r="AY8" s="73" t="s">
         <v>441</v>
       </c>
-      <c r="AY8" s="42" t="s">
+      <c r="AZ8" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="2">
         <v>97812</v>
       </c>
@@ -8160,51 +8198,54 @@
       <c r="AJ9" s="23">
         <v>39293.485220000002</v>
       </c>
-      <c r="AK9" s="88">
+      <c r="AK9" s="89">
         <v>39293.485220000002</v>
       </c>
-      <c r="AL9" s="26">
+      <c r="AL9" s="88">
+        <v>39293.485220000002</v>
+      </c>
+      <c r="AM9" s="26">
         <v>305</v>
       </c>
-      <c r="AM9" s="24">
+      <c r="AN9" s="24">
         <v>571.20000000000005</v>
       </c>
-      <c r="AN9" s="25">
+      <c r="AO9" s="25">
         <v>6.88</v>
       </c>
-      <c r="AO9" s="27">
+      <c r="AP9" s="27">
         <v>6.26</v>
       </c>
-      <c r="AP9" s="87" t="s">
+      <c r="AQ9" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>90</v>
       </c>
-      <c r="AR9" s="28" t="s">
+      <c r="AS9" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS9" s="44" t="s">
+      <c r="AT9" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT9" s="57" t="s">
+      <c r="AU9" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AU9" s="29">
+      <c r="AV9" s="29">
         <v>297</v>
       </c>
-      <c r="AV9" s="30">
+      <c r="AW9" s="30">
         <v>599.1</v>
       </c>
-      <c r="AX9" s="72">
+      <c r="AY9" s="72">
         <v>45324</v>
       </c>
-      <c r="AY9" s="42">
+      <c r="AZ9" s="42">
         <f t="shared" si="0"/>
         <v>68.791115581232489</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="2">
         <v>97843</v>
       </c>
@@ -8304,54 +8345,57 @@
       <c r="AJ10" s="23">
         <v>136811</v>
       </c>
-      <c r="AK10" s="88">
+      <c r="AK10" s="89">
         <v>136811</v>
       </c>
-      <c r="AL10" s="26">
+      <c r="AL10" s="88">
+        <v>136811</v>
+      </c>
+      <c r="AM10" s="26">
         <v>291</v>
       </c>
-      <c r="AM10" s="24">
+      <c r="AN10" s="24">
         <v>503.8</v>
       </c>
-      <c r="AN10" s="25">
+      <c r="AO10" s="25">
         <v>3.14</v>
       </c>
-      <c r="AO10" s="27">
+      <c r="AP10" s="27">
         <v>7.58</v>
       </c>
-      <c r="AP10" s="87" t="s">
+      <c r="AQ10" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AR10" t="s">
         <v>90</v>
       </c>
-      <c r="AR10" s="28" t="s">
+      <c r="AS10" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="AS10" s="44" t="s">
+      <c r="AT10" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT10" s="57" t="s">
+      <c r="AU10" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AU10" s="29">
+      <c r="AV10" s="29">
         <v>286</v>
       </c>
-      <c r="AV10" s="30">
+      <c r="AW10" s="30">
         <v>489.4</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>430</v>
       </c>
-      <c r="AX10" s="73" t="s">
+      <c r="AY10" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="AY10" s="42">
+      <c r="AZ10" s="42">
         <f t="shared" si="0"/>
         <v>271.558157999206</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="2">
         <v>97833</v>
       </c>
@@ -8457,54 +8501,57 @@
       <c r="AJ11" s="23">
         <v>95769</v>
       </c>
-      <c r="AK11" s="88">
+      <c r="AK11" s="89">
         <v>95769</v>
       </c>
-      <c r="AL11" s="26">
+      <c r="AL11" s="88">
+        <v>95769</v>
+      </c>
+      <c r="AM11" s="26">
         <v>297</v>
       </c>
-      <c r="AM11" s="24">
+      <c r="AN11" s="24">
         <v>460.1</v>
       </c>
-      <c r="AN11" s="25">
+      <c r="AO11" s="25">
         <v>3.64</v>
       </c>
-      <c r="AO11" s="27">
+      <c r="AP11" s="27">
         <v>5.84</v>
       </c>
-      <c r="AP11" s="87" t="s">
+      <c r="AQ11" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>90</v>
       </c>
-      <c r="AR11" s="28" t="s">
+      <c r="AS11" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AS11" s="44" t="s">
+      <c r="AT11" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="AT11" s="57" t="s">
+      <c r="AU11" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AU11" s="29">
+      <c r="AV11" s="29">
         <v>295</v>
       </c>
-      <c r="AV11" s="30">
+      <c r="AW11" s="30">
         <v>515.4</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>431</v>
       </c>
-      <c r="AX11" s="73" t="s">
+      <c r="AY11" s="73" t="s">
         <v>442</v>
       </c>
-      <c r="AY11" s="42">
+      <c r="AZ11" s="42">
         <f t="shared" si="0"/>
         <v>208.14822864594652</v>
       </c>
     </row>
-    <row r="12" spans="1:53" s="61" customFormat="1">
+    <row r="12" spans="1:54" s="61" customFormat="1">
       <c r="A12" s="60" t="s">
         <v>51</v>
       </c>
@@ -8607,10 +8654,10 @@
       <c r="AJ12" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="AK12" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL12" s="61" t="s">
+      <c r="AK12" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL12" s="88" t="s">
         <v>104</v>
       </c>
       <c r="AM12" s="61" t="s">
@@ -8622,38 +8669,41 @@
       <c r="AO12" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="AP12" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ12" s="61" t="s">
+      <c r="AP12" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ12" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR12" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AR12" s="61" t="s">
+      <c r="AS12" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="AS12" s="61" t="s">
+      <c r="AT12" s="61" t="s">
         <v>425</v>
       </c>
-      <c r="AT12" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU12" s="61">
+      <c r="AU12" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV12" s="61">
         <v>310</v>
       </c>
-      <c r="AV12" s="61">
+      <c r="AW12" s="61">
         <v>576.70000000000005</v>
       </c>
-      <c r="AW12" s="61" t="s">
+      <c r="AX12" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="AX12" s="83" t="s">
+      <c r="AY12" s="83" t="s">
         <v>443</v>
       </c>
-      <c r="AY12" s="61" t="s">
+      <c r="AZ12" s="61" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -8759,53 +8809,56 @@
       <c r="AJ13" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK13" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL13" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM13" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN13" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO13" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP13" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ13" t="s">
+      <c r="AK13" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL13" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO13" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP13" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ13" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR13" t="s">
         <v>141</v>
       </c>
-      <c r="AR13" s="28" t="s">
+      <c r="AS13" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AS13" s="81" t="s">
+      <c r="AT13" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AT13" s="81" t="s">
+      <c r="AU13" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AU13" s="29">
+      <c r="AV13" s="29">
         <v>279</v>
       </c>
-      <c r="AV13" s="30">
+      <c r="AW13" s="30">
         <v>475.8</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>433</v>
       </c>
-      <c r="AX13" s="76">
+      <c r="AY13" s="76">
         <v>45390</v>
       </c>
-      <c r="AY13" s="42" t="s">
+      <c r="AZ13" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -8911,48 +8964,51 @@
       <c r="AJ14" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK14" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL14" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM14" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN14" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO14" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP14" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ14" t="s">
+      <c r="AK14" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL14" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN14" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO14" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ14" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR14" t="s">
         <v>141</v>
       </c>
-      <c r="AR14" s="28" t="s">
+      <c r="AS14" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="AS14" s="81" t="s">
+      <c r="AT14" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AT14" s="81" t="s">
+      <c r="AU14" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AU14" s="29">
+      <c r="AV14" s="29">
         <v>288</v>
       </c>
-      <c r="AV14" s="30">
+      <c r="AW14" s="30">
         <v>545</v>
       </c>
-      <c r="AX14" s="77"/>
-      <c r="AY14" s="42" t="s">
+      <c r="AY14" s="77"/>
+      <c r="AZ14" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:53" s="61" customFormat="1">
+    <row r="15" spans="1:54" s="61" customFormat="1">
       <c r="A15" s="60" t="s">
         <v>54</v>
       </c>
@@ -9055,54 +9111,57 @@
       <c r="AJ15" s="61">
         <v>97253.290540000002</v>
       </c>
-      <c r="AK15" s="88">
+      <c r="AK15" s="89">
         <v>97253.290540000002</v>
       </c>
-      <c r="AL15" s="61">
+      <c r="AL15" s="88">
+        <v>97253.290540000002</v>
+      </c>
+      <c r="AM15" s="61">
         <v>265</v>
       </c>
-      <c r="AM15" s="61">
+      <c r="AN15" s="61">
         <v>378.4</v>
       </c>
-      <c r="AN15" s="61">
+      <c r="AO15" s="61">
         <v>6.12</v>
       </c>
-      <c r="AO15" s="61">
+      <c r="AP15" s="61">
         <v>4.04</v>
       </c>
-      <c r="AP15" s="87" t="s">
+      <c r="AQ15" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ15" s="61" t="s">
+      <c r="AR15" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AR15" s="61" t="s">
+      <c r="AS15" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="AS15" s="61" t="s">
+      <c r="AT15" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="AT15" s="61" t="s">
+      <c r="AU15" s="61" t="s">
         <v>498</v>
       </c>
-      <c r="AU15" s="61">
+      <c r="AV15" s="61">
         <v>264</v>
       </c>
-      <c r="AV15" s="61">
+      <c r="AW15" s="61">
         <v>393.6</v>
       </c>
-      <c r="AW15" s="61" t="s">
+      <c r="AX15" s="61" t="s">
         <v>434</v>
       </c>
-      <c r="AX15" s="84" t="s">
+      <c r="AY15" s="84" t="s">
         <v>444</v>
       </c>
-      <c r="AY15" s="61">
+      <c r="AZ15" s="61">
         <f t="shared" si="0"/>
         <v>257.01186717758986</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -9202,54 +9261,57 @@
       <c r="AJ16" s="23">
         <v>48264</v>
       </c>
-      <c r="AK16" s="88">
+      <c r="AK16" s="89">
         <v>48264</v>
       </c>
-      <c r="AL16" s="26">
+      <c r="AL16" s="88">
+        <v>48264</v>
+      </c>
+      <c r="AM16" s="26">
         <v>278</v>
       </c>
-      <c r="AM16" s="24">
+      <c r="AN16" s="24">
         <v>422.6</v>
       </c>
-      <c r="AN16" s="25">
+      <c r="AO16" s="25">
         <v>4.3</v>
       </c>
-      <c r="AO16" s="27">
+      <c r="AP16" s="27">
         <v>7.06</v>
       </c>
-      <c r="AP16" s="87" t="s">
+      <c r="AQ16" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AR16" t="s">
         <v>90</v>
       </c>
-      <c r="AR16" s="28" t="s">
+      <c r="AS16" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS16" s="44" t="s">
+      <c r="AT16" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT16" s="57" t="s">
+      <c r="AU16" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AU16" s="29">
+      <c r="AV16" s="29">
         <v>279</v>
       </c>
-      <c r="AV16" s="30">
+      <c r="AW16" s="30">
         <v>466.6</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>435</v>
       </c>
-      <c r="AX16" s="76">
+      <c r="AY16" s="76">
         <v>45397</v>
       </c>
-      <c r="AY16" s="42">
+      <c r="AZ16" s="42">
         <f t="shared" si="0"/>
         <v>114.2072882158069</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:52">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -9343,54 +9405,57 @@
       <c r="AJ17" s="23">
         <v>63586.473570000002</v>
       </c>
-      <c r="AK17" s="88">
+      <c r="AK17" s="89">
         <v>63586.473570000002</v>
       </c>
-      <c r="AL17" s="26">
+      <c r="AL17" s="88">
+        <v>63586.473570000002</v>
+      </c>
+      <c r="AM17" s="26">
         <v>225</v>
       </c>
-      <c r="AM17" s="24">
+      <c r="AN17" s="24">
         <v>311.89999999999998</v>
       </c>
-      <c r="AN17" s="25">
+      <c r="AO17" s="25">
         <v>1.38</v>
       </c>
-      <c r="AO17" s="27">
+      <c r="AP17" s="27">
         <v>5.56</v>
       </c>
-      <c r="AP17" s="87" t="s">
+      <c r="AQ17" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>90</v>
       </c>
-      <c r="AR17" s="28" t="s">
+      <c r="AS17" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS17" s="44" t="s">
+      <c r="AT17" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT17" s="57" t="s">
+      <c r="AU17" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AU17" s="29">
+      <c r="AV17" s="29">
         <v>245</v>
       </c>
-      <c r="AV17" s="30">
+      <c r="AW17" s="30">
         <v>340.6</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>434</v>
       </c>
-      <c r="AX17" s="76">
+      <c r="AY17" s="76">
         <v>45390</v>
       </c>
-      <c r="AY17" s="42">
+      <c r="AZ17" s="42">
         <f t="shared" si="0"/>
         <v>203.86814225713371</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:52">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -9496,53 +9561,56 @@
       <c r="AJ18" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK18" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL18" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM18" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN18" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO18" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP18" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ18" t="s">
+      <c r="AK18" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL18" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM18" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN18" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO18" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP18" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ18" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR18" t="s">
         <v>141</v>
       </c>
-      <c r="AR18" s="28" t="s">
+      <c r="AS18" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AS18" s="81" t="s">
+      <c r="AT18" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AT18" s="81" t="s">
+      <c r="AU18" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AU18" s="29">
+      <c r="AV18" s="29">
         <v>260</v>
       </c>
-      <c r="AV18" s="30">
+      <c r="AW18" s="30">
         <v>289</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>435</v>
       </c>
-      <c r="AX18" s="78" t="s">
+      <c r="AY18" s="78" t="s">
         <v>444</v>
       </c>
-      <c r="AY18" s="42" t="s">
+      <c r="AZ18" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:52">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -9645,53 +9713,56 @@
       <c r="AJ19" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK19" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL19" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM19" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN19" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO19" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP19" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ19" t="s">
+      <c r="AK19" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL19" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM19" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO19" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP19" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ19" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR19" t="s">
         <v>141</v>
       </c>
-      <c r="AR19" s="28" t="s">
+      <c r="AS19" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AS19" s="81" t="s">
+      <c r="AT19" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AT19" s="81" t="s">
+      <c r="AU19" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AU19" s="29">
+      <c r="AV19" s="29">
         <v>261</v>
       </c>
-      <c r="AV19" s="30">
+      <c r="AW19" s="30">
         <v>375.9</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AX19" t="s">
         <v>435</v>
       </c>
-      <c r="AX19" s="76">
+      <c r="AY19" s="76">
         <v>45397</v>
       </c>
-      <c r="AY19" s="42" t="s">
+      <c r="AZ19" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:52">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -9797,53 +9868,56 @@
       <c r="AJ20" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK20" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL20" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM20" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN20" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO20" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP20" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ20" t="s">
+      <c r="AK20" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL20" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM20" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN20" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO20" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP20" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ20" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR20" t="s">
         <v>141</v>
       </c>
-      <c r="AR20" s="28" t="s">
+      <c r="AS20" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS20" s="81" t="s">
+      <c r="AT20" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AT20" s="81" t="s">
+      <c r="AU20" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AU20" s="29">
+      <c r="AV20" s="29">
         <v>270</v>
       </c>
-      <c r="AV20" s="30">
+      <c r="AW20" s="30">
         <v>446.9</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AX20" t="s">
         <v>435</v>
       </c>
-      <c r="AX20" s="76">
+      <c r="AY20" s="76">
         <v>45397</v>
       </c>
-      <c r="AY20" s="42" t="s">
+      <c r="AZ20" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:52">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -9940,48 +10014,51 @@
       <c r="AJ21" s="23">
         <v>51746</v>
       </c>
-      <c r="AK21" s="88">
+      <c r="AK21" s="89">
         <v>51746</v>
       </c>
-      <c r="AL21" s="26">
+      <c r="AL21" s="88">
+        <v>51746</v>
+      </c>
+      <c r="AM21" s="26">
         <v>248</v>
       </c>
-      <c r="AM21" s="24">
+      <c r="AN21" s="24">
         <v>321.3</v>
       </c>
-      <c r="AN21" s="25">
+      <c r="AO21" s="25">
         <v>3.46</v>
       </c>
-      <c r="AO21" s="27">
+      <c r="AP21" s="27">
         <v>4.43</v>
       </c>
-      <c r="AP21" s="87" t="s">
+      <c r="AQ21" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AR21" t="s">
         <v>90</v>
       </c>
-      <c r="AR21" s="28" t="s">
+      <c r="AS21" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS21" s="44" t="s">
+      <c r="AT21" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT21" s="57" t="s">
+      <c r="AU21" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AU21" s="29">
+      <c r="AV21" s="29">
         <v>240</v>
       </c>
-      <c r="AV21" s="30">
+      <c r="AW21" s="30">
         <v>314.39999999999998</v>
       </c>
-      <c r="AY21" s="42">
+      <c r="AZ21" s="42">
         <f t="shared" si="0"/>
         <v>161.05197634609399</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:52">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -10075,54 +10152,57 @@
       <c r="AJ22" s="23">
         <v>106572.7294</v>
       </c>
-      <c r="AK22" s="88">
+      <c r="AK22" s="89">
         <v>106572.7294</v>
       </c>
-      <c r="AL22" s="26">
+      <c r="AL22" s="88">
+        <v>106572.7294</v>
+      </c>
+      <c r="AM22" s="26">
         <v>255</v>
       </c>
-      <c r="AM22" s="24">
+      <c r="AN22" s="24">
         <v>299.60000000000002</v>
       </c>
-      <c r="AN22" s="25">
+      <c r="AO22" s="25">
         <v>4.43</v>
       </c>
-      <c r="AO22" s="27">
+      <c r="AP22" s="27">
         <v>3.18</v>
       </c>
-      <c r="AP22" s="87" t="s">
+      <c r="AQ22" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
         <v>136</v>
       </c>
-      <c r="AR22" s="28" t="s">
+      <c r="AS22" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS22" s="44" t="s">
+      <c r="AT22" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT22" s="57" t="s">
+      <c r="AU22" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AU22" s="29">
+      <c r="AV22" s="29">
         <v>254</v>
       </c>
-      <c r="AV22" s="30">
+      <c r="AW22" s="30">
         <v>338</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>434</v>
       </c>
-      <c r="AX22" s="76">
+      <c r="AY22" s="76">
         <v>45397</v>
       </c>
-      <c r="AY22" s="42">
+      <c r="AZ22" s="42">
         <f t="shared" si="0"/>
         <v>355.7167202937249</v>
       </c>
     </row>
-    <row r="23" spans="1:51" s="61" customFormat="1">
+    <row r="23" spans="1:52" s="61" customFormat="1">
       <c r="A23" s="60" t="s">
         <v>62</v>
       </c>
@@ -10228,54 +10308,57 @@
       <c r="AJ23" s="61">
         <v>81896.277610000005</v>
       </c>
-      <c r="AK23" s="88">
+      <c r="AK23" s="89">
         <v>81896.277610000005</v>
       </c>
-      <c r="AL23" s="61">
+      <c r="AL23" s="88">
+        <v>81896.277610000005</v>
+      </c>
+      <c r="AM23" s="61">
         <v>290</v>
       </c>
-      <c r="AM23" s="61">
+      <c r="AN23" s="61">
         <v>494.7</v>
       </c>
-      <c r="AN23" s="61">
+      <c r="AO23" s="61">
         <v>18.510000000000002</v>
       </c>
-      <c r="AO23" s="61">
+      <c r="AP23" s="61">
         <v>11.18</v>
       </c>
-      <c r="AP23" s="87" t="s">
+      <c r="AQ23" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ23" s="61" t="s">
+      <c r="AR23" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AR23" s="61" t="s">
+      <c r="AS23" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="AS23" s="61" t="s">
+      <c r="AT23" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="AT23" s="61" t="s">
+      <c r="AU23" s="61" t="s">
         <v>498</v>
       </c>
-      <c r="AU23" s="61">
+      <c r="AV23" s="61">
         <v>284</v>
       </c>
-      <c r="AV23" s="61">
+      <c r="AW23" s="61">
         <v>510.9</v>
       </c>
-      <c r="AW23" s="61" t="s">
+      <c r="AX23" s="61" t="s">
         <v>433</v>
       </c>
-      <c r="AX23" s="84" t="s">
+      <c r="AY23" s="84" t="s">
         <v>444</v>
       </c>
-      <c r="AY23" s="61">
+      <c r="AZ23" s="61">
         <f t="shared" si="0"/>
         <v>165.54735720638772</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:52">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -10366,54 +10449,57 @@
       <c r="AJ24" s="23">
         <v>2206</v>
       </c>
-      <c r="AK24" s="88">
+      <c r="AK24" s="89">
         <v>2206</v>
       </c>
-      <c r="AL24" s="26">
+      <c r="AL24" s="88">
+        <v>2206</v>
+      </c>
+      <c r="AM24" s="26">
         <v>266</v>
       </c>
-      <c r="AM24" s="24">
+      <c r="AN24" s="24">
         <v>354.9</v>
       </c>
-      <c r="AN24" s="25">
+      <c r="AO24" s="25">
         <v>6.22</v>
       </c>
-      <c r="AO24" s="27">
+      <c r="AP24" s="27">
         <v>6.22</v>
       </c>
-      <c r="AP24" s="87" t="s">
+      <c r="AQ24" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>136</v>
       </c>
-      <c r="AR24" s="28" t="s">
+      <c r="AS24" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS24" s="44" t="s">
+      <c r="AT24" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT24" s="57" t="s">
+      <c r="AU24" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AU24" s="29">
+      <c r="AV24" s="29">
         <v>258</v>
       </c>
-      <c r="AV24" s="30">
+      <c r="AW24" s="30">
         <v>387.4</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>434</v>
       </c>
-      <c r="AX24" s="76">
+      <c r="AY24" s="76">
         <v>45390</v>
       </c>
-      <c r="AY24" s="42">
+      <c r="AZ24" s="42">
         <f t="shared" si="0"/>
         <v>6.2158354466046779</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:52">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -10516,53 +10602,56 @@
       <c r="AJ25" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK25" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL25" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM25" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN25" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO25" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP25" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ25" t="s">
+      <c r="AK25" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL25" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM25" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN25" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO25" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP25" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ25" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR25" t="s">
         <v>141</v>
       </c>
-      <c r="AR25" s="28" t="s">
+      <c r="AS25" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AS25" s="81" t="s">
+      <c r="AT25" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AT25" s="81" t="s">
+      <c r="AU25" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AU25" s="29">
+      <c r="AV25" s="29">
         <v>259</v>
       </c>
-      <c r="AV25" s="30">
+      <c r="AW25" s="30">
         <v>362.4</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>434</v>
       </c>
-      <c r="AX25" s="78" t="s">
+      <c r="AY25" s="78" t="s">
         <v>445</v>
       </c>
-      <c r="AY25" s="42" t="s">
+      <c r="AZ25" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:52">
       <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
@@ -10653,54 +10742,57 @@
       <c r="AJ26" s="23">
         <v>46895</v>
       </c>
-      <c r="AK26" s="88">
+      <c r="AK26" s="89">
         <v>46895</v>
       </c>
-      <c r="AL26" s="26">
+      <c r="AL26" s="88">
+        <v>46895</v>
+      </c>
+      <c r="AM26" s="26">
         <v>258</v>
       </c>
-      <c r="AM26" s="24">
+      <c r="AN26" s="24">
         <v>317.8</v>
       </c>
-      <c r="AN26" s="25">
+      <c r="AO26" s="25">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AO26" s="27">
+      <c r="AP26" s="27">
         <v>4.3</v>
       </c>
-      <c r="AP26" s="87" t="s">
+      <c r="AQ26" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>136</v>
       </c>
-      <c r="AR26" s="28" t="s">
+      <c r="AS26" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS26" s="44" t="s">
+      <c r="AT26" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT26" s="57" t="s">
+      <c r="AU26" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AU26" s="29">
+      <c r="AV26" s="29">
         <v>250</v>
       </c>
-      <c r="AV26" s="30">
+      <c r="AW26" s="30">
         <v>348.3</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>436</v>
       </c>
-      <c r="AX26" s="78" t="s">
+      <c r="AY26" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AY26" s="42">
+      <c r="AZ26" s="42">
         <f t="shared" si="0"/>
         <v>147.56135934550031</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:52">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -10803,53 +10895,56 @@
       <c r="AJ27" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AK27" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL27" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM27" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN27" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO27" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP27" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ27" t="s">
+      <c r="AK27" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL27" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM27" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN27" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO27" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP27" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ27" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR27" t="s">
         <v>141</v>
       </c>
-      <c r="AR27" s="28" t="s">
+      <c r="AS27" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AS27" s="81" t="s">
+      <c r="AT27" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AT27" s="81" t="s">
+      <c r="AU27" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="AU27" s="29">
+      <c r="AV27" s="29">
         <v>231</v>
       </c>
-      <c r="AV27" s="30">
+      <c r="AW27" s="30">
         <v>269.89999999999998</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AX27" t="s">
         <v>437</v>
       </c>
-      <c r="AX27" s="78" t="s">
+      <c r="AY27" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AY27" s="42" t="s">
+      <c r="AZ27" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:52">
       <c r="A28" s="2">
         <v>77795</v>
       </c>
@@ -10943,54 +11038,57 @@
       <c r="AJ28" s="23">
         <v>56472</v>
       </c>
-      <c r="AK28" s="88">
+      <c r="AK28" s="89">
         <v>56472</v>
       </c>
-      <c r="AL28" s="26">
+      <c r="AL28" s="88">
+        <v>56472</v>
+      </c>
+      <c r="AM28" s="26">
         <v>260</v>
       </c>
-      <c r="AM28" s="24">
+      <c r="AN28" s="24">
         <v>312.5</v>
       </c>
-      <c r="AN28" s="25">
+      <c r="AO28" s="25">
         <v>1.89</v>
       </c>
-      <c r="AO28" s="27">
+      <c r="AP28" s="27">
         <v>3.38</v>
       </c>
-      <c r="AP28" s="87" t="s">
+      <c r="AQ28" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AR28" t="s">
         <v>136</v>
       </c>
-      <c r="AR28" s="28" t="s">
+      <c r="AS28" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS28" s="44" t="s">
+      <c r="AT28" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT28" s="57" t="s">
+      <c r="AU28" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AU28" s="29">
+      <c r="AV28" s="29">
         <v>247</v>
       </c>
-      <c r="AV28" s="30">
+      <c r="AW28" s="30">
         <v>395.5</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AX28" t="s">
         <v>436</v>
       </c>
-      <c r="AX28" s="78" t="s">
+      <c r="AY28" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AY28" s="42">
+      <c r="AZ28" s="42">
         <f t="shared" si="0"/>
         <v>180.71039999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:52">
       <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
@@ -11081,54 +11179,57 @@
       <c r="AJ29" s="23">
         <v>70995</v>
       </c>
-      <c r="AK29" s="88">
+      <c r="AK29" s="89">
         <v>70995</v>
       </c>
-      <c r="AL29" s="26">
+      <c r="AL29" s="88">
+        <v>70995</v>
+      </c>
+      <c r="AM29" s="26">
         <v>254</v>
       </c>
-      <c r="AM29" s="24">
+      <c r="AN29" s="24">
         <v>293.5</v>
       </c>
-      <c r="AN29" s="25">
+      <c r="AO29" s="25">
         <v>2.74</v>
       </c>
-      <c r="AO29" s="27">
+      <c r="AP29" s="27">
         <v>2.9</v>
       </c>
-      <c r="AP29" s="87" t="s">
+      <c r="AQ29" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="AR29" t="s">
         <v>136</v>
       </c>
-      <c r="AR29" s="28" t="s">
+      <c r="AS29" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS29" s="44" t="s">
+      <c r="AT29" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT29" s="57" t="s">
+      <c r="AU29" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AU29" s="29">
+      <c r="AV29" s="29">
         <v>247</v>
       </c>
-      <c r="AV29" s="30">
+      <c r="AW29" s="30">
         <v>318.60000000000002</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AX29" t="s">
         <v>434</v>
       </c>
-      <c r="AX29" s="78" t="s">
+      <c r="AY29" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="AY29" s="42">
+      <c r="AZ29" s="42">
         <f t="shared" si="0"/>
         <v>241.89097103918229</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:52">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -11219,54 +11320,57 @@
       <c r="AJ30" s="23">
         <v>64214.405989999999</v>
       </c>
-      <c r="AK30" s="88">
+      <c r="AK30" s="89">
         <v>64214.405989999999</v>
       </c>
-      <c r="AL30" s="26">
+      <c r="AL30" s="88">
+        <v>64214.405989999999</v>
+      </c>
+      <c r="AM30" s="26">
         <v>248</v>
       </c>
-      <c r="AM30" s="24">
+      <c r="AN30" s="24">
         <v>288.7</v>
       </c>
-      <c r="AN30" s="25">
+      <c r="AO30" s="25">
         <v>1.71</v>
       </c>
-      <c r="AO30" s="27">
+      <c r="AP30" s="27">
         <v>3.96</v>
       </c>
-      <c r="AP30" s="87" t="s">
+      <c r="AQ30" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ30" t="s">
+      <c r="AR30" t="s">
         <v>136</v>
       </c>
-      <c r="AR30" s="28" t="s">
+      <c r="AS30" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS30" s="44" t="s">
+      <c r="AT30" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT30" s="57" t="s">
+      <c r="AU30" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AU30" s="29">
+      <c r="AV30" s="29">
         <v>239</v>
       </c>
-      <c r="AV30" s="30">
+      <c r="AW30" s="30">
         <v>321.39999999999998</v>
       </c>
-      <c r="AW30" t="s">
+      <c r="AX30" t="s">
         <v>434</v>
       </c>
-      <c r="AX30" s="78" t="s">
+      <c r="AY30" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AY30" s="42">
+      <c r="AZ30" s="42">
         <f t="shared" si="0"/>
         <v>222.42606854866645</v>
       </c>
     </row>
-    <row r="31" spans="1:51" s="61" customFormat="1">
+    <row r="31" spans="1:52" s="61" customFormat="1">
       <c r="A31" s="60" t="s">
         <v>69</v>
       </c>
@@ -11369,54 +11473,57 @@
       <c r="AJ31" s="61">
         <v>478</v>
       </c>
-      <c r="AK31" s="88">
+      <c r="AK31" s="89">
         <v>478</v>
       </c>
-      <c r="AL31" s="61">
+      <c r="AL31" s="88">
+        <v>478</v>
+      </c>
+      <c r="AM31" s="61">
         <v>262</v>
       </c>
-      <c r="AM31" s="61">
+      <c r="AN31" s="61">
         <v>336.2</v>
       </c>
-      <c r="AN31" s="61">
+      <c r="AO31" s="61">
         <v>1.95</v>
       </c>
-      <c r="AO31" s="61">
+      <c r="AP31" s="61">
         <v>4.74</v>
       </c>
-      <c r="AP31" s="87" t="s">
+      <c r="AQ31" s="87" t="s">
         <v>499</v>
       </c>
-      <c r="AQ31" s="61" t="s">
+      <c r="AR31" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AR31" s="61" t="s">
+      <c r="AS31" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="AS31" s="61" t="s">
+      <c r="AT31" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="AT31" s="61" t="s">
+      <c r="AU31" s="61" t="s">
         <v>499</v>
       </c>
-      <c r="AU31" s="61">
+      <c r="AV31" s="61">
         <v>258</v>
       </c>
-      <c r="AV31" s="61">
+      <c r="AW31" s="61">
         <v>367.5</v>
       </c>
-      <c r="AW31" s="61" t="s">
+      <c r="AX31" s="61" t="s">
         <v>435</v>
       </c>
-      <c r="AX31" s="84" t="s">
+      <c r="AY31" s="84" t="s">
         <v>448</v>
       </c>
-      <c r="AY31" s="61">
+      <c r="AZ31" s="61">
         <f t="shared" si="0"/>
         <v>1.4217727543129091</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:52">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -11510,54 +11617,57 @@
       <c r="AJ32" s="23">
         <v>22343</v>
       </c>
-      <c r="AK32" s="88">
+      <c r="AK32" s="89">
         <v>22343</v>
       </c>
-      <c r="AL32" s="26">
+      <c r="AL32" s="88">
+        <v>22343</v>
+      </c>
+      <c r="AM32" s="26">
         <v>253</v>
       </c>
-      <c r="AM32" s="24">
+      <c r="AN32" s="24">
         <v>287.7</v>
       </c>
-      <c r="AN32" s="25">
+      <c r="AO32" s="25">
         <v>1.3</v>
       </c>
-      <c r="AO32" s="27">
+      <c r="AP32" s="27">
         <v>3.24</v>
       </c>
-      <c r="AP32" s="87" t="s">
+      <c r="AQ32" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AQ32" t="s">
+      <c r="AR32" t="s">
         <v>136</v>
       </c>
-      <c r="AR32" s="28" t="s">
+      <c r="AS32" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS32" s="44" t="s">
+      <c r="AT32" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT32" s="57" t="s">
+      <c r="AU32" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AU32" s="29">
+      <c r="AV32" s="29">
         <v>240</v>
       </c>
-      <c r="AV32" s="30">
+      <c r="AW32" s="30">
         <v>277.60000000000002</v>
       </c>
-      <c r="AW32" t="s">
+      <c r="AX32" t="s">
         <v>438</v>
       </c>
-      <c r="AX32" s="78" t="s">
+      <c r="AY32" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="AY32" s="42">
+      <c r="AZ32" s="42">
         <f t="shared" si="0"/>
         <v>77.660757733750444</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:52">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -11651,54 +11761,57 @@
       <c r="AJ33" s="23">
         <v>121990.71369999999</v>
       </c>
-      <c r="AK33" s="88">
+      <c r="AK33" s="89">
         <v>121990.71369999999</v>
       </c>
-      <c r="AL33" s="26">
+      <c r="AL33" s="88">
+        <v>121990.71369999999</v>
+      </c>
+      <c r="AM33" s="26">
         <v>274</v>
       </c>
-      <c r="AM33" s="24">
+      <c r="AN33" s="24">
         <v>361.3</v>
       </c>
-      <c r="AN33" s="25">
+      <c r="AO33" s="25">
         <v>7.68</v>
       </c>
-      <c r="AO33" s="27">
+      <c r="AP33" s="27">
         <v>4.2</v>
       </c>
-      <c r="AP33" s="87" t="s">
+      <c r="AQ33" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="AQ33" t="s">
+      <c r="AR33" t="s">
         <v>136</v>
       </c>
-      <c r="AR33" s="28" t="s">
+      <c r="AS33" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS33" s="44" t="s">
+      <c r="AT33" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT33" s="57" t="s">
+      <c r="AU33" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="AU33" s="29">
+      <c r="AV33" s="29">
         <v>271</v>
       </c>
-      <c r="AV33" s="30">
+      <c r="AW33" s="30">
         <v>429.9</v>
       </c>
-      <c r="AW33" t="s">
+      <c r="AX33" t="s">
         <v>435</v>
       </c>
-      <c r="AX33" s="78" t="s">
+      <c r="AY33" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AY33" s="42">
+      <c r="AZ33" s="42">
         <f t="shared" si="0"/>
         <v>337.64382424577911</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:52">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -11792,54 +11905,57 @@
       <c r="AJ34" s="23">
         <v>6249</v>
       </c>
-      <c r="AK34" s="88">
+      <c r="AK34" s="89">
         <v>6249</v>
       </c>
-      <c r="AL34" s="26">
+      <c r="AL34" s="88">
+        <v>6249</v>
+      </c>
+      <c r="AM34" s="26">
         <v>240</v>
       </c>
-      <c r="AM34" s="24">
+      <c r="AN34" s="24">
         <v>242.4</v>
       </c>
-      <c r="AN34" s="25">
+      <c r="AO34" s="25">
         <v>2.96</v>
       </c>
-      <c r="AO34" s="27">
+      <c r="AP34" s="27">
         <v>1.92</v>
       </c>
-      <c r="AP34" s="87" t="s">
+      <c r="AQ34" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AQ34" t="s">
+      <c r="AR34" t="s">
         <v>136</v>
       </c>
-      <c r="AR34" s="28" t="s">
+      <c r="AS34" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS34" s="44" t="s">
+      <c r="AT34" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT34" s="57" t="s">
+      <c r="AU34" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AU34" s="29">
+      <c r="AV34" s="29">
         <v>236</v>
       </c>
-      <c r="AV34" s="30">
+      <c r="AW34" s="30">
         <v>275.2</v>
       </c>
-      <c r="AW34" t="s">
+      <c r="AX34" t="s">
         <v>30</v>
       </c>
-      <c r="AX34" s="78" t="s">
+      <c r="AY34" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AY34" s="42">
+      <c r="AZ34" s="42">
         <f t="shared" si="0"/>
         <v>25.779702970297031</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:52">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -11933,54 +12049,57 @@
       <c r="AJ35" s="23">
         <v>25649</v>
       </c>
-      <c r="AK35" s="88">
+      <c r="AK35" s="89">
         <v>25649</v>
       </c>
-      <c r="AL35" s="26">
+      <c r="AL35" s="88">
+        <v>25649</v>
+      </c>
+      <c r="AM35" s="26">
         <v>242</v>
       </c>
-      <c r="AM35" s="24">
+      <c r="AN35" s="24">
         <v>274.10000000000002</v>
       </c>
-      <c r="AN35" s="25">
+      <c r="AO35" s="25">
         <v>1</v>
       </c>
-      <c r="AO35" s="27">
+      <c r="AP35" s="27">
         <v>3.07</v>
       </c>
-      <c r="AP35" s="87" t="s">
+      <c r="AQ35" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="AQ35" t="s">
+      <c r="AR35" t="s">
         <v>136</v>
       </c>
-      <c r="AR35" s="28" t="s">
+      <c r="AS35" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="AS35" s="44" t="s">
+      <c r="AT35" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AT35" s="57" t="s">
+      <c r="AU35" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="AU35" s="29">
+      <c r="AV35" s="29">
         <v>229</v>
       </c>
-      <c r="AV35" s="30">
+      <c r="AW35" s="30">
         <v>265.2</v>
       </c>
-      <c r="AW35" t="s">
+      <c r="AX35" t="s">
         <v>434</v>
       </c>
-      <c r="AX35" s="78" t="s">
+      <c r="AY35" s="78" t="s">
         <v>449</v>
       </c>
-      <c r="AY35" s="42">
+      <c r="AZ35" s="42">
         <f t="shared" si="0"/>
         <v>93.575337468077336</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:52">
       <c r="A36" s="2">
         <v>97824</v>
       </c>
@@ -12086,53 +12205,56 @@
       <c r="AJ36" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK36" s="88">
+      <c r="AK36" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL36" s="88">
         <v>0</v>
       </c>
-      <c r="AL36" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM36" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN36" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO36" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP36" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ36" t="s">
+      <c r="AM36" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN36" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO36" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP36" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ36" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR36" t="s">
         <v>136</v>
       </c>
-      <c r="AR36" s="28" t="s">
+      <c r="AS36" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="AS36" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT36" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU36" s="29">
+      <c r="AT36" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU36" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV36" s="29">
         <v>280</v>
       </c>
-      <c r="AV36" s="30">
+      <c r="AW36" s="30">
         <v>485.2</v>
       </c>
-      <c r="AW36" t="s">
+      <c r="AX36" t="s">
         <v>450</v>
       </c>
-      <c r="AX36" s="73" t="s">
+      <c r="AY36" s="73" t="s">
         <v>451</v>
       </c>
-      <c r="AY36" s="42" t="s">
+      <c r="AZ36" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:52">
       <c r="A37" s="2">
         <v>97827</v>
       </c>
@@ -12238,53 +12360,56 @@
       <c r="AJ37" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK37" s="88">
+      <c r="AK37" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL37" s="88">
         <v>0</v>
       </c>
-      <c r="AL37" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM37" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN37" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO37" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP37" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ37" t="s">
+      <c r="AM37" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN37" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO37" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP37" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ37" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR37" t="s">
         <v>136</v>
       </c>
-      <c r="AR37" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS37" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT37" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU37" s="29">
+      <c r="AS37" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT37" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU37" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV37" s="29">
         <v>283</v>
       </c>
-      <c r="AV37" s="30">
+      <c r="AW37" s="30">
         <v>528.5</v>
       </c>
-      <c r="AW37" t="s">
+      <c r="AX37" t="s">
         <v>450</v>
       </c>
-      <c r="AX37" s="73" t="s">
+      <c r="AY37" s="73" t="s">
         <v>451</v>
       </c>
-      <c r="AY37" s="42" t="s">
+      <c r="AZ37" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:52">
       <c r="A38" s="1" t="s">
         <v>252</v>
       </c>
@@ -12390,50 +12515,53 @@
       <c r="AJ38" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK38" s="88">
+      <c r="AK38" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL38" s="88">
         <v>0</v>
       </c>
-      <c r="AL38" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM38" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN38" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO38" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP38" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ38" t="s">
+      <c r="AM38" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN38" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO38" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP38" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ38" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR38" t="s">
         <v>136</v>
       </c>
-      <c r="AR38" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS38" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT38" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU38" s="29">
+      <c r="AS38" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT38" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU38" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV38" s="29">
         <v>276</v>
       </c>
-      <c r="AV38" s="30">
+      <c r="AW38" s="30">
         <v>438</v>
       </c>
-      <c r="AX38" s="78" t="s">
+      <c r="AY38" s="78" t="s">
         <v>452</v>
       </c>
-      <c r="AY38" s="42" t="s">
+      <c r="AZ38" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:52">
       <c r="A39" s="2" t="s">
         <v>254</v>
       </c>
@@ -12536,53 +12664,56 @@
       <c r="AJ39" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK39" s="88">
+      <c r="AK39" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL39" s="88">
         <v>0</v>
       </c>
-      <c r="AL39" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM39" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN39" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO39" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP39" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ39" t="s">
+      <c r="AM39" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN39" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO39" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP39" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ39" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR39" t="s">
         <v>136</v>
       </c>
-      <c r="AR39" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS39" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT39" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU39" s="29">
+      <c r="AS39" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT39" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU39" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV39" s="29">
         <v>271</v>
       </c>
-      <c r="AV39" s="30">
+      <c r="AW39" s="30">
         <v>475.4</v>
       </c>
-      <c r="AW39" t="s">
+      <c r="AX39" t="s">
         <v>453</v>
       </c>
-      <c r="AX39" s="78" t="s">
+      <c r="AY39" s="78" t="s">
         <v>454</v>
       </c>
-      <c r="AY39" s="42" t="s">
+      <c r="AZ39" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:52">
       <c r="A40" s="2">
         <v>97830</v>
       </c>
@@ -12688,53 +12819,56 @@
       <c r="AJ40" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK40" s="88">
+      <c r="AK40" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL40" s="88">
         <v>0</v>
       </c>
-      <c r="AL40" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM40" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN40" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO40" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP40" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ40" t="s">
+      <c r="AM40" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN40" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO40" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP40" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ40" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR40" t="s">
         <v>136</v>
       </c>
-      <c r="AR40" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS40" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT40" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU40" s="29">
+      <c r="AS40" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT40" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU40" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV40" s="29">
         <v>270</v>
       </c>
-      <c r="AV40" s="30">
+      <c r="AW40" s="30">
         <v>463.4</v>
       </c>
-      <c r="AW40" t="s">
+      <c r="AX40" t="s">
         <v>453</v>
       </c>
-      <c r="AX40" s="78" t="s">
+      <c r="AY40" s="78" t="s">
         <v>454</v>
       </c>
-      <c r="AY40" s="42" t="s">
+      <c r="AZ40" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:52">
       <c r="A41" s="2">
         <v>97823</v>
       </c>
@@ -12837,53 +12971,56 @@
       <c r="AJ41" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK41" s="88">
+      <c r="AK41" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL41" s="88">
         <v>0</v>
       </c>
-      <c r="AL41" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM41" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN41" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO41" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP41" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ41" t="s">
+      <c r="AM41" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN41" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO41" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP41" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ41" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR41" t="s">
         <v>136</v>
       </c>
-      <c r="AR41" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS41" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT41" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU41" s="29">
+      <c r="AS41" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT41" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU41" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV41" s="29">
         <v>280</v>
       </c>
-      <c r="AV41" s="30">
+      <c r="AW41" s="30">
         <v>489</v>
       </c>
-      <c r="AW41" t="s">
+      <c r="AX41" t="s">
         <v>30</v>
       </c>
-      <c r="AX41" s="78" t="s">
+      <c r="AY41" s="78" t="s">
         <v>455</v>
       </c>
-      <c r="AY41" s="42" t="s">
+      <c r="AZ41" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:52">
       <c r="A42" s="2">
         <v>97836</v>
       </c>
@@ -12989,53 +13126,56 @@
       <c r="AJ42" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK42" s="88">
+      <c r="AK42" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL42" s="88">
         <v>0</v>
       </c>
-      <c r="AL42" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM42" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN42" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO42" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP42" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ42" t="s">
+      <c r="AM42" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN42" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO42" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP42" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ42" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR42" t="s">
         <v>136</v>
       </c>
-      <c r="AR42" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS42" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT42" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU42" s="29">
+      <c r="AS42" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT42" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU42" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV42" s="29">
         <v>279</v>
       </c>
-      <c r="AV42" s="30">
+      <c r="AW42" s="30">
         <v>447.7</v>
       </c>
-      <c r="AW42" t="s">
+      <c r="AX42" t="s">
         <v>30</v>
       </c>
-      <c r="AX42" s="73" t="s">
+      <c r="AY42" s="73" t="s">
         <v>456</v>
       </c>
-      <c r="AY42" s="42" t="s">
+      <c r="AZ42" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
         <v>259</v>
       </c>
@@ -13141,53 +13281,56 @@
       <c r="AJ43" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK43" s="88">
+      <c r="AK43" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL43" s="88">
         <v>0</v>
       </c>
-      <c r="AL43" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM43" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN43" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO43" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP43" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ43" t="s">
+      <c r="AM43" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN43" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO43" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP43" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ43" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR43" t="s">
         <v>136</v>
       </c>
-      <c r="AR43" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS43" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT43" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU43" s="29">
+      <c r="AS43" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT43" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU43" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV43" s="29">
         <v>301</v>
       </c>
-      <c r="AV43" s="30">
+      <c r="AW43" s="30">
         <v>547.70000000000005</v>
       </c>
-      <c r="AW43" t="s">
+      <c r="AX43" t="s">
         <v>30</v>
       </c>
-      <c r="AX43" s="73" t="s">
+      <c r="AY43" s="73" t="s">
         <v>457</v>
       </c>
-      <c r="AY43" s="42" t="s">
+      <c r="AZ43" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:52">
       <c r="A44" s="2">
         <v>97822</v>
       </c>
@@ -13293,53 +13436,56 @@
       <c r="AJ44" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK44" s="88">
+      <c r="AK44" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL44" s="88">
         <v>0</v>
       </c>
-      <c r="AL44" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM44" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN44" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO44" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP44" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ44" t="s">
+      <c r="AM44" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN44" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO44" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP44" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ44" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR44" t="s">
         <v>136</v>
       </c>
-      <c r="AR44" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS44" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT44" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU44" s="29">
+      <c r="AS44" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT44" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU44" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV44" s="29">
         <v>290</v>
       </c>
-      <c r="AV44" s="30">
+      <c r="AW44" s="30">
         <v>514.5</v>
       </c>
-      <c r="AW44" t="s">
+      <c r="AX44" t="s">
         <v>437</v>
       </c>
-      <c r="AX44" s="78" t="s">
+      <c r="AY44" s="78" t="s">
         <v>458</v>
       </c>
-      <c r="AY44" s="42" t="s">
+      <c r="AZ44" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
         <v>264</v>
       </c>
@@ -13442,53 +13588,56 @@
       <c r="AJ45" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK45" s="88">
+      <c r="AK45" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL45" s="88">
         <v>0</v>
       </c>
-      <c r="AL45" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM45" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN45" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO45" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP45" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ45" t="s">
+      <c r="AM45" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN45" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO45" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP45" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ45" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR45" t="s">
         <v>136</v>
       </c>
-      <c r="AR45" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS45" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT45" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU45" s="29">
+      <c r="AS45" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT45" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU45" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV45" s="29">
         <v>275</v>
       </c>
-      <c r="AV45" s="30">
+      <c r="AW45" s="30">
         <v>437.3</v>
       </c>
-      <c r="AW45" t="s">
+      <c r="AX45" t="s">
         <v>453</v>
       </c>
-      <c r="AX45" s="75" t="s">
+      <c r="AY45" s="75" t="s">
         <v>459</v>
       </c>
-      <c r="AY45" s="42" t="s">
+      <c r="AZ45" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:52">
       <c r="A46" s="1" t="s">
         <v>267</v>
       </c>
@@ -13594,53 +13743,56 @@
       <c r="AJ46" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK46" s="88">
+      <c r="AK46" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL46" s="88">
         <v>0</v>
       </c>
-      <c r="AL46" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM46" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN46" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO46" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP46" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ46" t="s">
+      <c r="AM46" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN46" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO46" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP46" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ46" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR46" t="s">
         <v>136</v>
       </c>
-      <c r="AR46" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS46" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT46" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU46" s="29">
+      <c r="AS46" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT46" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU46" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV46" s="29">
         <v>293</v>
       </c>
-      <c r="AV46" s="30">
+      <c r="AW46" s="30">
         <v>517.20000000000005</v>
       </c>
-      <c r="AW46" t="s">
+      <c r="AX46" t="s">
         <v>437</v>
       </c>
-      <c r="AX46" s="79" t="s">
+      <c r="AY46" s="79" t="s">
         <v>460</v>
       </c>
-      <c r="AY46" s="42" t="s">
+      <c r="AZ46" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:52">
       <c r="A47" s="2">
         <v>97805</v>
       </c>
@@ -13749,53 +13901,56 @@
       <c r="AJ47" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK47" s="88">
+      <c r="AK47" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL47" s="88">
         <v>0</v>
       </c>
-      <c r="AL47" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM47" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN47" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO47" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP47" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ47" t="s">
+      <c r="AM47" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN47" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO47" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP47" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ47" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR47" t="s">
         <v>136</v>
       </c>
-      <c r="AR47" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS47" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT47" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU47" s="29">
+      <c r="AS47" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT47" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU47" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV47" s="29">
         <v>303</v>
       </c>
-      <c r="AV47" s="30">
+      <c r="AW47" s="30">
         <v>559</v>
       </c>
-      <c r="AW47" t="s">
+      <c r="AX47" t="s">
         <v>30</v>
       </c>
-      <c r="AX47" s="73" t="s">
+      <c r="AY47" s="73" t="s">
         <v>461</v>
       </c>
-      <c r="AY47" s="42" t="s">
+      <c r="AZ47" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:52">
       <c r="A48" s="1" t="s">
         <v>273</v>
       </c>
@@ -13898,53 +14053,56 @@
       <c r="AJ48" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK48" s="88">
+      <c r="AK48" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL48" s="88">
         <v>0</v>
       </c>
-      <c r="AL48" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM48" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN48" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO48" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP48" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ48" t="s">
+      <c r="AM48" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN48" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO48" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP48" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ48" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR48" t="s">
         <v>136</v>
       </c>
-      <c r="AR48" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS48" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT48" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU48" s="29">
+      <c r="AS48" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT48" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU48" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV48" s="29">
         <v>289</v>
       </c>
-      <c r="AV48" s="30">
+      <c r="AW48" s="30">
         <v>557.5</v>
       </c>
-      <c r="AW48" t="s">
+      <c r="AX48" t="s">
         <v>462</v>
       </c>
-      <c r="AX48" s="73" t="s">
+      <c r="AY48" s="73" t="s">
         <v>463</v>
       </c>
-      <c r="AY48" s="42" t="s">
+      <c r="AZ48" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:52">
       <c r="A49" s="2">
         <v>97841</v>
       </c>
@@ -14047,53 +14205,56 @@
       <c r="AJ49" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK49" s="88">
+      <c r="AK49" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL49" s="88">
         <v>0</v>
       </c>
-      <c r="AL49" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM49" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN49" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO49" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP49" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ49" t="s">
+      <c r="AM49" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN49" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO49" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP49" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ49" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR49" t="s">
         <v>136</v>
       </c>
-      <c r="AR49" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS49" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT49" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU49" s="29">
+      <c r="AS49" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT49" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU49" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV49" s="29">
         <v>279</v>
       </c>
-      <c r="AV49" s="30">
+      <c r="AW49" s="30">
         <v>487.6</v>
       </c>
-      <c r="AW49" t="s">
+      <c r="AX49" t="s">
         <v>453</v>
       </c>
-      <c r="AX49" s="75" t="s">
+      <c r="AY49" s="75" t="s">
         <v>464</v>
       </c>
-      <c r="AY49" s="42" t="s">
+      <c r="AZ49" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:52">
       <c r="A50" s="2">
         <v>97825</v>
       </c>
@@ -14199,53 +14360,56 @@
       <c r="AJ50" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK50" s="88">
+      <c r="AK50" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL50" s="88">
         <v>0</v>
       </c>
-      <c r="AL50" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM50" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN50" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO50" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP50" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ50" t="s">
+      <c r="AM50" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN50" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO50" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP50" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ50" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR50" t="s">
         <v>136</v>
       </c>
-      <c r="AR50" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS50" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT50" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU50" s="29">
+      <c r="AS50" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT50" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU50" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV50" s="29">
         <v>290</v>
       </c>
-      <c r="AV50" s="30">
+      <c r="AW50" s="30">
         <v>456</v>
       </c>
-      <c r="AW50" t="s">
+      <c r="AX50" t="s">
         <v>30</v>
       </c>
-      <c r="AX50" s="73" t="s">
+      <c r="AY50" s="73" t="s">
         <v>465</v>
       </c>
-      <c r="AY50" s="42" t="s">
+      <c r="AZ50" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:52">
       <c r="A51" s="1" t="s">
         <v>281</v>
       </c>
@@ -14348,53 +14512,56 @@
       <c r="AJ51" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK51" s="88">
+      <c r="AK51" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL51" s="88">
         <v>0</v>
       </c>
-      <c r="AL51" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM51" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN51" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO51" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP51" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ51" t="s">
+      <c r="AM51" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN51" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO51" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP51" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ51" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR51" t="s">
         <v>136</v>
       </c>
-      <c r="AR51" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS51" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT51" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU51" s="29">
+      <c r="AS51" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT51" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU51" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV51" s="29">
         <v>289</v>
       </c>
-      <c r="AV51" s="30">
+      <c r="AW51" s="30">
         <v>555.29999999999995</v>
       </c>
-      <c r="AW51" t="s">
+      <c r="AX51" t="s">
         <v>438</v>
       </c>
-      <c r="AX51" s="75" t="s">
+      <c r="AY51" s="75" t="s">
         <v>466</v>
       </c>
-      <c r="AY51" s="42" t="s">
+      <c r="AZ51" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
         <v>283</v>
       </c>
@@ -14497,53 +14664,56 @@
       <c r="AJ52" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK52" s="88">
+      <c r="AK52" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL52" s="88">
         <v>0</v>
       </c>
-      <c r="AL52" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM52" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN52" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO52" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP52" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ52" t="s">
+      <c r="AM52" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN52" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO52" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP52" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ52" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR52" t="s">
         <v>136</v>
       </c>
-      <c r="AR52" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS52" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT52" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU52" s="29">
+      <c r="AS52" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT52" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU52" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV52" s="29">
         <v>281</v>
       </c>
-      <c r="AV52" s="30">
+      <c r="AW52" s="30">
         <v>508.4</v>
       </c>
-      <c r="AW52" t="s">
+      <c r="AX52" t="s">
         <v>30</v>
       </c>
-      <c r="AX52" s="75" t="s">
+      <c r="AY52" s="75" t="s">
         <v>464</v>
       </c>
-      <c r="AY52" s="42" t="s">
+      <c r="AZ52" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:52">
       <c r="A53" s="2">
         <v>97801</v>
       </c>
@@ -14649,53 +14819,56 @@
       <c r="AJ53" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK53" s="88">
+      <c r="AK53" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL53" s="88">
         <v>0</v>
       </c>
-      <c r="AL53" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM53" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN53" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO53" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP53" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ53" t="s">
+      <c r="AM53" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN53" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO53" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP53" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ53" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR53" t="s">
         <v>136</v>
       </c>
-      <c r="AR53" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS53" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT53" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU53" s="29">
+      <c r="AS53" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT53" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU53" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV53" s="29">
         <v>300</v>
       </c>
-      <c r="AV53" s="30">
+      <c r="AW53" s="30">
         <v>583.79999999999995</v>
       </c>
-      <c r="AW53" t="s">
+      <c r="AX53" t="s">
         <v>453</v>
       </c>
-      <c r="AX53" s="73" t="s">
+      <c r="AY53" s="73" t="s">
         <v>467</v>
       </c>
-      <c r="AY53" s="42" t="s">
+      <c r="AZ53" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
         <v>288</v>
       </c>
@@ -14801,53 +14974,56 @@
       <c r="AJ54" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK54" s="88">
+      <c r="AK54" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL54" s="88">
         <v>0</v>
       </c>
-      <c r="AL54" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM54" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN54" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO54" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP54" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ54" t="s">
+      <c r="AM54" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN54" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO54" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP54" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ54" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR54" t="s">
         <v>136</v>
       </c>
-      <c r="AR54" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS54" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT54" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU54" s="29">
+      <c r="AS54" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT54" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU54" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV54" s="29">
         <v>311</v>
       </c>
-      <c r="AV54" s="30">
+      <c r="AW54" s="30">
         <v>617.70000000000005</v>
       </c>
-      <c r="AW54" t="s">
+      <c r="AX54" t="s">
         <v>453</v>
       </c>
-      <c r="AX54" s="73" t="s">
+      <c r="AY54" s="73" t="s">
         <v>467</v>
       </c>
-      <c r="AY54" s="42" t="s">
+      <c r="AZ54" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:52">
       <c r="A55" s="2">
         <v>97816</v>
       </c>
@@ -14956,53 +15132,56 @@
       <c r="AJ55" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK55" s="88">
+      <c r="AK55" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL55" s="88">
         <v>0</v>
       </c>
-      <c r="AL55" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM55" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN55" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO55" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP55" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ55" t="s">
+      <c r="AM55" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN55" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO55" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP55" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ55" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR55" t="s">
         <v>136</v>
       </c>
-      <c r="AR55" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS55" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT55" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU55" s="29">
+      <c r="AS55" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT55" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU55" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV55" s="29">
         <v>285</v>
       </c>
-      <c r="AV55" s="30">
+      <c r="AW55" s="30">
         <v>488.6</v>
       </c>
-      <c r="AW55" t="s">
+      <c r="AX55" t="s">
         <v>30</v>
       </c>
-      <c r="AX55" s="73" t="s">
+      <c r="AY55" s="73" t="s">
         <v>457</v>
       </c>
-      <c r="AY55" s="42" t="s">
+      <c r="AZ55" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:52">
       <c r="A56" s="1" t="s">
         <v>293</v>
       </c>
@@ -15108,53 +15287,56 @@
       <c r="AJ56" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK56" s="88">
+      <c r="AK56" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL56" s="88">
         <v>0</v>
       </c>
-      <c r="AL56" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM56" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN56" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO56" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP56" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ56" t="s">
+      <c r="AM56" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN56" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO56" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP56" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ56" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR56" t="s">
         <v>136</v>
       </c>
-      <c r="AR56" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS56" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT56" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU56" s="29">
+      <c r="AS56" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT56" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU56" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV56" s="29">
         <v>305</v>
       </c>
-      <c r="AV56" s="30">
+      <c r="AW56" s="30">
         <v>626.29999999999995</v>
       </c>
-      <c r="AW56" t="s">
+      <c r="AX56" t="s">
         <v>453</v>
       </c>
-      <c r="AX56" s="75" t="s">
+      <c r="AY56" s="75" t="s">
         <v>464</v>
       </c>
-      <c r="AY56" s="42" t="s">
+      <c r="AZ56" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="1:52">
       <c r="A57" s="2">
         <v>97808</v>
       </c>
@@ -15260,53 +15442,56 @@
       <c r="AJ57" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK57" s="88">
+      <c r="AK57" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL57" s="88">
         <v>0</v>
       </c>
-      <c r="AL57" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM57" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN57" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO57" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP57" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ57" t="s">
+      <c r="AM57" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN57" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO57" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP57" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ57" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR57" t="s">
         <v>136</v>
       </c>
-      <c r="AR57" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS57" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT57" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU57" s="29">
+      <c r="AS57" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT57" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU57" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV57" s="29">
         <v>286</v>
       </c>
-      <c r="AV57" s="30">
+      <c r="AW57" s="30">
         <v>458.1</v>
       </c>
-      <c r="AW57" t="s">
+      <c r="AX57" t="s">
         <v>30</v>
       </c>
-      <c r="AX57" s="79" t="s">
+      <c r="AY57" s="79" t="s">
         <v>468</v>
       </c>
-      <c r="AY57" s="42" t="s">
+      <c r="AZ57" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:51">
+    <row r="58" spans="1:52">
       <c r="A58" s="1" t="s">
         <v>300</v>
       </c>
@@ -15412,53 +15597,56 @@
       <c r="AJ58" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK58" s="88">
+      <c r="AK58" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL58" s="88">
         <v>0</v>
       </c>
-      <c r="AL58" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM58" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN58" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO58" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP58" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ58" t="s">
+      <c r="AM58" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN58" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO58" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP58" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ58" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR58" t="s">
         <v>136</v>
       </c>
-      <c r="AR58" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS58" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT58" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU58" s="29">
+      <c r="AS58" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT58" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU58" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV58" s="29">
         <v>272</v>
       </c>
-      <c r="AV58" s="30">
+      <c r="AW58" s="30">
         <v>422</v>
       </c>
-      <c r="AW58" t="s">
+      <c r="AX58" t="s">
         <v>30</v>
       </c>
-      <c r="AX58" s="73" t="s">
+      <c r="AY58" s="73" t="s">
         <v>469</v>
       </c>
-      <c r="AY58" s="42" t="s">
+      <c r="AZ58" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:51">
+    <row r="59" spans="1:52">
       <c r="A59" s="1" t="s">
         <v>302</v>
       </c>
@@ -15564,53 +15752,56 @@
       <c r="AJ59" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK59" s="88">
+      <c r="AK59" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL59" s="88">
         <v>0</v>
       </c>
-      <c r="AL59" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM59" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN59" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO59" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP59" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ59" t="s">
+      <c r="AM59" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN59" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO59" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP59" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ59" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR59" t="s">
         <v>136</v>
       </c>
-      <c r="AR59" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS59" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT59" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU59" s="29">
+      <c r="AS59" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT59" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU59" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV59" s="29">
         <v>275</v>
       </c>
-      <c r="AV59" s="30">
+      <c r="AW59" s="30">
         <v>478.8</v>
       </c>
-      <c r="AW59" t="s">
+      <c r="AX59" t="s">
         <v>438</v>
       </c>
-      <c r="AX59" s="78" t="s">
+      <c r="AY59" s="78" t="s">
         <v>455</v>
       </c>
-      <c r="AY59" s="42" t="s">
+      <c r="AZ59" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:51">
+    <row r="60" spans="1:52">
       <c r="A60" s="40">
         <v>97821</v>
       </c>
@@ -15716,50 +15907,53 @@
       <c r="AJ60" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK60" s="88">
+      <c r="AK60" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL60" s="88">
         <v>0</v>
       </c>
-      <c r="AL60" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM60" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN60" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO60" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP60" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ60" t="s">
+      <c r="AM60" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN60" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO60" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP60" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ60" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR60" t="s">
         <v>136</v>
       </c>
-      <c r="AR60" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS60" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT60" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU60" s="29">
+      <c r="AS60" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT60" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU60" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV60" s="29">
         <v>303</v>
       </c>
-      <c r="AV60" s="30">
+      <c r="AW60" s="30">
         <v>527.70000000000005</v>
       </c>
-      <c r="AX60" s="73" t="s">
+      <c r="AY60" s="73" t="s">
         <v>470</v>
       </c>
-      <c r="AY60" s="42" t="s">
+      <c r="AZ60" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="1:52">
       <c r="A61" s="2">
         <v>97807</v>
       </c>
@@ -15865,53 +16059,56 @@
       <c r="AJ61" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK61" s="88">
+      <c r="AK61" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL61" s="88">
         <v>0</v>
       </c>
-      <c r="AL61" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM61" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN61" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO61" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP61" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ61" t="s">
+      <c r="AM61" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN61" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO61" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP61" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ61" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR61" t="s">
         <v>136</v>
       </c>
-      <c r="AR61" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS61" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT61" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU61" s="29">
+      <c r="AS61" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT61" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU61" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV61" s="29">
         <v>280</v>
       </c>
-      <c r="AV61" s="30">
+      <c r="AW61" s="30">
         <v>486.6</v>
       </c>
-      <c r="AW61" t="s">
+      <c r="AX61" t="s">
         <v>438</v>
       </c>
-      <c r="AX61" s="73" t="s">
+      <c r="AY61" s="73" t="s">
         <v>471</v>
       </c>
-      <c r="AY61" s="42" t="s">
+      <c r="AZ61" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="1:52">
       <c r="A62" s="2">
         <v>97706</v>
       </c>
@@ -15954,23 +16151,26 @@
       <c r="Z62" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="AK62" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP62" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS62" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT62" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY62" s="42" t="s">
+      <c r="AK62" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL62" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ62" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT62" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU62" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ62" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:51">
+    <row r="63" spans="1:52">
       <c r="A63" s="1" t="s">
         <v>309</v>
       </c>
@@ -16076,53 +16276,56 @@
       <c r="AJ63" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK63" s="88">
+      <c r="AK63" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL63" s="88">
         <v>0</v>
       </c>
-      <c r="AL63" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM63" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN63" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO63" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP63" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ63" t="s">
+      <c r="AM63" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN63" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO63" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP63" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ63" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR63" t="s">
         <v>136</v>
       </c>
-      <c r="AR63" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS63" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT63" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU63" s="29">
+      <c r="AS63" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT63" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU63" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV63" s="29">
         <v>289</v>
       </c>
-      <c r="AV63" s="30">
+      <c r="AW63" s="30">
         <v>485.9</v>
       </c>
-      <c r="AW63" t="s">
+      <c r="AX63" t="s">
         <v>438</v>
       </c>
-      <c r="AX63" s="73" t="s">
+      <c r="AY63" s="73" t="s">
         <v>472</v>
       </c>
-      <c r="AY63" s="42" t="s">
+      <c r="AZ63" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:51">
+    <row r="64" spans="1:52">
       <c r="A64" s="2">
         <v>97844</v>
       </c>
@@ -16228,53 +16431,56 @@
       <c r="AJ64" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK64" s="88">
+      <c r="AK64" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL64" s="88">
         <v>0</v>
       </c>
-      <c r="AL64" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM64" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN64" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO64" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP64" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ64" t="s">
+      <c r="AM64" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN64" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO64" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP64" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ64" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR64" t="s">
         <v>136</v>
       </c>
-      <c r="AR64" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS64" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT64" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU64" s="29">
+      <c r="AS64" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT64" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU64" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV64" s="29">
         <v>303</v>
       </c>
-      <c r="AV64" s="30">
+      <c r="AW64" s="30">
         <v>503.4</v>
       </c>
-      <c r="AW64" t="s">
+      <c r="AX64" t="s">
         <v>438</v>
       </c>
-      <c r="AX64" s="73" t="s">
+      <c r="AY64" s="73" t="s">
         <v>473</v>
       </c>
-      <c r="AY64" s="42" t="s">
+      <c r="AZ64" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:51">
+    <row r="65" spans="1:52">
       <c r="A65" s="2">
         <v>97820</v>
       </c>
@@ -16377,53 +16583,56 @@
       <c r="AJ65" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK65" s="88">
+      <c r="AK65" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL65" s="88">
         <v>0</v>
       </c>
-      <c r="AL65" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM65" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN65" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO65" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP65" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ65" t="s">
+      <c r="AM65" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN65" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO65" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP65" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ65" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR65" t="s">
         <v>136</v>
       </c>
-      <c r="AR65" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS65" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT65" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU65" s="29">
+      <c r="AS65" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT65" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU65" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV65" s="29">
         <v>277</v>
       </c>
-      <c r="AV65" s="30">
+      <c r="AW65" s="30">
         <v>464.6</v>
       </c>
-      <c r="AW65" t="s">
+      <c r="AX65" t="s">
         <v>438</v>
       </c>
-      <c r="AX65" s="79" t="s">
+      <c r="AY65" s="79" t="s">
         <v>460</v>
       </c>
-      <c r="AY65" s="42" t="s">
+      <c r="AZ65" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="1:52">
       <c r="A66" s="1" t="s">
         <v>317</v>
       </c>
@@ -16529,53 +16738,56 @@
       <c r="AJ66" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK66" s="88">
+      <c r="AK66" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL66" s="88">
         <v>0</v>
       </c>
-      <c r="AL66" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM66" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN66" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO66" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP66" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ66" t="s">
+      <c r="AM66" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN66" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO66" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP66" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ66" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR66" t="s">
         <v>136</v>
       </c>
-      <c r="AR66" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS66" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT66" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU66" s="29">
+      <c r="AS66" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT66" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU66" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV66" s="29">
         <v>273</v>
       </c>
-      <c r="AV66" s="30">
+      <c r="AW66" s="30">
         <v>409.9</v>
       </c>
-      <c r="AW66" t="s">
+      <c r="AX66" t="s">
         <v>453</v>
       </c>
-      <c r="AX66" s="78" t="s">
+      <c r="AY66" s="78" t="s">
         <v>455</v>
       </c>
-      <c r="AY66" s="42" t="s">
+      <c r="AZ66" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:51">
+    <row r="67" spans="1:52">
       <c r="A67" s="2">
         <v>97803</v>
       </c>
@@ -16678,53 +16890,56 @@
       <c r="AJ67" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK67" s="88">
+      <c r="AK67" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL67" s="88">
         <v>0</v>
       </c>
-      <c r="AL67" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM67" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN67" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO67" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP67" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ67" t="s">
+      <c r="AM67" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN67" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO67" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP67" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ67" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR67" t="s">
         <v>136</v>
       </c>
-      <c r="AR67" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS67" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT67" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU67" s="29">
+      <c r="AS67" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT67" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU67" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV67" s="29">
         <v>280</v>
       </c>
-      <c r="AV67" s="30">
+      <c r="AW67" s="30">
         <v>516.9</v>
       </c>
-      <c r="AW67" t="s">
+      <c r="AX67" t="s">
         <v>30</v>
       </c>
-      <c r="AX67" s="73" t="s">
+      <c r="AY67" s="73" t="s">
         <v>474</v>
       </c>
-      <c r="AY67" s="42" t="s">
+      <c r="AZ67" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:51">
+    <row r="68" spans="1:52">
       <c r="A68" s="2">
         <v>97831</v>
       </c>
@@ -16830,49 +17045,52 @@
       <c r="AJ68" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AK68" s="88">
+      <c r="AK68" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL68" s="88">
         <v>0</v>
       </c>
-      <c r="AL68" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM68" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN68" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO68" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP68" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ68" t="s">
+      <c r="AM68" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN68" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO68" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP68" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ68" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR68" t="s">
         <v>136</v>
       </c>
-      <c r="AR68" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS68" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT68" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU68" s="29">
+      <c r="AS68" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT68" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU68" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV68" s="29">
         <v>278</v>
       </c>
-      <c r="AV68" s="30">
+      <c r="AW68" s="30">
         <v>424.4</v>
       </c>
-      <c r="AW68" t="s">
+      <c r="AX68" t="s">
         <v>438</v>
       </c>
-      <c r="AX68" s="80" t="s">
+      <c r="AY68" s="80" t="s">
         <v>475</v>
       </c>
-      <c r="AY68" s="42" t="s">
+      <c r="AZ68" s="42" t="s">
         <v>104</v>
       </c>
     </row>
@@ -16943,68 +17161,68 @@
     <hyperlink ref="AH66" r:id="rId63" xr:uid="{40FA5C84-D700-493F-906D-F0F758333ECC}"/>
     <hyperlink ref="AH67" r:id="rId64" xr:uid="{BBFCF99F-A55E-46E7-8A05-D15C945263D4}"/>
     <hyperlink ref="AH68" r:id="rId65" xr:uid="{CE504963-5EFA-46D7-AC91-FB94AC67B5B7}"/>
-    <hyperlink ref="AX3" r:id="rId66" display="https://drive.google.com/file/d/1vWk-hBzE0cYDfeJ-UvARigi5s1UDNCVA/view?usp=sharing" xr:uid="{A4879858-C00C-4CB6-BC92-E14DC588F672}"/>
-    <hyperlink ref="AX4" r:id="rId67" xr:uid="{0336C02F-5C72-45A2-9E28-F68BBE85C5AC}"/>
-    <hyperlink ref="AX5" r:id="rId68" display="https://drive.google.com/file/d/1z5Y4lj6K_KoSJCc-hOjumBJhQ0wafooI/view?usp=sharing" xr:uid="{6A673DA9-FEC9-414D-904B-FA58FF39F82C}"/>
-    <hyperlink ref="AX6" r:id="rId69" xr:uid="{8C7BDC07-D870-4893-829F-EB7901DA788E}"/>
-    <hyperlink ref="AX8" r:id="rId70" xr:uid="{E6303442-AE74-4053-B5AE-BCF343938018}"/>
-    <hyperlink ref="AX9" r:id="rId71" display="https://drive.google.com/file/d/1TaKgNMOsg1hnK1oU5octMQOMXa4CdPa-/view?usp=sharing" xr:uid="{C0B9EF9C-4AFB-432B-9477-87EA2D5A29AE}"/>
-    <hyperlink ref="AX10" r:id="rId72" xr:uid="{145268B7-BE09-4803-9EC5-AFD1FB935164}"/>
-    <hyperlink ref="AX11" r:id="rId73" xr:uid="{A503DB39-43C2-469E-9E4F-2CBC246011CE}"/>
-    <hyperlink ref="AX12" r:id="rId74" xr:uid="{5DC017C1-E759-4225-BE05-9B6D07DBC347}"/>
-    <hyperlink ref="AX13" r:id="rId75" display="https://drive.google.com/file/d/1D-PZdIjRU9aJbu1Vbxt2G0RFRq6E-rTh/view?usp=sharing" xr:uid="{F6239184-4C03-4C2C-81D9-86E6DC1E6536}"/>
-    <hyperlink ref="AX15" r:id="rId76" xr:uid="{5DD869C4-DD5A-4334-80D2-6871A3B021D4}"/>
-    <hyperlink ref="AX16" r:id="rId77" display="https://drive.google.com/file/d/1fZqrBD6irlITDebyUGUMaPHgt37PP9GQ/view?usp=sharing" xr:uid="{4E282E98-1F24-403F-A8EE-D9C0016C87B5}"/>
-    <hyperlink ref="AX17" r:id="rId78" display="https://drive.google.com/file/d/1TTIl7-0WojhZIH5xYsdl-sOgCQYK-PUb/view?usp=sharing" xr:uid="{5F8B6C0A-6EB0-4895-9E39-F848AF179AF5}"/>
-    <hyperlink ref="AX18" r:id="rId79" xr:uid="{AA4052B5-9A38-4918-842C-0FE103F8B60E}"/>
-    <hyperlink ref="AX19" r:id="rId80" display="https://drive.google.com/file/d/1ZsgaXTvErap_HiaDBmYsBV31KKWimWly/view?usp=sharing" xr:uid="{E8CCC80D-5E16-495C-A2D7-AC1DE0A18DF9}"/>
-    <hyperlink ref="AX20" r:id="rId81" display="https://drive.google.com/file/d/13lcxJIAZTsyZijjikpvvikUN9Y7_qVD4/view?usp=sharing" xr:uid="{54CEE095-29C0-452C-8AB9-3CF82A9986EB}"/>
-    <hyperlink ref="AX22" r:id="rId82" display="https://drive.google.com/file/d/1VNwW5ywJ9Iw3viijwk99q3UVxiaevx8Q/view?usp=sharing" xr:uid="{9A02DA0D-134F-4155-8A13-674D3CA9B759}"/>
-    <hyperlink ref="AX23" r:id="rId83" xr:uid="{53450B56-2A72-4E76-A1FE-A5032C6E809F}"/>
-    <hyperlink ref="AX24" r:id="rId84" display="https://drive.google.com/file/d/1mVoj3rWLPRQmslLGv_77bnS_ekbPnHaa/view?usp=sharing" xr:uid="{A41C90CA-1B66-4265-8CD5-EA5EA44B1E14}"/>
-    <hyperlink ref="AX25" r:id="rId85" xr:uid="{9952BD5E-C632-4D96-9A6D-90D7F56F05A8}"/>
-    <hyperlink ref="AX26" r:id="rId86" xr:uid="{CD28968A-2FB5-4EDF-8002-B809F10028EA}"/>
-    <hyperlink ref="AX27" r:id="rId87" xr:uid="{313C1234-7D02-4045-9E8B-B6A25603F5D4}"/>
-    <hyperlink ref="AX28" r:id="rId88" xr:uid="{E1AA85BF-AF29-4BAA-BA80-956E5EF57E9C}"/>
-    <hyperlink ref="AX29" r:id="rId89" xr:uid="{DF8A9460-AF92-410E-90CC-716ED4A80A7A}"/>
-    <hyperlink ref="AX30" r:id="rId90" xr:uid="{D87D4A81-6ED1-4E1C-93B8-AE6345EFC5B4}"/>
-    <hyperlink ref="AX31" r:id="rId91" xr:uid="{5472EDDB-5B87-4392-BEB3-AC39E50D6640}"/>
-    <hyperlink ref="AX32" r:id="rId92" xr:uid="{4EDDA706-7544-4ACB-8DB5-00CA7FC04894}"/>
-    <hyperlink ref="AX33" r:id="rId93" xr:uid="{6C9846D4-AE4F-42E6-8826-06E13280AB5E}"/>
-    <hyperlink ref="AX34" r:id="rId94" xr:uid="{2F968B1B-F260-49F9-B1BB-7434DB6C084C}"/>
-    <hyperlink ref="AX35" r:id="rId95" xr:uid="{9D24D5E9-150F-4C53-BFF5-4DBF04F8BBF7}"/>
-    <hyperlink ref="AX36" r:id="rId96" xr:uid="{062C3DE6-AFE7-4957-AC14-C01641ABE244}"/>
-    <hyperlink ref="AX37" r:id="rId97" xr:uid="{82B94B40-A379-45E1-8F70-7888486255BB}"/>
-    <hyperlink ref="AX38" r:id="rId98" xr:uid="{53DBDC89-C2FE-45F1-BAA4-8C5FD6CC9749}"/>
-    <hyperlink ref="AX39" r:id="rId99" xr:uid="{26376FC0-B318-44A7-BFB6-2CBCEB68E641}"/>
-    <hyperlink ref="AX40" r:id="rId100" xr:uid="{55F0D45A-7337-4166-AF51-1974EE9CA572}"/>
-    <hyperlink ref="AX41" r:id="rId101" xr:uid="{5F6DC72C-74BD-4F38-B868-DADDF71B3C4D}"/>
-    <hyperlink ref="AX42" r:id="rId102" xr:uid="{8F92F665-9C3F-4648-B7E9-7C5FFC150BE8}"/>
-    <hyperlink ref="AX43" r:id="rId103" xr:uid="{FCFAB0C8-4FE7-4930-BB3E-24477E34DC86}"/>
-    <hyperlink ref="AX44" r:id="rId104" xr:uid="{F9B6C6DE-8C23-4021-8BCA-D54B53F83187}"/>
-    <hyperlink ref="AX45" r:id="rId105" xr:uid="{70CC64E9-981B-46F5-9ECF-6D450C022283}"/>
-    <hyperlink ref="AX46" r:id="rId106" xr:uid="{5DAC7ACF-B4C4-41B9-8D9F-4E10E211D72D}"/>
-    <hyperlink ref="AX47" r:id="rId107" xr:uid="{ED83EB98-BFAA-4390-A79A-7225AF1247A6}"/>
-    <hyperlink ref="AX48" r:id="rId108" xr:uid="{9EEBAB24-A1D7-4F91-A446-6658E33745B8}"/>
-    <hyperlink ref="AX49" r:id="rId109" xr:uid="{FF209E16-4AA1-4839-B9B5-D10A76DECCF5}"/>
-    <hyperlink ref="AX50" r:id="rId110" xr:uid="{A7AA098A-FE6A-4E98-8EDD-58D351D53EBC}"/>
-    <hyperlink ref="AX51" r:id="rId111" xr:uid="{353AB7DA-AF68-46D5-AF7E-DA7C5F7B3AA0}"/>
-    <hyperlink ref="AX52" r:id="rId112" xr:uid="{6D744A6D-507B-4C6D-81F0-2C0FD8D89A73}"/>
-    <hyperlink ref="AX53" r:id="rId113" xr:uid="{088088CD-2660-4CC7-A11E-9C9F91EB1DB3}"/>
-    <hyperlink ref="AX54" r:id="rId114" xr:uid="{7F796E48-AE53-4C49-AEF2-0B51BCAE5FCA}"/>
-    <hyperlink ref="AX55" r:id="rId115" xr:uid="{E9DDB5D6-059A-4E62-A88C-B79655352BC9}"/>
-    <hyperlink ref="AX56" r:id="rId116" xr:uid="{CF012B17-D098-415E-880B-2CAF8D1330B6}"/>
-    <hyperlink ref="AX57" r:id="rId117" xr:uid="{6FAA70C5-7FCD-43D5-8641-CBA0000E4B24}"/>
-    <hyperlink ref="AX58" r:id="rId118" xr:uid="{E9CFA8A4-DC77-45DE-A407-76A0A7C4A95C}"/>
-    <hyperlink ref="AX59" r:id="rId119" xr:uid="{91233AFD-3942-44DF-88EC-1E11BA6A9F1D}"/>
-    <hyperlink ref="AX60" r:id="rId120" xr:uid="{C7F7C9CA-2B9A-4EBE-B9C8-3ED86ACF73D6}"/>
-    <hyperlink ref="AX61" r:id="rId121" xr:uid="{3F7F54E8-83F7-451A-8887-572813070939}"/>
-    <hyperlink ref="AX63" r:id="rId122" xr:uid="{863A775D-9395-428F-9B4D-DCF26D635FFA}"/>
-    <hyperlink ref="AX64" r:id="rId123" xr:uid="{AFCF7D62-AB40-4CB8-B85B-4A09018B3C1D}"/>
-    <hyperlink ref="AX65" r:id="rId124" xr:uid="{61378AB5-918D-48F0-82DA-F41126E9D15C}"/>
-    <hyperlink ref="AX66" r:id="rId125" xr:uid="{8B227A06-754D-40BE-A189-D26DDAEE7328}"/>
-    <hyperlink ref="AX67" r:id="rId126" xr:uid="{966D383D-A685-4304-817C-ED071A33783E}"/>
-    <hyperlink ref="AX68" r:id="rId127" xr:uid="{126F68F2-9B38-4AC9-B25F-67956492B5CC}"/>
+    <hyperlink ref="AY3" r:id="rId66" display="https://drive.google.com/file/d/1vWk-hBzE0cYDfeJ-UvARigi5s1UDNCVA/view?usp=sharing" xr:uid="{A4879858-C00C-4CB6-BC92-E14DC588F672}"/>
+    <hyperlink ref="AY4" r:id="rId67" xr:uid="{0336C02F-5C72-45A2-9E28-F68BBE85C5AC}"/>
+    <hyperlink ref="AY5" r:id="rId68" display="https://drive.google.com/file/d/1z5Y4lj6K_KoSJCc-hOjumBJhQ0wafooI/view?usp=sharing" xr:uid="{6A673DA9-FEC9-414D-904B-FA58FF39F82C}"/>
+    <hyperlink ref="AY6" r:id="rId69" xr:uid="{8C7BDC07-D870-4893-829F-EB7901DA788E}"/>
+    <hyperlink ref="AY8" r:id="rId70" xr:uid="{E6303442-AE74-4053-B5AE-BCF343938018}"/>
+    <hyperlink ref="AY9" r:id="rId71" display="https://drive.google.com/file/d/1TaKgNMOsg1hnK1oU5octMQOMXa4CdPa-/view?usp=sharing" xr:uid="{C0B9EF9C-4AFB-432B-9477-87EA2D5A29AE}"/>
+    <hyperlink ref="AY10" r:id="rId72" xr:uid="{145268B7-BE09-4803-9EC5-AFD1FB935164}"/>
+    <hyperlink ref="AY11" r:id="rId73" xr:uid="{A503DB39-43C2-469E-9E4F-2CBC246011CE}"/>
+    <hyperlink ref="AY12" r:id="rId74" xr:uid="{5DC017C1-E759-4225-BE05-9B6D07DBC347}"/>
+    <hyperlink ref="AY13" r:id="rId75" display="https://drive.google.com/file/d/1D-PZdIjRU9aJbu1Vbxt2G0RFRq6E-rTh/view?usp=sharing" xr:uid="{F6239184-4C03-4C2C-81D9-86E6DC1E6536}"/>
+    <hyperlink ref="AY15" r:id="rId76" xr:uid="{5DD869C4-DD5A-4334-80D2-6871A3B021D4}"/>
+    <hyperlink ref="AY16" r:id="rId77" display="https://drive.google.com/file/d/1fZqrBD6irlITDebyUGUMaPHgt37PP9GQ/view?usp=sharing" xr:uid="{4E282E98-1F24-403F-A8EE-D9C0016C87B5}"/>
+    <hyperlink ref="AY17" r:id="rId78" display="https://drive.google.com/file/d/1TTIl7-0WojhZIH5xYsdl-sOgCQYK-PUb/view?usp=sharing" xr:uid="{5F8B6C0A-6EB0-4895-9E39-F848AF179AF5}"/>
+    <hyperlink ref="AY18" r:id="rId79" xr:uid="{AA4052B5-9A38-4918-842C-0FE103F8B60E}"/>
+    <hyperlink ref="AY19" r:id="rId80" display="https://drive.google.com/file/d/1ZsgaXTvErap_HiaDBmYsBV31KKWimWly/view?usp=sharing" xr:uid="{E8CCC80D-5E16-495C-A2D7-AC1DE0A18DF9}"/>
+    <hyperlink ref="AY20" r:id="rId81" display="https://drive.google.com/file/d/13lcxJIAZTsyZijjikpvvikUN9Y7_qVD4/view?usp=sharing" xr:uid="{54CEE095-29C0-452C-8AB9-3CF82A9986EB}"/>
+    <hyperlink ref="AY22" r:id="rId82" display="https://drive.google.com/file/d/1VNwW5ywJ9Iw3viijwk99q3UVxiaevx8Q/view?usp=sharing" xr:uid="{9A02DA0D-134F-4155-8A13-674D3CA9B759}"/>
+    <hyperlink ref="AY23" r:id="rId83" xr:uid="{53450B56-2A72-4E76-A1FE-A5032C6E809F}"/>
+    <hyperlink ref="AY24" r:id="rId84" display="https://drive.google.com/file/d/1mVoj3rWLPRQmslLGv_77bnS_ekbPnHaa/view?usp=sharing" xr:uid="{A41C90CA-1B66-4265-8CD5-EA5EA44B1E14}"/>
+    <hyperlink ref="AY25" r:id="rId85" xr:uid="{9952BD5E-C632-4D96-9A6D-90D7F56F05A8}"/>
+    <hyperlink ref="AY26" r:id="rId86" xr:uid="{CD28968A-2FB5-4EDF-8002-B809F10028EA}"/>
+    <hyperlink ref="AY27" r:id="rId87" xr:uid="{313C1234-7D02-4045-9E8B-B6A25603F5D4}"/>
+    <hyperlink ref="AY28" r:id="rId88" xr:uid="{E1AA85BF-AF29-4BAA-BA80-956E5EF57E9C}"/>
+    <hyperlink ref="AY29" r:id="rId89" xr:uid="{DF8A9460-AF92-410E-90CC-716ED4A80A7A}"/>
+    <hyperlink ref="AY30" r:id="rId90" xr:uid="{D87D4A81-6ED1-4E1C-93B8-AE6345EFC5B4}"/>
+    <hyperlink ref="AY31" r:id="rId91" xr:uid="{5472EDDB-5B87-4392-BEB3-AC39E50D6640}"/>
+    <hyperlink ref="AY32" r:id="rId92" xr:uid="{4EDDA706-7544-4ACB-8DB5-00CA7FC04894}"/>
+    <hyperlink ref="AY33" r:id="rId93" xr:uid="{6C9846D4-AE4F-42E6-8826-06E13280AB5E}"/>
+    <hyperlink ref="AY34" r:id="rId94" xr:uid="{2F968B1B-F260-49F9-B1BB-7434DB6C084C}"/>
+    <hyperlink ref="AY35" r:id="rId95" xr:uid="{9D24D5E9-150F-4C53-BFF5-4DBF04F8BBF7}"/>
+    <hyperlink ref="AY36" r:id="rId96" xr:uid="{062C3DE6-AFE7-4957-AC14-C01641ABE244}"/>
+    <hyperlink ref="AY37" r:id="rId97" xr:uid="{82B94B40-A379-45E1-8F70-7888486255BB}"/>
+    <hyperlink ref="AY38" r:id="rId98" xr:uid="{53DBDC89-C2FE-45F1-BAA4-8C5FD6CC9749}"/>
+    <hyperlink ref="AY39" r:id="rId99" xr:uid="{26376FC0-B318-44A7-BFB6-2CBCEB68E641}"/>
+    <hyperlink ref="AY40" r:id="rId100" xr:uid="{55F0D45A-7337-4166-AF51-1974EE9CA572}"/>
+    <hyperlink ref="AY41" r:id="rId101" xr:uid="{5F6DC72C-74BD-4F38-B868-DADDF71B3C4D}"/>
+    <hyperlink ref="AY42" r:id="rId102" xr:uid="{8F92F665-9C3F-4648-B7E9-7C5FFC150BE8}"/>
+    <hyperlink ref="AY43" r:id="rId103" xr:uid="{FCFAB0C8-4FE7-4930-BB3E-24477E34DC86}"/>
+    <hyperlink ref="AY44" r:id="rId104" xr:uid="{F9B6C6DE-8C23-4021-8BCA-D54B53F83187}"/>
+    <hyperlink ref="AY45" r:id="rId105" xr:uid="{70CC64E9-981B-46F5-9ECF-6D450C022283}"/>
+    <hyperlink ref="AY46" r:id="rId106" xr:uid="{5DAC7ACF-B4C4-41B9-8D9F-4E10E211D72D}"/>
+    <hyperlink ref="AY47" r:id="rId107" xr:uid="{ED83EB98-BFAA-4390-A79A-7225AF1247A6}"/>
+    <hyperlink ref="AY48" r:id="rId108" xr:uid="{9EEBAB24-A1D7-4F91-A446-6658E33745B8}"/>
+    <hyperlink ref="AY49" r:id="rId109" xr:uid="{FF209E16-4AA1-4839-B9B5-D10A76DECCF5}"/>
+    <hyperlink ref="AY50" r:id="rId110" xr:uid="{A7AA098A-FE6A-4E98-8EDD-58D351D53EBC}"/>
+    <hyperlink ref="AY51" r:id="rId111" xr:uid="{353AB7DA-AF68-46D5-AF7E-DA7C5F7B3AA0}"/>
+    <hyperlink ref="AY52" r:id="rId112" xr:uid="{6D744A6D-507B-4C6D-81F0-2C0FD8D89A73}"/>
+    <hyperlink ref="AY53" r:id="rId113" xr:uid="{088088CD-2660-4CC7-A11E-9C9F91EB1DB3}"/>
+    <hyperlink ref="AY54" r:id="rId114" xr:uid="{7F796E48-AE53-4C49-AEF2-0B51BCAE5FCA}"/>
+    <hyperlink ref="AY55" r:id="rId115" xr:uid="{E9DDB5D6-059A-4E62-A88C-B79655352BC9}"/>
+    <hyperlink ref="AY56" r:id="rId116" xr:uid="{CF012B17-D098-415E-880B-2CAF8D1330B6}"/>
+    <hyperlink ref="AY57" r:id="rId117" xr:uid="{6FAA70C5-7FCD-43D5-8641-CBA0000E4B24}"/>
+    <hyperlink ref="AY58" r:id="rId118" xr:uid="{E9CFA8A4-DC77-45DE-A407-76A0A7C4A95C}"/>
+    <hyperlink ref="AY59" r:id="rId119" xr:uid="{91233AFD-3942-44DF-88EC-1E11BA6A9F1D}"/>
+    <hyperlink ref="AY60" r:id="rId120" xr:uid="{C7F7C9CA-2B9A-4EBE-B9C8-3ED86ACF73D6}"/>
+    <hyperlink ref="AY61" r:id="rId121" xr:uid="{3F7F54E8-83F7-451A-8887-572813070939}"/>
+    <hyperlink ref="AY63" r:id="rId122" xr:uid="{863A775D-9395-428F-9B4D-DCF26D635FFA}"/>
+    <hyperlink ref="AY64" r:id="rId123" xr:uid="{AFCF7D62-AB40-4CB8-B85B-4A09018B3C1D}"/>
+    <hyperlink ref="AY65" r:id="rId124" xr:uid="{61378AB5-918D-48F0-82DA-F41126E9D15C}"/>
+    <hyperlink ref="AY66" r:id="rId125" xr:uid="{8B227A06-754D-40BE-A189-D26DDAEE7328}"/>
+    <hyperlink ref="AY67" r:id="rId126" xr:uid="{966D383D-A685-4304-817C-ED071A33783E}"/>
+    <hyperlink ref="AY68" r:id="rId127" xr:uid="{126F68F2-9B38-4AC9-B25F-67956492B5CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SUMR25_River_Rockfish_Proj/Raw_Data/River's_Rockfish_Metadata_Parturition_V7.xlsx
+++ b/SUMR25_River_Rockfish_Proj/Raw_Data/River's_Rockfish_Metadata_Parturition_V7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmcke\OneDrive\Documents\Summer_2025_Rockfish_Research_Project\Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D524A6B-1E96-4562-A347-CAC68C934330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612F74E5-5198-4373-B56B-180B81EA4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{1F309CE8-D94F-4E95-9E51-ED88FCC75EAC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="509">
   <si>
     <t>FISH_ID</t>
   </si>
@@ -5833,6 +5833,9 @@
   </si>
   <si>
     <t>All_Fecundity</t>
+  </si>
+  <si>
+    <t>Weight_Adj_Fec_With_Ateresia_Zeros</t>
   </si>
 </sst>
 </file>
@@ -6850,11 +6853,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98266282-F063-447E-BEE6-F317894BF3C6}">
-  <dimension ref="A1:BB68"/>
+  <dimension ref="A1:BC68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL4" sqref="AL4"/>
+      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ36" sqref="AZ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6907,12 +6910,13 @@
     <col min="50" max="50" width="47" customWidth="1"/>
     <col min="51" max="51" width="21" customWidth="1"/>
     <col min="52" max="52" width="43.81640625" style="42" customWidth="1"/>
-    <col min="53" max="53" width="41.26953125" style="43" customWidth="1"/>
-    <col min="54" max="54" width="40.26953125" style="44" customWidth="1"/>
-    <col min="55" max="55" width="21.08984375" customWidth="1"/>
+    <col min="53" max="53" width="43.81640625" style="30" customWidth="1"/>
+    <col min="54" max="54" width="41.26953125" style="43" customWidth="1"/>
+    <col min="55" max="55" width="40.26953125" style="44" customWidth="1"/>
+    <col min="56" max="56" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:55">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -7069,14 +7073,17 @@
       <c r="AZ1" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="BA1" s="43" t="s">
+      <c r="BA1" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="BB1" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="BB1" s="44" t="s">
+      <c r="BC1" s="44" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:55">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -7222,8 +7229,11 @@
       <c r="AZ2" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA2" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:55">
       <c r="A3" s="2">
         <v>97828</v>
       </c>
@@ -7368,8 +7378,11 @@
       <c r="AZ3" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA3" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:55">
       <c r="A4" s="2">
         <v>97811</v>
       </c>
@@ -7508,8 +7521,11 @@
       <c r="AZ4" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA4" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:55">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -7655,8 +7671,11 @@
         <f t="shared" ref="AZ5:AZ35" si="0">AJ5/AN5</f>
         <v>113.8416472007722</v>
       </c>
+      <c r="BA5" s="30">
+        <v>113.8416472007722</v>
+      </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:55">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -7804,8 +7823,11 @@
       <c r="AZ6" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA6" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:55">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -7948,8 +7970,11 @@
       <c r="AZ7" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA7" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:55">
       <c r="A8" s="2">
         <v>97838</v>
       </c>
@@ -8100,8 +8125,11 @@
       <c r="AZ8" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA8" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:55">
       <c r="A9" s="2">
         <v>97812</v>
       </c>
@@ -8244,8 +8272,11 @@
         <f t="shared" si="0"/>
         <v>68.791115581232489</v>
       </c>
+      <c r="BA9" s="30">
+        <v>68.791115581232489</v>
+      </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:55">
       <c r="A10" s="2">
         <v>97843</v>
       </c>
@@ -8394,8 +8425,11 @@
         <f t="shared" si="0"/>
         <v>271.558157999206</v>
       </c>
+      <c r="BA10" s="30">
+        <v>271.558157999206</v>
+      </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:55">
       <c r="A11" s="2">
         <v>97833</v>
       </c>
@@ -8550,8 +8584,11 @@
         <f t="shared" si="0"/>
         <v>208.14822864594652</v>
       </c>
+      <c r="BA11" s="30">
+        <v>208.14822864594652</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" s="61" customFormat="1">
+    <row r="12" spans="1:55" s="61" customFormat="1">
       <c r="A12" s="60" t="s">
         <v>51</v>
       </c>
@@ -8702,8 +8739,11 @@
       <c r="AZ12" s="61" t="s">
         <v>104</v>
       </c>
+      <c r="BA12" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:55">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -8857,8 +8897,11 @@
       <c r="AZ13" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA13" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:55">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -9007,8 +9050,11 @@
       <c r="AZ14" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA14" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="15" spans="1:54" s="61" customFormat="1">
+    <row r="15" spans="1:55" s="61" customFormat="1">
       <c r="A15" s="60" t="s">
         <v>54</v>
       </c>
@@ -9160,8 +9206,11 @@
         <f t="shared" si="0"/>
         <v>257.01186717758986</v>
       </c>
+      <c r="BA15" s="30">
+        <v>257.01186717758986</v>
+      </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:55">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -9310,8 +9359,11 @@
         <f t="shared" si="0"/>
         <v>114.2072882158069</v>
       </c>
+      <c r="BA16" s="30">
+        <v>114.2072882158069</v>
+      </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:53">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -9454,8 +9506,11 @@
         <f t="shared" si="0"/>
         <v>203.86814225713371</v>
       </c>
+      <c r="BA17" s="30">
+        <v>203.86814225713371</v>
+      </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:53">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -9609,8 +9664,11 @@
       <c r="AZ18" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA18" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:53">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -9761,8 +9819,11 @@
       <c r="AZ19" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA19" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:53">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -9916,8 +9977,11 @@
       <c r="AZ20" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA20" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:53">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -10057,8 +10121,11 @@
         <f t="shared" si="0"/>
         <v>161.05197634609399</v>
       </c>
+      <c r="BA21" s="30">
+        <v>161.05197634609399</v>
+      </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:53">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -10201,8 +10268,11 @@
         <f t="shared" si="0"/>
         <v>355.7167202937249</v>
       </c>
+      <c r="BA22" s="30">
+        <v>355.7167202937249</v>
+      </c>
     </row>
-    <row r="23" spans="1:52" s="61" customFormat="1">
+    <row r="23" spans="1:53" s="61" customFormat="1">
       <c r="A23" s="60" t="s">
         <v>62</v>
       </c>
@@ -10357,8 +10427,11 @@
         <f t="shared" si="0"/>
         <v>165.54735720638772</v>
       </c>
+      <c r="BA23" s="30">
+        <v>165.54735720638772</v>
+      </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:53">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -10498,8 +10571,11 @@
         <f t="shared" si="0"/>
         <v>6.2158354466046779</v>
       </c>
+      <c r="BA24" s="30">
+        <v>6.2158354466046779</v>
+      </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:53">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -10650,8 +10726,11 @@
       <c r="AZ25" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA25" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:53">
       <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
@@ -10791,8 +10870,11 @@
         <f t="shared" si="0"/>
         <v>147.56135934550031</v>
       </c>
+      <c r="BA26" s="30">
+        <v>147.56135934550031</v>
+      </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:53">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -10943,8 +11025,11 @@
       <c r="AZ27" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA27" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:53">
       <c r="A28" s="2">
         <v>77795</v>
       </c>
@@ -11087,8 +11172,11 @@
         <f t="shared" si="0"/>
         <v>180.71039999999999</v>
       </c>
+      <c r="BA28" s="30">
+        <v>180.71039999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:53">
       <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
@@ -11228,8 +11316,11 @@
         <f t="shared" si="0"/>
         <v>241.89097103918229</v>
       </c>
+      <c r="BA29" s="30">
+        <v>241.89097103918229</v>
+      </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:53">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -11369,8 +11460,11 @@
         <f t="shared" si="0"/>
         <v>222.42606854866645</v>
       </c>
+      <c r="BA30" s="30">
+        <v>222.42606854866645</v>
+      </c>
     </row>
-    <row r="31" spans="1:52" s="61" customFormat="1">
+    <row r="31" spans="1:53" s="61" customFormat="1">
       <c r="A31" s="60" t="s">
         <v>69</v>
       </c>
@@ -11522,8 +11616,11 @@
         <f t="shared" si="0"/>
         <v>1.4217727543129091</v>
       </c>
+      <c r="BA31" s="30">
+        <v>1.4217727543129091</v>
+      </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:53">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -11666,8 +11763,11 @@
         <f t="shared" si="0"/>
         <v>77.660757733750444</v>
       </c>
+      <c r="BA32" s="30">
+        <v>77.660757733750444</v>
+      </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:53">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -11810,8 +11910,11 @@
         <f t="shared" si="0"/>
         <v>337.64382424577911</v>
       </c>
+      <c r="BA33" s="30">
+        <v>337.64382424577911</v>
+      </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:53">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -11954,8 +12057,11 @@
         <f t="shared" si="0"/>
         <v>25.779702970297031</v>
       </c>
+      <c r="BA34" s="30">
+        <v>25.779702970297031</v>
+      </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:53">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -12098,8 +12204,11 @@
         <f t="shared" si="0"/>
         <v>93.575337468077336</v>
       </c>
+      <c r="BA35" s="30">
+        <v>93.575337468077336</v>
+      </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:53">
       <c r="A36" s="2">
         <v>97824</v>
       </c>
@@ -12253,8 +12362,11 @@
       <c r="AZ36" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA36" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:53">
       <c r="A37" s="2">
         <v>97827</v>
       </c>
@@ -12408,8 +12520,11 @@
       <c r="AZ37" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA37" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:53">
       <c r="A38" s="1" t="s">
         <v>252</v>
       </c>
@@ -12560,8 +12675,11 @@
       <c r="AZ38" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA38" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:53">
       <c r="A39" s="2" t="s">
         <v>254</v>
       </c>
@@ -12712,8 +12830,11 @@
       <c r="AZ39" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA39" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:53">
       <c r="A40" s="2">
         <v>97830</v>
       </c>
@@ -12867,8 +12988,11 @@
       <c r="AZ40" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA40" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:53">
       <c r="A41" s="2">
         <v>97823</v>
       </c>
@@ -13019,8 +13143,11 @@
       <c r="AZ41" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA41" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:53">
       <c r="A42" s="2">
         <v>97836</v>
       </c>
@@ -13174,8 +13301,11 @@
       <c r="AZ42" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA42" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:53">
       <c r="A43" s="1" t="s">
         <v>259</v>
       </c>
@@ -13329,8 +13459,11 @@
       <c r="AZ43" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA43" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:53">
       <c r="A44" s="2">
         <v>97822</v>
       </c>
@@ -13484,8 +13617,11 @@
       <c r="AZ44" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA44" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:53">
       <c r="A45" s="1" t="s">
         <v>264</v>
       </c>
@@ -13636,8 +13772,11 @@
       <c r="AZ45" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA45" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:53">
       <c r="A46" s="1" t="s">
         <v>267</v>
       </c>
@@ -13791,8 +13930,11 @@
       <c r="AZ46" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA46" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:53">
       <c r="A47" s="2">
         <v>97805</v>
       </c>
@@ -13949,8 +14091,11 @@
       <c r="AZ47" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA47" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:53">
       <c r="A48" s="1" t="s">
         <v>273</v>
       </c>
@@ -14101,8 +14246,11 @@
       <c r="AZ48" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA48" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:53">
       <c r="A49" s="2">
         <v>97841</v>
       </c>
@@ -14253,8 +14401,11 @@
       <c r="AZ49" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA49" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:53">
       <c r="A50" s="2">
         <v>97825</v>
       </c>
@@ -14408,8 +14559,11 @@
       <c r="AZ50" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA50" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:53">
       <c r="A51" s="1" t="s">
         <v>281</v>
       </c>
@@ -14560,8 +14714,11 @@
       <c r="AZ51" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA51" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:53">
       <c r="A52" s="1" t="s">
         <v>283</v>
       </c>
@@ -14712,8 +14869,11 @@
       <c r="AZ52" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA52" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:53">
       <c r="A53" s="2">
         <v>97801</v>
       </c>
@@ -14867,8 +15027,11 @@
       <c r="AZ53" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA53" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:53">
       <c r="A54" s="1" t="s">
         <v>288</v>
       </c>
@@ -15022,8 +15185,11 @@
       <c r="AZ54" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA54" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:53">
       <c r="A55" s="2">
         <v>97816</v>
       </c>
@@ -15180,8 +15346,11 @@
       <c r="AZ55" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA55" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:53">
       <c r="A56" s="1" t="s">
         <v>293</v>
       </c>
@@ -15335,8 +15504,11 @@
       <c r="AZ56" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA56" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:53">
       <c r="A57" s="2">
         <v>97808</v>
       </c>
@@ -15490,8 +15662,11 @@
       <c r="AZ57" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA57" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:53">
       <c r="A58" s="1" t="s">
         <v>300</v>
       </c>
@@ -15645,8 +15820,11 @@
       <c r="AZ58" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA58" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:53">
       <c r="A59" s="1" t="s">
         <v>302</v>
       </c>
@@ -15800,8 +15978,11 @@
       <c r="AZ59" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA59" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:53">
       <c r="A60" s="40">
         <v>97821</v>
       </c>
@@ -15952,8 +16133,11 @@
       <c r="AZ60" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA60" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61" spans="1:53">
       <c r="A61" s="2">
         <v>97807</v>
       </c>
@@ -16107,8 +16291,11 @@
       <c r="AZ61" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA61" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:53">
       <c r="A62" s="2">
         <v>97706</v>
       </c>
@@ -16169,8 +16356,11 @@
       <c r="AZ62" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA62" s="30" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:53">
       <c r="A63" s="1" t="s">
         <v>309</v>
       </c>
@@ -16324,8 +16514,11 @@
       <c r="AZ63" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA63" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:53">
       <c r="A64" s="2">
         <v>97844</v>
       </c>
@@ -16479,8 +16672,11 @@
       <c r="AZ64" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA64" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:53">
       <c r="A65" s="2">
         <v>97820</v>
       </c>
@@ -16631,8 +16827,11 @@
       <c r="AZ65" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA65" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:53">
       <c r="A66" s="1" t="s">
         <v>317</v>
       </c>
@@ -16786,8 +16985,11 @@
       <c r="AZ66" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA66" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:53">
       <c r="A67" s="2">
         <v>97803</v>
       </c>
@@ -16938,8 +17140,11 @@
       <c r="AZ67" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="BA67" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:53">
       <c r="A68" s="2">
         <v>97831</v>
       </c>
@@ -17092,6 +17297,9 @@
       </c>
       <c r="AZ68" s="42" t="s">
         <v>104</v>
+      </c>
+      <c r="BA68" s="30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
